--- a/docs/data/data_XLS.xlsx
+++ b/docs/data/data_XLS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google Drive\06_GITHUB\LideresSociales\docs\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google Drive\06_GITHUB\LideresSociales\docs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2256404D-3570-448F-805A-AD0F0F4570D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75FC4D81-7E36-45E4-A22B-A7A66D19475A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2553,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="K76" workbookViewId="0">
+      <selection activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>+TEXT(B2,"0000")</f>
+        <f t="shared" ref="C2:C33" si="0">+TEXT(B2,"0000")</f>
         <v>0001</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2660,7 +2660,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>+CONCATENATE(E2,", ",F2)</f>
+        <f t="shared" ref="G2:G33" si="1">+CONCATENATE(E2,", ",F2)</f>
         <v>Riohacha, La Guajira</v>
       </c>
       <c r="H2" s="1">
@@ -2673,23 +2673,23 @@
         <v>42705</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f>+TEXT(J2,"DD-MM-YYYY")</f>
+        <f t="shared" ref="K2:K33" si="2">+TEXT(J2,"DD-MM-YYYY")</f>
         <v>01-12-2016</v>
       </c>
       <c r="L2" s="4">
-        <f>+YEAR(J2)</f>
+        <f t="shared" ref="L2:L33" si="3">+YEAR(J2)</f>
         <v>2016</v>
       </c>
       <c r="M2" s="4">
-        <f>+MONTH(J2)</f>
+        <f t="shared" ref="M2:M33" si="4">+MONTH(J2)</f>
         <v>12</v>
       </c>
       <c r="N2" s="4">
-        <f>+DAY(J2)</f>
+        <f t="shared" ref="N2:N33" si="5">+DAY(J2)</f>
         <v>1</v>
       </c>
       <c r="O2" s="3" t="str">
-        <f>+TEXT(K2,"DD-MMM-YYYY")</f>
+        <f t="shared" ref="O2:O33" si="6">+TEXT(K2,"DD-MMM-YYYY")</f>
         <v>01-Dec-2016</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -2702,8 +2702,8 @@
         <v>19</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C2,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0001.jpg</v>
+        <f>+TEXT(CONCATENATE("data/IMG/",C2,".jpg"),)</f>
+        <v>data/IMG/0001.jpg</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>20</v>
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>+TEXT(B3,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0002</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2730,7 +2730,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>+CONCATENATE(E3,", ",F3)</f>
+        <f t="shared" si="1"/>
         <v>Paez, Cáuca</v>
       </c>
       <c r="H3" s="1">
@@ -2743,23 +2743,23 @@
         <v>42706</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f>+TEXT(J3,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>02-12-2016</v>
       </c>
       <c r="L3" s="4">
-        <f>+YEAR(J3)</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="M3" s="4">
-        <f>+MONTH(J3)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N3" s="4">
-        <f>+DAY(J3)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O3" s="3" t="str">
-        <f>+TEXT(K3,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>02-Dec-2016</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -2772,8 +2772,8 @@
         <v>19</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C3,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0002.jpg</v>
+        <f t="shared" ref="S3:S66" si="7">+TEXT(CONCATENATE("data/IMG/",C3,".jpg"),)</f>
+        <v>data/IMG/0002.jpg</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>26</v>
@@ -2787,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>+TEXT(B4,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0003</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2800,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>+CONCATENATE(E4,", ",F4)</f>
+        <f t="shared" si="1"/>
         <v>Galapa, Atlántico</v>
       </c>
       <c r="H4" s="1">
@@ -2813,23 +2813,23 @@
         <v>42706</v>
       </c>
       <c r="K4" s="1" t="str">
-        <f>+TEXT(J4,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>02-12-2016</v>
       </c>
       <c r="L4" s="4">
-        <f>+YEAR(J4)</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="M4" s="4">
-        <f>+MONTH(J4)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N4" s="4">
-        <f>+DAY(J4)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O4" s="3" t="str">
-        <f>+TEXT(K4,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>02-Dec-2016</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2842,8 +2842,8 @@
         <v>19</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C4,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0003.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0003.jpg</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>32</v>
@@ -2857,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>+TEXT(B5,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0004</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2870,7 +2870,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>+CONCATENATE(E5,", ",F5)</f>
+        <f t="shared" si="1"/>
         <v>Satará, Cauca</v>
       </c>
       <c r="H5" s="1">
@@ -2883,23 +2883,23 @@
         <v>42707</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f>+TEXT(J5,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>03-12-2016</v>
       </c>
       <c r="L5" s="4">
-        <f>+YEAR(J5)</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="M5" s="4">
-        <f>+MONTH(J5)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N5" s="4">
-        <f>+DAY(J5)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O5" s="3" t="str">
-        <f>+TEXT(K5,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>03-Dec-2016</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -2912,8 +2912,8 @@
         <v>19</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C5,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0004.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0004.jpg</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>38</v>
@@ -2927,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>+TEXT(B6,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0005</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2940,7 +2940,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>+CONCATENATE(E6,", ",F6)</f>
+        <f t="shared" si="1"/>
         <v>Montería, Córdoba</v>
       </c>
       <c r="H6" s="1">
@@ -2953,23 +2953,23 @@
         <v>42707</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f>+TEXT(J6,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>03-12-2016</v>
       </c>
       <c r="L6" s="4">
-        <f>+YEAR(J6)</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="M6" s="4">
-        <f>+MONTH(J6)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N6" s="4">
-        <f>+DAY(J6)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f>+TEXT(K6,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>03-Dec-2016</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -2982,8 +2982,8 @@
         <v>44</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C6,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0005.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0005.jpg</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>45</v>
@@ -2997,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>+TEXT(B7,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0006</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3010,7 +3010,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>+CONCATENATE(E7,", ",F7)</f>
+        <f t="shared" si="1"/>
         <v>Tiquisio, Bolívar</v>
       </c>
       <c r="H7" s="1">
@@ -3023,23 +3023,23 @@
         <v>42714</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f>+TEXT(J7,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>10-12-2016</v>
       </c>
       <c r="L7" s="4">
-        <f>+YEAR(J7)</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="M7" s="4">
-        <f>+MONTH(J7)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N7" s="4">
-        <f>+DAY(J7)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O7" s="3" t="str">
-        <f>+TEXT(K7,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>10-Dec-2016</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3052,8 +3052,8 @@
         <v>19</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C7,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0006.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0006.jpg</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>51</v>
@@ -3067,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>+TEXT(B8,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0007</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3080,7 +3080,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>+CONCATENATE(E8,", ",F8)</f>
+        <f t="shared" si="1"/>
         <v>Puerto Asís, Putumayo</v>
       </c>
       <c r="H8" s="1">
@@ -3093,23 +3093,23 @@
         <v>42716</v>
       </c>
       <c r="K8" s="1" t="str">
-        <f>+TEXT(J8,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>12-12-2016</v>
       </c>
       <c r="L8" s="4">
-        <f>+YEAR(J8)</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="M8" s="4">
-        <f>+MONTH(J8)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N8" s="4">
-        <f>+DAY(J8)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="O8" s="3" t="str">
-        <f>+TEXT(K8,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>12-Dec-2016</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -3122,8 +3122,8 @@
         <v>19</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C8,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0007.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0007.jpg</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>57</v>
@@ -3137,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>+TEXT(B9,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0008</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3150,7 +3150,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>+CONCATENATE(E9,", ",F9)</f>
+        <f t="shared" si="1"/>
         <v>Argelia, Cauca</v>
       </c>
       <c r="H9" s="1">
@@ -3163,23 +3163,23 @@
         <v>42729</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f>+TEXT(J9,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>25-12-2016</v>
       </c>
       <c r="L9" s="4">
-        <f>+YEAR(J9)</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="M9" s="4">
-        <f>+MONTH(J9)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N9" s="4">
-        <f>+DAY(J9)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f>+TEXT(K9,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>25-Dec-2016</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -3192,8 +3192,8 @@
         <v>19</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C9,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0008.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0008.jpg</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>62</v>
@@ -3207,7 +3207,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>+TEXT(B10,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0009</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3220,7 +3220,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>+CONCATENATE(E10,", ",F10)</f>
+        <f t="shared" si="1"/>
         <v>Caloto, Cauca</v>
       </c>
       <c r="H10" s="1">
@@ -3233,23 +3233,23 @@
         <v>42744</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f>+TEXT(J10,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>09-01-2017</v>
       </c>
       <c r="L10" s="4">
-        <f>+YEAR(J10)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M10" s="4">
-        <f>+MONTH(J10)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N10" s="4">
-        <f>+DAY(J10)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="O10" s="3" t="str">
-        <f>+TEXT(K10,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>09-Jan-2017</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -3262,8 +3262,8 @@
         <v>19</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C10,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0009.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0009.jpg</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>67</v>
@@ -3277,7 +3277,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>+TEXT(B11,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0010</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3290,7 +3290,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>+CONCATENATE(E11,", ",F11)</f>
+        <f t="shared" si="1"/>
         <v>La Loma, Cesar</v>
       </c>
       <c r="H11" s="1">
@@ -3303,23 +3303,23 @@
         <v>42742</v>
       </c>
       <c r="K11" s="1" t="str">
-        <f>+TEXT(J11,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>07-01-2017</v>
       </c>
       <c r="L11" s="4">
-        <f>+YEAR(J11)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M11" s="4">
-        <f>+MONTH(J11)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N11" s="4">
-        <f>+DAY(J11)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="O11" s="3" t="str">
-        <f>+TEXT(K11,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>07-Jan-2017</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -3332,8 +3332,8 @@
         <v>19</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C11,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0010.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0010.jpg</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>73</v>
@@ -3347,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>+TEXT(B12,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0011</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3360,7 +3360,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>+CONCATENATE(E12,", ",F12)</f>
+        <f t="shared" si="1"/>
         <v>Balboa, Cauca</v>
       </c>
       <c r="H12" s="1">
@@ -3373,23 +3373,23 @@
         <v>42734</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f>+TEXT(J12,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>30-12-2016</v>
       </c>
       <c r="L12" s="4">
-        <f>+YEAR(J12)</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="M12" s="4">
-        <f>+MONTH(J12)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N12" s="4">
-        <f>+DAY(J12)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="O12" s="3" t="str">
-        <f>+TEXT(K12,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>30-Dec-2016</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -3402,8 +3402,8 @@
         <v>44</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C12,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0011.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0011.jpg</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>78</v>
@@ -3417,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>+TEXT(B13,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0012</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3430,7 +3430,7 @@
         <v>82</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>+CONCATENATE(E13,", ",F13)</f>
+        <f t="shared" si="1"/>
         <v>Río Sucio, Chocó</v>
       </c>
       <c r="H13" s="1">
@@ -3443,23 +3443,23 @@
         <v>42745</v>
       </c>
       <c r="K13" s="1" t="str">
-        <f>+TEXT(J13,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>10-01-2017</v>
       </c>
       <c r="L13" s="4">
-        <f>+YEAR(J13)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M13" s="4">
-        <f>+MONTH(J13)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <f>+DAY(J13)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f>+TEXT(K13,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>10-Jan-2017</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -3472,8 +3472,8 @@
         <v>19</v>
       </c>
       <c r="S13" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C13,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0012.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0012.jpg</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>84</v>
@@ -3487,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>+TEXT(B14,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0013</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3500,7 +3500,7 @@
         <v>88</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>+CONCATENATE(E14,", ",F14)</f>
+        <f t="shared" si="1"/>
         <v>Carepa, Antioquia</v>
       </c>
       <c r="H14" s="1">
@@ -3513,23 +3513,23 @@
         <v>42746</v>
       </c>
       <c r="K14" s="1" t="str">
-        <f>+TEXT(J14,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>11-01-2017</v>
       </c>
       <c r="L14" s="4">
-        <f>+YEAR(J14)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M14" s="4">
-        <f>+MONTH(J14)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N14" s="4">
-        <f>+DAY(J14)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="O14" s="3" t="str">
-        <f>+TEXT(K14,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>11-Jan-2017</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -3542,8 +3542,8 @@
         <v>19</v>
       </c>
       <c r="S14" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C14,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0013.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0013.jpg</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>90</v>
@@ -3557,7 +3557,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>+TEXT(B15,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0014</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3570,7 +3570,7 @@
         <v>94</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>+CONCATENATE(E15,", ",F15)</f>
+        <f t="shared" si="1"/>
         <v>Buenaventura, Valle del Cauca</v>
       </c>
       <c r="H15" s="1">
@@ -3583,23 +3583,23 @@
         <v>42752</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f>+TEXT(J15,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>17-01-2017</v>
       </c>
       <c r="L15" s="4">
-        <f>+YEAR(J15)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M15" s="4">
-        <f>+MONTH(J15)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N15" s="4">
-        <f>+DAY(J15)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f>+TEXT(K15,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>17-Jan-2017</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -3612,8 +3612,8 @@
         <v>44</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C15,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0014.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0014.jpg</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>96</v>
@@ -3627,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>+TEXT(B16,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0015</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3640,7 +3640,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>+CONCATENATE(E16,", ",F16)</f>
+        <f t="shared" si="1"/>
         <v>Puerto Libertador, Córdoba</v>
       </c>
       <c r="H16" s="1">
@@ -3653,23 +3653,23 @@
         <v>42754</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f>+TEXT(J16,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>19-01-2017</v>
       </c>
       <c r="L16" s="4">
-        <f>+YEAR(J16)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M16" s="4">
-        <f>+MONTH(J16)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N16" s="4">
-        <f>+DAY(J16)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="O16" s="3" t="str">
-        <f>+TEXT(K16,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>19-Jan-2017</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -3682,8 +3682,8 @@
         <v>19</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C16,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0015.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0015.jpg</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>101</v>
@@ -3697,7 +3697,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>+TEXT(B17,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0016</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3710,7 +3710,7 @@
         <v>71</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>+CONCATENATE(E17,", ",F17)</f>
+        <f t="shared" si="1"/>
         <v>Valledupar, Cesar</v>
       </c>
       <c r="H17" s="1">
@@ -3723,23 +3723,23 @@
         <v>42761</v>
       </c>
       <c r="K17" s="1" t="str">
-        <f>+TEXT(J17,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>26-01-2017</v>
       </c>
       <c r="L17" s="4">
-        <f>+YEAR(J17)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M17" s="4">
-        <f>+MONTH(J17)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N17" s="4">
-        <f>+DAY(J17)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f>+TEXT(K17,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>26-Jan-2017</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -3752,8 +3752,8 @@
         <v>44</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C17,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0016.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0016.jpg</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>106</v>
@@ -3767,7 +3767,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>+TEXT(B18,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0017</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3780,7 +3780,7 @@
         <v>88</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>+CONCATENATE(E18,", ",F18)</f>
+        <f t="shared" si="1"/>
         <v>Turbo, Antioquia</v>
       </c>
       <c r="H18" s="1">
@@ -3793,23 +3793,23 @@
         <v>42764</v>
       </c>
       <c r="K18" s="1" t="str">
-        <f>+TEXT(J18,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>29-01-2017</v>
       </c>
       <c r="L18" s="4">
-        <f>+YEAR(J18)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M18" s="4">
-        <f>+MONTH(J18)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N18" s="4">
-        <f>+DAY(J18)</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f>+TEXT(K18,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>29-Jan-2017</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -3822,8 +3822,8 @@
         <v>19</v>
       </c>
       <c r="S18" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C18,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0017.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0017.jpg</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>111</v>
@@ -3837,7 +3837,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>+TEXT(B19,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0018</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3850,7 +3850,7 @@
         <v>71</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>+CONCATENATE(E19,", ",F19)</f>
+        <f t="shared" si="1"/>
         <v>El Copey, Cesar</v>
       </c>
       <c r="H19" s="1">
@@ -3863,23 +3863,23 @@
         <v>42770</v>
       </c>
       <c r="K19" s="1" t="str">
-        <f>+TEXT(J19,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>04-02-2017</v>
       </c>
       <c r="L19" s="4">
-        <f>+YEAR(J19)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M19" s="4">
-        <f>+MONTH(J19)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N19" s="4">
-        <f>+DAY(J19)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f>+TEXT(K19,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>04-Feb-2017</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -3892,8 +3892,8 @@
         <v>19</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C19,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0018.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0018.jpg</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>116</v>
@@ -3907,7 +3907,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>+TEXT(B20,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0019</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3920,7 +3920,7 @@
         <v>88</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>+CONCATENATE(E20,", ",F20)</f>
+        <f t="shared" si="1"/>
         <v>Yarumal, Antioquia</v>
       </c>
       <c r="H20" s="1">
@@ -3933,23 +3933,23 @@
         <v>42773</v>
       </c>
       <c r="K20" s="1" t="str">
-        <f>+TEXT(J20,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>07-02-2017</v>
       </c>
       <c r="L20" s="4">
-        <f>+YEAR(J20)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M20" s="4">
-        <f>+MONTH(J20)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N20" s="4">
-        <f>+DAY(J20)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f>+TEXT(K20,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>07-Feb-2017</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -3962,8 +3962,8 @@
         <v>44</v>
       </c>
       <c r="S20" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C20,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0019.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0019.jpg</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>121</v>
@@ -3977,7 +3977,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>+TEXT(B21,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0020</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3990,7 +3990,7 @@
         <v>36</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>+CONCATENATE(E21,", ",F21)</f>
+        <f t="shared" si="1"/>
         <v>Esmeraldas, Cauca</v>
       </c>
       <c r="H21" s="1">
@@ -4003,23 +4003,23 @@
         <v>42784</v>
       </c>
       <c r="K21" s="1" t="str">
-        <f>+TEXT(J21,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>18-02-2017</v>
       </c>
       <c r="L21" s="4">
-        <f>+YEAR(J21)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M21" s="4">
-        <f>+MONTH(J21)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N21" s="4">
-        <f>+DAY(J21)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f>+TEXT(K21,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>18-Feb-2017</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -4032,8 +4032,8 @@
         <v>19</v>
       </c>
       <c r="S21" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C21,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0020.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0020.jpg</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>126</v>
@@ -4047,7 +4047,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>+TEXT(B22,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0021</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4060,7 +4060,7 @@
         <v>130</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>+CONCATENATE(E22,", ",F22)</f>
+        <f t="shared" si="1"/>
         <v>Bogotá, Cundinamarca</v>
       </c>
       <c r="H22" s="1">
@@ -4073,23 +4073,23 @@
         <v>42764</v>
       </c>
       <c r="K22" s="1" t="str">
-        <f>+TEXT(J22,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>29-01-2017</v>
       </c>
       <c r="L22" s="4">
-        <f>+YEAR(J22)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M22" s="4">
-        <f>+MONTH(J22)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N22" s="4">
-        <f>+DAY(J22)</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f>+TEXT(K22,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>29-Jan-2017</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -4102,8 +4102,8 @@
         <v>19</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C22,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0021.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0021.jpg</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>132</v>
@@ -4117,7 +4117,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>+TEXT(B23,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0022</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4130,7 +4130,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>+CONCATENATE(E23,", ",F23)</f>
+        <f t="shared" si="1"/>
         <v>Corinto, Cauca</v>
       </c>
       <c r="H23" s="1">
@@ -4143,23 +4143,23 @@
         <v>42792</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f>+TEXT(J23,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>26-02-2017</v>
       </c>
       <c r="L23" s="4">
-        <f>+YEAR(J23)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M23" s="4">
-        <f>+MONTH(J23)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N23" s="4">
-        <f>+DAY(J23)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f>+TEXT(K23,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>26-Feb-2017</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -4172,8 +4172,8 @@
         <v>19</v>
       </c>
       <c r="S23" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C23,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0022.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0022.jpg</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>137</v>
@@ -4187,7 +4187,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>+TEXT(B24,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0023</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4200,7 +4200,7 @@
         <v>88</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>+CONCATENATE(E24,", ",F24)</f>
+        <f t="shared" si="1"/>
         <v>Medellín, Antioquia</v>
       </c>
       <c r="H24" s="1">
@@ -4213,23 +4213,23 @@
         <v>42796</v>
       </c>
       <c r="K24" s="1" t="str">
-        <f>+TEXT(J24,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>02-03-2017</v>
       </c>
       <c r="L24" s="4">
-        <f>+YEAR(J24)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M24" s="4">
-        <f>+MONTH(J24)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N24" s="4">
-        <f>+DAY(J24)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f>+TEXT(K24,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>02-Mar-2017</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -4242,8 +4242,8 @@
         <v>44</v>
       </c>
       <c r="S24" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C24,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0023.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0023.jpg</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>142</v>
@@ -4257,7 +4257,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>+TEXT(B25,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0024</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4270,7 +4270,7 @@
         <v>88</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>+CONCATENATE(E25,", ",F25)</f>
+        <f t="shared" si="1"/>
         <v>Bello, Antioquia</v>
       </c>
       <c r="H25" s="1">
@@ -4283,23 +4283,23 @@
         <v>42796</v>
       </c>
       <c r="K25" s="1" t="str">
-        <f>+TEXT(J25,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>02-03-2017</v>
       </c>
       <c r="L25" s="4">
-        <f>+YEAR(J25)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M25" s="4">
-        <f>+MONTH(J25)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N25" s="4">
-        <f>+DAY(J25)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O25" s="3" t="str">
-        <f>+TEXT(K25,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>02-Mar-2017</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -4312,8 +4312,8 @@
         <v>19</v>
       </c>
       <c r="S25" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C25,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0024.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0024.jpg</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>147</v>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>+TEXT(B26,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0025</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4340,7 +4340,7 @@
         <v>151</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>+CONCATENATE(E26,", ",F26)</f>
+        <f t="shared" si="1"/>
         <v>Mesetas, Meta</v>
       </c>
       <c r="H26" s="1">
@@ -4353,23 +4353,23 @@
         <v>42799</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f>+TEXT(J26,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>05-03-2017</v>
       </c>
       <c r="L26" s="4">
-        <f>+YEAR(J26)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M26" s="4">
-        <f>+MONTH(J26)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N26" s="4">
-        <f>+DAY(J26)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f>+TEXT(K26,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>05-Mar-2017</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -4382,8 +4382,8 @@
         <v>19</v>
       </c>
       <c r="S26" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C26,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0025.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0025.jpg</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>153</v>
@@ -4397,7 +4397,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>+TEXT(B27,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0026</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4410,7 +4410,7 @@
         <v>151</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>+CONCATENATE(E27,", ",F27)</f>
+        <f t="shared" si="1"/>
         <v>Mesetas, Meta</v>
       </c>
       <c r="H27" s="1">
@@ -4423,23 +4423,23 @@
         <v>42800</v>
       </c>
       <c r="K27" s="1" t="str">
-        <f>+TEXT(J27,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>06-03-2017</v>
       </c>
       <c r="L27" s="4">
-        <f>+YEAR(J27)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M27" s="4">
-        <f>+MONTH(J27)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N27" s="4">
-        <f>+DAY(J27)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f>+TEXT(K27,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>06-Mar-2017</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -4452,8 +4452,8 @@
         <v>44</v>
       </c>
       <c r="S27" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C27,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0026.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0026.jpg</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>153</v>
@@ -4467,7 +4467,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>+TEXT(B28,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0027</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4480,7 +4480,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>+CONCATENATE(E28,", ",F28)</f>
+        <f t="shared" si="1"/>
         <v>Corinto, Cauca</v>
       </c>
       <c r="H28" s="1">
@@ -4493,23 +4493,23 @@
         <v>42816</v>
       </c>
       <c r="K28" s="1" t="str">
-        <f>+TEXT(J28,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>22-03-2017</v>
       </c>
       <c r="L28" s="4">
-        <f>+YEAR(J28)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M28" s="4">
-        <f>+MONTH(J28)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N28" s="4">
-        <f>+DAY(J28)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="O28" s="3" t="str">
-        <f>+TEXT(K28,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>22-Mar-2017</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -4522,8 +4522,8 @@
         <v>19</v>
       </c>
       <c r="S28" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C28,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0027.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0027.jpg</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>159</v>
@@ -4537,7 +4537,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>+TEXT(B29,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0028</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4550,7 +4550,7 @@
         <v>55</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>+CONCATENATE(E29,", ",F29)</f>
+        <f t="shared" si="1"/>
         <v>San Miguel, Putumayo</v>
       </c>
       <c r="H29" s="1">
@@ -4563,23 +4563,23 @@
         <v>42821</v>
       </c>
       <c r="K29" s="1" t="str">
-        <f>+TEXT(J29,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>27-03-2017</v>
       </c>
       <c r="L29" s="4">
-        <f>+YEAR(J29)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M29" s="4">
-        <f>+MONTH(J29)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N29" s="4">
-        <f>+DAY(J29)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="O29" s="3" t="str">
-        <f>+TEXT(K29,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>27-Mar-2017</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -4592,8 +4592,8 @@
         <v>19</v>
       </c>
       <c r="S29" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C29,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0028.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0028.jpg</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>164</v>
@@ -4607,7 +4607,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>+TEXT(B30,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0029</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4620,7 +4620,7 @@
         <v>151</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>+CONCATENATE(E30,", ",F30)</f>
+        <f t="shared" si="1"/>
         <v>Mesetas, Meta</v>
       </c>
       <c r="H30" s="1">
@@ -4633,23 +4633,23 @@
         <v>42827</v>
       </c>
       <c r="K30" s="1" t="str">
-        <f>+TEXT(J30,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>02-04-2017</v>
       </c>
       <c r="L30" s="4">
-        <f>+YEAR(J30)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M30" s="4">
-        <f>+MONTH(J30)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N30" s="4">
-        <f>+DAY(J30)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O30" s="3" t="str">
-        <f>+TEXT(K30,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>02-Apr-2017</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -4662,8 +4662,8 @@
         <v>19</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C30,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0029.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0029.jpg</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>493</v>
@@ -4677,7 +4677,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>+TEXT(B31,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0030</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4690,7 +4690,7 @@
         <v>88</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>+CONCATENATE(E31,", ",F31)</f>
+        <f t="shared" si="1"/>
         <v>San Vicente Ferrer, Antioquia</v>
       </c>
       <c r="H31" s="1">
@@ -4703,23 +4703,23 @@
         <v>42845</v>
       </c>
       <c r="K31" s="1" t="str">
-        <f>+TEXT(J31,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>20-04-2017</v>
       </c>
       <c r="L31" s="4">
-        <f>+YEAR(J31)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M31" s="4">
-        <f>+MONTH(J31)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N31" s="4">
-        <f>+DAY(J31)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="O31" s="3" t="str">
-        <f>+TEXT(K31,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>20-Apr-2017</v>
       </c>
       <c r="P31" s="1" t="s">
@@ -4732,8 +4732,8 @@
         <v>44</v>
       </c>
       <c r="S31" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C31,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0030.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0030.jpg</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>172</v>
@@ -4747,7 +4747,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>+TEXT(B32,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0031</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4760,7 +4760,7 @@
         <v>36</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>+CONCATENATE(E32,", ",F32)</f>
+        <f t="shared" si="1"/>
         <v>Timbío, Cauca</v>
       </c>
       <c r="H32" s="1">
@@ -4773,23 +4773,23 @@
         <v>42844</v>
       </c>
       <c r="K32" s="1" t="str">
-        <f>+TEXT(J32,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>19-04-2017</v>
       </c>
       <c r="L32" s="4">
-        <f>+YEAR(J32)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M32" s="4">
-        <f>+MONTH(J32)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N32" s="4">
-        <f>+DAY(J32)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="O32" s="3" t="str">
-        <f>+TEXT(K32,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>19-Apr-2017</v>
       </c>
       <c r="P32" s="1" t="s">
@@ -4802,8 +4802,8 @@
         <v>19</v>
       </c>
       <c r="S32" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C32,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0031.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0031.jpg</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>177</v>
@@ -4817,7 +4817,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>+TEXT(B33,"0000")</f>
+        <f t="shared" si="0"/>
         <v>0032</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4830,7 +4830,7 @@
         <v>36</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>+CONCATENATE(E33,", ",F33)</f>
+        <f t="shared" si="1"/>
         <v>Mercaderes, Cauca</v>
       </c>
       <c r="H33" s="1">
@@ -4843,23 +4843,23 @@
         <v>42852</v>
       </c>
       <c r="K33" s="1" t="str">
-        <f>+TEXT(J33,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>27-04-2017</v>
       </c>
       <c r="L33" s="4">
-        <f>+YEAR(J33)</f>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="M33" s="4">
-        <f>+MONTH(J33)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N33" s="4">
-        <f>+DAY(J33)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="O33" s="3" t="str">
-        <f>+TEXT(K33,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>27-Apr-2017</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -4872,8 +4872,8 @@
         <v>19</v>
       </c>
       <c r="S33" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C33,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0032.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0032.jpg</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>182</v>
@@ -4887,7 +4887,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>+TEXT(B34,"0000")</f>
+        <f t="shared" ref="C34:C65" si="8">+TEXT(B34,"0000")</f>
         <v>0033</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4900,7 +4900,7 @@
         <v>94</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>+CONCATENATE(E34,", ",F34)</f>
+        <f t="shared" ref="G34:G65" si="9">+CONCATENATE(E34,", ",F34)</f>
         <v>Jamundí, Valle del Cauca</v>
       </c>
       <c r="H34" s="1">
@@ -4913,23 +4913,23 @@
         <v>42859</v>
       </c>
       <c r="K34" s="1" t="str">
-        <f>+TEXT(J34,"DD-MM-YYYY")</f>
+        <f t="shared" ref="K34:K65" si="10">+TEXT(J34,"DD-MM-YYYY")</f>
         <v>04-05-2017</v>
       </c>
       <c r="L34" s="4">
-        <f>+YEAR(J34)</f>
+        <f t="shared" ref="L34:L65" si="11">+YEAR(J34)</f>
         <v>2017</v>
       </c>
       <c r="M34" s="4">
-        <f>+MONTH(J34)</f>
+        <f t="shared" ref="M34:M65" si="12">+MONTH(J34)</f>
         <v>5</v>
       </c>
       <c r="N34" s="4">
-        <f>+DAY(J34)</f>
+        <f t="shared" ref="N34:N65" si="13">+DAY(J34)</f>
         <v>4</v>
       </c>
       <c r="O34" s="3" t="str">
-        <f>+TEXT(K34,"DD-MMM-YYYY")</f>
+        <f t="shared" ref="O34:O65" si="14">+TEXT(K34,"DD-MMM-YYYY")</f>
         <v>04-May-2017</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -4942,8 +4942,8 @@
         <v>19</v>
       </c>
       <c r="S34" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C34,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0033.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0033.jpg</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>187</v>
@@ -4957,7 +4957,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>+TEXT(B35,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0034</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4970,7 +4970,7 @@
         <v>94</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>+CONCATENATE(E35,", ",F35)</f>
+        <f t="shared" si="9"/>
         <v>Guacarí, Valle del Cauca</v>
       </c>
       <c r="H35" s="1">
@@ -4983,23 +4983,23 @@
         <v>42869</v>
       </c>
       <c r="K35" s="1" t="str">
-        <f>+TEXT(J35,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>14-05-2017</v>
       </c>
       <c r="L35" s="4">
-        <f>+YEAR(J35)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M35" s="4">
-        <f>+MONTH(J35)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="N35" s="4">
-        <f>+DAY(J35)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="O35" s="3" t="str">
-        <f>+TEXT(K35,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>14-May-2017</v>
       </c>
       <c r="P35" s="1" t="s">
@@ -5012,8 +5012,8 @@
         <v>19</v>
       </c>
       <c r="S35" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C35,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0034.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0034.jpg</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>192</v>
@@ -5027,7 +5027,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>+TEXT(B36,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0035</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -5040,7 +5040,7 @@
         <v>196</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>+CONCATENATE(E36,", ",F36)</f>
+        <f t="shared" si="9"/>
         <v>Magüí Payán, Nariño</v>
       </c>
       <c r="H36" s="1">
@@ -5053,23 +5053,23 @@
         <v>42873</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f>+TEXT(J36,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>18-05-2017</v>
       </c>
       <c r="L36" s="4">
-        <f>+YEAR(J36)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M36" s="4">
-        <f>+MONTH(J36)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="N36" s="4">
-        <f>+DAY(J36)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="O36" s="3" t="str">
-        <f>+TEXT(K36,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>18-May-2017</v>
       </c>
       <c r="P36" s="1" t="s">
@@ -5082,8 +5082,8 @@
         <v>19</v>
       </c>
       <c r="S36" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C36,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0035.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0035.jpg</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>198</v>
@@ -5097,7 +5097,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>+TEXT(B37,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0036</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -5110,7 +5110,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>+CONCATENATE(E37,", ",F37)</f>
+        <f t="shared" si="9"/>
         <v>Malambo, Atlántico</v>
       </c>
       <c r="H37" s="1">
@@ -5123,23 +5123,23 @@
         <v>42862</v>
       </c>
       <c r="K37" s="1" t="str">
-        <f>+TEXT(J37,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>07-05-2017</v>
       </c>
       <c r="L37" s="4">
-        <f>+YEAR(J37)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M37" s="4">
-        <f>+MONTH(J37)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="N37" s="4">
-        <f>+DAY(J37)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O37" s="3" t="str">
-        <f>+TEXT(K37,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>07-May-2017</v>
       </c>
       <c r="P37" s="1" t="s">
@@ -5152,8 +5152,8 @@
         <v>19</v>
       </c>
       <c r="S37" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C37,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0036.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0036.jpg</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>203</v>
@@ -5167,7 +5167,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>+TEXT(B38,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0037</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -5180,7 +5180,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>+CONCATENATE(E38,", ",F38)</f>
+        <f t="shared" si="9"/>
         <v>Buenos Aires, Cauca</v>
       </c>
       <c r="H38" s="1">
@@ -5193,23 +5193,23 @@
         <v>42907</v>
       </c>
       <c r="K38" s="1" t="str">
-        <f>+TEXT(J38,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>21-06-2017</v>
       </c>
       <c r="L38" s="4">
-        <f>+YEAR(J38)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M38" s="4">
-        <f>+MONTH(J38)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="N38" s="4">
-        <f>+DAY(J38)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="O38" s="3" t="str">
-        <f>+TEXT(K38,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>21-Jun-2017</v>
       </c>
       <c r="P38" s="1" t="s">
@@ -5222,8 +5222,8 @@
         <v>19</v>
       </c>
       <c r="S38" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C38,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0037.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0037.jpg</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>208</v>
@@ -5237,7 +5237,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>+TEXT(B39,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0038</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -5250,7 +5250,7 @@
         <v>212</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>+CONCATENATE(E39,", ",F39)</f>
+        <f t="shared" si="9"/>
         <v>Cerrito, Valle</v>
       </c>
       <c r="H39" s="1">
@@ -5263,23 +5263,23 @@
         <v>42917</v>
       </c>
       <c r="K39" s="1" t="str">
-        <f>+TEXT(J39,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>01-07-2017</v>
       </c>
       <c r="L39" s="4">
-        <f>+YEAR(J39)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M39" s="4">
-        <f>+MONTH(J39)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="N39" s="4">
-        <f>+DAY(J39)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O39" s="3" t="str">
-        <f>+TEXT(K39,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>01-Jul-2017</v>
       </c>
       <c r="P39" s="1" t="s">
@@ -5292,8 +5292,8 @@
         <v>19</v>
       </c>
       <c r="S39" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C39,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0038.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0038.jpg</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>214</v>
@@ -5307,7 +5307,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>+TEXT(B40,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0039</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -5320,7 +5320,7 @@
         <v>82</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>+CONCATENATE(E40,", ",F40)</f>
+        <f t="shared" si="9"/>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H40" s="1">
@@ -5333,23 +5333,23 @@
         <v>42919</v>
       </c>
       <c r="K40" s="1" t="str">
-        <f>+TEXT(J40,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>03-07-2017</v>
       </c>
       <c r="L40" s="4">
-        <f>+YEAR(J40)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M40" s="4">
-        <f>+MONTH(J40)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="N40" s="4">
-        <f>+DAY(J40)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="O40" s="3" t="str">
-        <f>+TEXT(K40,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>03-Jul-2017</v>
       </c>
       <c r="P40" s="1" t="s">
@@ -5362,8 +5362,8 @@
         <v>19</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C40,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0039.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0039.jpg</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>219</v>
@@ -5377,7 +5377,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>+TEXT(B41,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0040</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -5390,7 +5390,7 @@
         <v>36</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>+CONCATENATE(E41,", ",F41)</f>
+        <f t="shared" si="9"/>
         <v>Guachené, Cauca</v>
       </c>
       <c r="H41" s="1">
@@ -5403,23 +5403,23 @@
         <v>42930</v>
       </c>
       <c r="K41" s="1" t="str">
-        <f>+TEXT(J41,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>14-07-2017</v>
       </c>
       <c r="L41" s="4">
-        <f>+YEAR(J41)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M41" s="4">
-        <f>+MONTH(J41)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="N41" s="4">
-        <f>+DAY(J41)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="O41" s="3" t="str">
-        <f>+TEXT(K41,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>14-Jul-2017</v>
       </c>
       <c r="P41" s="1" t="s">
@@ -5432,8 +5432,8 @@
         <v>19</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C41,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0040.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0040.jpg</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>224</v>
@@ -5447,7 +5447,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>+TEXT(B42,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0041</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -5460,7 +5460,7 @@
         <v>228</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>+CONCATENATE(E42,", ",F42)</f>
+        <f t="shared" si="9"/>
         <v>Carmen, Norte de Santander</v>
       </c>
       <c r="H42" s="1">
@@ -5473,23 +5473,23 @@
         <v>42932</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f>+TEXT(J42,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>16-07-2017</v>
       </c>
       <c r="L42" s="4">
-        <f>+YEAR(J42)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M42" s="4">
-        <f>+MONTH(J42)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="N42" s="4">
-        <f>+DAY(J42)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="O42" s="3" t="str">
-        <f>+TEXT(K42,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>16-Jul-2017</v>
       </c>
       <c r="P42" s="1" t="s">
@@ -5502,8 +5502,8 @@
         <v>19</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C42,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0041.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0041.jpg</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>230</v>
@@ -5517,7 +5517,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>+TEXT(B43,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0042</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -5530,7 +5530,7 @@
         <v>196</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>+CONCATENATE(E43,", ",F43)</f>
+        <f t="shared" si="9"/>
         <v>El Rosario, Nariño</v>
       </c>
       <c r="H43" s="1">
@@ -5543,23 +5543,23 @@
         <v>42953</v>
       </c>
       <c r="K43" s="1" t="str">
-        <f>+TEXT(J43,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>06-08-2017</v>
       </c>
       <c r="L43" s="4">
-        <f>+YEAR(J43)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M43" s="4">
-        <f>+MONTH(J43)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N43" s="4">
-        <f>+DAY(J43)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O43" s="3" t="str">
-        <f>+TEXT(K43,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>06-Aug-2017</v>
       </c>
       <c r="P43" s="1" t="s">
@@ -5572,8 +5572,8 @@
         <v>19</v>
       </c>
       <c r="S43" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C43,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0042.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0042.jpg</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>235</v>
@@ -5587,7 +5587,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>+TEXT(B44,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0043</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -5600,7 +5600,7 @@
         <v>36</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>+CONCATENATE(E44,", ",F44)</f>
+        <f t="shared" si="9"/>
         <v>Rosas, Cauca</v>
       </c>
       <c r="H44" s="1">
@@ -5613,23 +5613,23 @@
         <v>42956</v>
       </c>
       <c r="K44" s="1" t="str">
-        <f>+TEXT(J44,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>09-08-2017</v>
       </c>
       <c r="L44" s="4">
-        <f>+YEAR(J44)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M44" s="4">
-        <f>+MONTH(J44)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N44" s="4">
-        <f>+DAY(J44)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O44" s="3" t="str">
-        <f>+TEXT(K44,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>09-Aug-2017</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -5642,8 +5642,8 @@
         <v>44</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C44,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0043.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0043.jpg</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>240</v>
@@ -5657,7 +5657,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>+TEXT(B45,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0044</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -5670,7 +5670,7 @@
         <v>36</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>+CONCATENATE(E45,", ",F45)</f>
+        <f t="shared" si="9"/>
         <v>Piamonte, Cauca</v>
       </c>
       <c r="H45" s="1">
@@ -5683,23 +5683,23 @@
         <v>42956</v>
       </c>
       <c r="K45" s="1" t="str">
-        <f>+TEXT(J45,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>09-08-2017</v>
       </c>
       <c r="L45" s="4">
-        <f>+YEAR(J45)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M45" s="4">
-        <f>+MONTH(J45)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N45" s="4">
-        <f>+DAY(J45)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O45" s="3" t="str">
-        <f>+TEXT(K45,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>09-Aug-2017</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -5712,8 +5712,8 @@
         <v>19</v>
       </c>
       <c r="S45" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C45,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0044.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0044.jpg</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>245</v>
@@ -5727,7 +5727,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>+TEXT(B46,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0045</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5740,7 +5740,7 @@
         <v>82</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>+CONCATENATE(E46,", ",F46)</f>
+        <f t="shared" si="9"/>
         <v>Riosucio, Chocó</v>
       </c>
       <c r="H46" s="1">
@@ -5753,23 +5753,23 @@
         <v>42964</v>
       </c>
       <c r="K46" s="1" t="str">
-        <f>+TEXT(J46,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>17-08-2017</v>
       </c>
       <c r="L46" s="4">
-        <f>+YEAR(J46)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M46" s="4">
-        <f>+MONTH(J46)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N46" s="4">
-        <f>+DAY(J46)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="O46" s="3" t="str">
-        <f>+TEXT(K46,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>17-Aug-2017</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -5782,8 +5782,8 @@
         <v>19</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C46,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0045.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0045.jpg</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>250</v>
@@ -5797,7 +5797,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>+TEXT(B47,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0046</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -5810,7 +5810,7 @@
         <v>88</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>+CONCATENATE(E47,", ",F47)</f>
+        <f t="shared" si="9"/>
         <v>San Rafael, Antioquia</v>
       </c>
       <c r="H47" s="1">
@@ -5823,23 +5823,23 @@
         <v>43007</v>
       </c>
       <c r="K47" s="1" t="str">
-        <f>+TEXT(J47,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>29-09-2017</v>
       </c>
       <c r="L47" s="4">
-        <f>+YEAR(J47)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M47" s="4">
-        <f>+MONTH(J47)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="N47" s="4">
-        <f>+DAY(J47)</f>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="O47" s="3" t="str">
-        <f>+TEXT(K47,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>29-Sep-2017</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -5852,8 +5852,8 @@
         <v>19</v>
       </c>
       <c r="S47" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C47,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0046.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0046.jpg</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>255</v>
@@ -5867,7 +5867,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>+TEXT(B48,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0047</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -5880,7 +5880,7 @@
         <v>88</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>+CONCATENATE(E48,", ",F48)</f>
+        <f t="shared" si="9"/>
         <v>Medellín, Antioquia</v>
       </c>
       <c r="H48" s="1">
@@ -5893,23 +5893,23 @@
         <v>43007</v>
       </c>
       <c r="K48" s="1" t="str">
-        <f>+TEXT(J48,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>29-09-2017</v>
       </c>
       <c r="L48" s="4">
-        <f>+YEAR(J48)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M48" s="4">
-        <f>+MONTH(J48)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="N48" s="4">
-        <f>+DAY(J48)</f>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="O48" s="3" t="str">
-        <f>+TEXT(K48,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>29-Sep-2017</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -5922,8 +5922,8 @@
         <v>19</v>
       </c>
       <c r="S48" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C48,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0047.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0047.jpg</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>259</v>
@@ -5937,7 +5937,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>+TEXT(B49,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0048</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -5950,7 +5950,7 @@
         <v>263</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>+CONCATENATE(E49,", ",F49)</f>
+        <f t="shared" si="9"/>
         <v>San José del Guaviare, Guaviare</v>
       </c>
       <c r="H49" s="1">
@@ -5963,23 +5963,23 @@
         <v>43011</v>
       </c>
       <c r="K49" s="1" t="str">
-        <f>+TEXT(J49,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>03-10-2017</v>
       </c>
       <c r="L49" s="4">
-        <f>+YEAR(J49)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M49" s="4">
-        <f>+MONTH(J49)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N49" s="4">
-        <f>+DAY(J49)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="O49" s="3" t="str">
-        <f>+TEXT(K49,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>03-Oct-2017</v>
       </c>
       <c r="P49" s="1" t="s">
@@ -5992,8 +5992,8 @@
         <v>19</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C49,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0048.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0048.jpg</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>265</v>
@@ -6007,7 +6007,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>+TEXT(B50,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0049</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -6020,7 +6020,7 @@
         <v>82</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>+CONCATENATE(E50,", ",F50)</f>
+        <f t="shared" si="9"/>
         <v>Medio Baudó, Chocó</v>
       </c>
       <c r="H50" s="1">
@@ -6033,23 +6033,23 @@
         <v>43015</v>
       </c>
       <c r="K50" s="1" t="str">
-        <f>+TEXT(J50,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>07-10-2017</v>
       </c>
       <c r="L50" s="4">
-        <f>+YEAR(J50)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M50" s="4">
-        <f>+MONTH(J50)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N50" s="4">
-        <f>+DAY(J50)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O50" s="3" t="str">
-        <f>+TEXT(K50,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>07-Oct-2017</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -6062,8 +6062,8 @@
         <v>19</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C50,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0049.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0049.jpg</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>270</v>
@@ -6077,7 +6077,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>+TEXT(B51,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0050</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -6090,7 +6090,7 @@
         <v>36</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>+CONCATENATE(E51,", ",F51)</f>
+        <f t="shared" si="9"/>
         <v>Puracé, Cauca</v>
       </c>
       <c r="H51" s="1">
@@ -6103,23 +6103,23 @@
         <v>43016</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f>+TEXT(J51,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>08-10-2017</v>
       </c>
       <c r="L51" s="4">
-        <f>+YEAR(J51)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M51" s="4">
-        <f>+MONTH(J51)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N51" s="4">
-        <f>+DAY(J51)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O51" s="3" t="str">
-        <f>+TEXT(K51,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>08-Oct-2017</v>
       </c>
       <c r="P51" s="1" t="s">
@@ -6132,8 +6132,8 @@
         <v>44</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C51,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0050.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0050.jpg</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>275</v>
@@ -6147,7 +6147,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>+TEXT(B52,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0051</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -6160,7 +6160,7 @@
         <v>49</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>+CONCATENATE(E52,", ",F52)</f>
+        <f t="shared" si="9"/>
         <v>Cartagena, Bolívar</v>
       </c>
       <c r="H52" s="1">
@@ -6173,23 +6173,23 @@
         <v>43013</v>
       </c>
       <c r="K52" s="1" t="str">
-        <f>+TEXT(J52,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>05-10-2017</v>
       </c>
       <c r="L52" s="4">
-        <f>+YEAR(J52)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M52" s="4">
-        <f>+MONTH(J52)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N52" s="4">
-        <f>+DAY(J52)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O52" s="3" t="str">
-        <f>+TEXT(K52,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>05-Oct-2017</v>
       </c>
       <c r="P52" s="1" t="s">
@@ -6202,8 +6202,8 @@
         <v>19</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C52,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0051.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0051.jpg</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>280</v>
@@ -6217,7 +6217,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>+TEXT(B53,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0052</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -6230,7 +6230,7 @@
         <v>196</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>+CONCATENATE(E53,", ",F53)</f>
+        <f t="shared" si="9"/>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H53" s="1">
@@ -6243,23 +6243,23 @@
         <v>43025</v>
       </c>
       <c r="K53" s="1" t="str">
-        <f>+TEXT(J53,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>17-10-2017</v>
       </c>
       <c r="L53" s="4">
-        <f>+YEAR(J53)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M53" s="4">
-        <f>+MONTH(J53)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N53" s="4">
-        <f>+DAY(J53)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="O53" s="3" t="str">
-        <f>+TEXT(K53,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>17-Oct-2017</v>
       </c>
       <c r="P53" s="1" t="s">
@@ -6272,8 +6272,8 @@
         <v>19</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C53,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0052.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0052.jpg</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>285</v>
@@ -6287,7 +6287,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>+TEXT(B54,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0053</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -6300,7 +6300,7 @@
         <v>55</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>+CONCATENATE(E54,", ",F54)</f>
+        <f t="shared" si="9"/>
         <v>Puerto Guzmán, Putumayo</v>
       </c>
       <c r="H54" s="1">
@@ -6313,23 +6313,23 @@
         <v>43027</v>
       </c>
       <c r="K54" s="1" t="str">
-        <f>+TEXT(J54,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>19-10-2017</v>
       </c>
       <c r="L54" s="4">
-        <f>+YEAR(J54)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M54" s="4">
-        <f>+MONTH(J54)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N54" s="4">
-        <f>+DAY(J54)</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="O54" s="3" t="str">
-        <f>+TEXT(K54,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>19-Oct-2017</v>
       </c>
       <c r="P54" s="1" t="s">
@@ -6342,8 +6342,8 @@
         <v>19</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C54,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0053.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0053.jpg</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>290</v>
@@ -6357,7 +6357,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>+TEXT(B55,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0054</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -6370,7 +6370,7 @@
         <v>88</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>+CONCATENATE(E55,", ",F55)</f>
+        <f t="shared" si="9"/>
         <v>Medellín, Antioquia</v>
       </c>
       <c r="H55" s="1">
@@ -6383,23 +6383,23 @@
         <v>43026</v>
       </c>
       <c r="K55" s="1" t="str">
-        <f>+TEXT(J55,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>18-10-2017</v>
       </c>
       <c r="L55" s="4">
-        <f>+YEAR(J55)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M55" s="4">
-        <f>+MONTH(J55)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N55" s="4">
-        <f>+DAY(J55)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="O55" s="3" t="str">
-        <f>+TEXT(K55,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>18-Oct-2017</v>
       </c>
       <c r="P55" s="1" t="s">
@@ -6412,8 +6412,8 @@
         <v>44</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C55,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0054.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0054.jpg</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>294</v>
@@ -6427,7 +6427,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>+TEXT(B56,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0055</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -6440,7 +6440,7 @@
         <v>88</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>+CONCATENATE(E56,", ",F56)</f>
+        <f t="shared" si="9"/>
         <v>Tarazá, Antioquia</v>
       </c>
       <c r="H56" s="1">
@@ -6453,23 +6453,23 @@
         <v>43030</v>
       </c>
       <c r="K56" s="1" t="str">
-        <f>+TEXT(J56,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>22-10-2017</v>
       </c>
       <c r="L56" s="4">
-        <f>+YEAR(J56)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M56" s="4">
-        <f>+MONTH(J56)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N56" s="4">
-        <f>+DAY(J56)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="O56" s="3" t="str">
-        <f>+TEXT(K56,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>22-Oct-2017</v>
       </c>
       <c r="P56" s="1" t="s">
@@ -6482,8 +6482,8 @@
         <v>19</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C56,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0055.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0055.jpg</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>299</v>
@@ -6497,7 +6497,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>+TEXT(B57,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0056</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -6510,7 +6510,7 @@
         <v>82</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>+CONCATENATE(E57,", ",F57)</f>
+        <f t="shared" si="9"/>
         <v>Alto Baudó, Chocó</v>
       </c>
       <c r="H57" s="1">
@@ -6523,23 +6523,23 @@
         <v>43032</v>
       </c>
       <c r="K57" s="1" t="str">
-        <f>+TEXT(J57,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>24-10-2017</v>
       </c>
       <c r="L57" s="4">
-        <f>+YEAR(J57)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M57" s="4">
-        <f>+MONTH(J57)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N57" s="4">
-        <f>+DAY(J57)</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="O57" s="3" t="str">
-        <f>+TEXT(K57,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>24-Oct-2017</v>
       </c>
       <c r="P57" s="1" t="s">
@@ -6552,8 +6552,8 @@
         <v>19</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C57,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0056.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0056.jpg</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>304</v>
@@ -6567,7 +6567,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>+TEXT(B58,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0057</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -6580,7 +6580,7 @@
         <v>196</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>+CONCATENATE(E58,", ",F58)</f>
+        <f t="shared" si="9"/>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H58" s="1">
@@ -6593,23 +6593,23 @@
         <v>43051</v>
       </c>
       <c r="K58" s="1" t="str">
-        <f>+TEXT(J58,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>12-11-2017</v>
       </c>
       <c r="L58" s="4">
-        <f>+YEAR(J58)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M58" s="4">
-        <f>+MONTH(J58)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="N58" s="4">
-        <f>+DAY(J58)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="O58" s="3" t="str">
-        <f>+TEXT(K58,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>12-Nov-2017</v>
       </c>
       <c r="P58" s="1" t="s">
@@ -6622,8 +6622,8 @@
         <v>44</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C58,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0057.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0057.jpg</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>308</v>
@@ -6637,7 +6637,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>+TEXT(B59,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0058</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -6650,7 +6650,7 @@
         <v>312</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>+CONCATENATE(E59,", ",F59)</f>
+        <f t="shared" si="9"/>
         <v>Belén de Andaquies, Caquetá</v>
       </c>
       <c r="H59" s="1">
@@ -6663,23 +6663,23 @@
         <v>43064</v>
       </c>
       <c r="K59" s="1" t="str">
-        <f>+TEXT(J59,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>25-11-2017</v>
       </c>
       <c r="L59" s="4">
-        <f>+YEAR(J59)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M59" s="4">
-        <f>+MONTH(J59)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="N59" s="4">
-        <f>+DAY(J59)</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="O59" s="3" t="str">
-        <f>+TEXT(K59,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>25-Nov-2017</v>
       </c>
       <c r="P59" s="1" t="s">
@@ -6692,8 +6692,8 @@
         <v>19</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C59,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0058.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0058.jpg</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>314</v>
@@ -6707,7 +6707,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>+TEXT(B60,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0059</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -6720,7 +6720,7 @@
         <v>82</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>+CONCATENATE(E60,", ",F60)</f>
+        <f t="shared" si="9"/>
         <v>Riosucio, Chocó</v>
       </c>
       <c r="H60" s="1">
@@ -6733,23 +6733,23 @@
         <v>43065</v>
       </c>
       <c r="K60" s="1" t="str">
-        <f>+TEXT(J60,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>26-11-2017</v>
       </c>
       <c r="L60" s="4">
-        <f>+YEAR(J60)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M60" s="4">
-        <f>+MONTH(J60)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="N60" s="4">
-        <f>+DAY(J60)</f>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="O60" s="3" t="str">
-        <f>+TEXT(K60,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>26-Nov-2017</v>
       </c>
       <c r="P60" s="1" t="s">
@@ -6762,8 +6762,8 @@
         <v>19</v>
       </c>
       <c r="S60" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C60,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0059.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0059.jpg</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>317</v>
@@ -6777,7 +6777,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>+TEXT(B61,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0060</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -6790,7 +6790,7 @@
         <v>196</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>+CONCATENATE(E61,", ",F61)</f>
+        <f t="shared" si="9"/>
         <v>Magüí Payán, Nariño</v>
       </c>
       <c r="H61" s="1">
@@ -6803,23 +6803,23 @@
         <v>43069</v>
       </c>
       <c r="K61" s="1" t="str">
-        <f>+TEXT(J61,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>30-11-2017</v>
       </c>
       <c r="L61" s="4">
-        <f>+YEAR(J61)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M61" s="4">
-        <f>+MONTH(J61)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="N61" s="4">
-        <f>+DAY(J61)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="O61" s="3" t="str">
-        <f>+TEXT(K61,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>30-Nov-2017</v>
       </c>
       <c r="P61" s="1" t="s">
@@ -6832,8 +6832,8 @@
         <v>19</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C61,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0060.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0060.jpg</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>321</v>
@@ -6847,7 +6847,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>+TEXT(B62,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0061</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -6860,7 +6860,7 @@
         <v>55</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>+CONCATENATE(E62,", ",F62)</f>
+        <f t="shared" si="9"/>
         <v>Puerto Asís, Putumayo</v>
       </c>
       <c r="H62" s="1">
@@ -6873,23 +6873,23 @@
         <v>43073</v>
       </c>
       <c r="K62" s="1" t="str">
-        <f>+TEXT(J62,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>04-12-2017</v>
       </c>
       <c r="L62" s="4">
-        <f>+YEAR(J62)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M62" s="4">
-        <f>+MONTH(J62)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="N62" s="4">
-        <f>+DAY(J62)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="O62" s="3" t="str">
-        <f>+TEXT(K62,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>04-Dec-2017</v>
       </c>
       <c r="P62" s="1" t="s">
@@ -6902,8 +6902,8 @@
         <v>19</v>
       </c>
       <c r="S62" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C62,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0061.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0061.jpg</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>325</v>
@@ -6917,7 +6917,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>+TEXT(B63,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0062</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -6930,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>+CONCATENATE(E63,", ",F63)</f>
+        <f t="shared" si="9"/>
         <v>Riosucio, Chocó</v>
       </c>
       <c r="H63" s="1">
@@ -6943,23 +6943,23 @@
         <v>43077</v>
       </c>
       <c r="K63" s="1" t="str">
-        <f>+TEXT(J63,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>08-12-2017</v>
       </c>
       <c r="L63" s="4">
-        <f>+YEAR(J63)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M63" s="4">
-        <f>+MONTH(J63)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="N63" s="4">
-        <f>+DAY(J63)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O63" s="3" t="str">
-        <f>+TEXT(K63,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>08-Dec-2017</v>
       </c>
       <c r="P63" s="1" t="s">
@@ -6972,8 +6972,8 @@
         <v>19</v>
       </c>
       <c r="S63" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C63,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0062.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0062.jpg</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>328</v>
@@ -6987,7 +6987,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>+TEXT(B64,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0063</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -7000,7 +7000,7 @@
         <v>332</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>+CONCATENATE(E64,", ",F64)</f>
+        <f t="shared" si="9"/>
         <v>Pivijay, Magdalena</v>
       </c>
       <c r="H64" s="1">
@@ -7013,23 +7013,23 @@
         <v>43085</v>
       </c>
       <c r="K64" s="1" t="str">
-        <f>+TEXT(J64,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>16-12-2017</v>
       </c>
       <c r="L64" s="4">
-        <f>+YEAR(J64)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M64" s="4">
-        <f>+MONTH(J64)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="N64" s="4">
-        <f>+DAY(J64)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="O64" s="3" t="str">
-        <f>+TEXT(K64,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>16-Dec-2017</v>
       </c>
       <c r="P64" s="1" t="s">
@@ -7042,8 +7042,8 @@
         <v>19</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C64,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0063.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0063.jpg</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>334</v>
@@ -7057,7 +7057,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>+TEXT(B65,"0000")</f>
+        <f t="shared" si="8"/>
         <v>0064</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -7070,7 +7070,7 @@
         <v>36</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>+CONCATENATE(E65,", ",F65)</f>
+        <f t="shared" si="9"/>
         <v>Patía, Cauca</v>
       </c>
       <c r="H65" s="1">
@@ -7083,23 +7083,23 @@
         <v>43087</v>
       </c>
       <c r="K65" s="1" t="str">
-        <f>+TEXT(J65,"DD-MM-YYYY")</f>
+        <f t="shared" si="10"/>
         <v>18-12-2017</v>
       </c>
       <c r="L65" s="4">
-        <f>+YEAR(J65)</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="M65" s="4">
-        <f>+MONTH(J65)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="N65" s="4">
-        <f>+DAY(J65)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="O65" s="3" t="str">
-        <f>+TEXT(K65,"DD-MMM-YYYY")</f>
+        <f t="shared" si="14"/>
         <v>18-Dec-2017</v>
       </c>
       <c r="P65" s="1" t="s">
@@ -7112,8 +7112,8 @@
         <v>19</v>
       </c>
       <c r="S65" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C65,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0064.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0064.jpg</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>339</v>
@@ -7127,7 +7127,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>+TEXT(B66,"0000")</f>
+        <f t="shared" ref="C66:C97" si="15">+TEXT(B66,"0000")</f>
         <v>0065</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -7140,7 +7140,7 @@
         <v>55</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>+CONCATENATE(E66,", ",F66)</f>
+        <f t="shared" ref="G66:G97" si="16">+CONCATENATE(E66,", ",F66)</f>
         <v>Puerto Leguízamo, Putumayo</v>
       </c>
       <c r="H66" s="1">
@@ -7153,23 +7153,23 @@
         <v>43089</v>
       </c>
       <c r="K66" s="1" t="str">
-        <f>+TEXT(J66,"DD-MM-YYYY")</f>
+        <f t="shared" ref="K66:K97" si="17">+TEXT(J66,"DD-MM-YYYY")</f>
         <v>20-12-2017</v>
       </c>
       <c r="L66" s="4">
-        <f>+YEAR(J66)</f>
+        <f t="shared" ref="L66:L97" si="18">+YEAR(J66)</f>
         <v>2017</v>
       </c>
       <c r="M66" s="4">
-        <f>+MONTH(J66)</f>
+        <f t="shared" ref="M66:M97" si="19">+MONTH(J66)</f>
         <v>12</v>
       </c>
       <c r="N66" s="4">
-        <f>+DAY(J66)</f>
+        <f t="shared" ref="N66:N97" si="20">+DAY(J66)</f>
         <v>20</v>
       </c>
       <c r="O66" s="3" t="str">
-        <f>+TEXT(K66,"DD-MMM-YYYY")</f>
+        <f t="shared" ref="O66:O97" si="21">+TEXT(K66,"DD-MMM-YYYY")</f>
         <v>20-Dec-2017</v>
       </c>
       <c r="P66" s="1" t="s">
@@ -7182,8 +7182,8 @@
         <v>19</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C66,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0065.jpg</v>
+        <f t="shared" si="7"/>
+        <v>data/IMG/0065.jpg</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>344</v>
@@ -7197,7 +7197,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>+TEXT(B67,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0066</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -7210,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>+CONCATENATE(E67,", ",F67)</f>
+        <f t="shared" si="16"/>
         <v>Tierralta, Córdoba</v>
       </c>
       <c r="H67" s="1">
@@ -7223,23 +7223,23 @@
         <v>43093</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f>+TEXT(J67,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>24-12-2017</v>
       </c>
       <c r="L67" s="4">
-        <f>+YEAR(J67)</f>
+        <f t="shared" si="18"/>
         <v>2017</v>
       </c>
       <c r="M67" s="4">
-        <f>+MONTH(J67)</f>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="N67" s="4">
-        <f>+DAY(J67)</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="O67" s="3" t="str">
-        <f>+TEXT(K67,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>24-Dec-2017</v>
       </c>
       <c r="P67" s="1" t="s">
@@ -7252,8 +7252,8 @@
         <v>19</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C67,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0066.jpg</v>
+        <f t="shared" ref="S67:S104" si="22">+TEXT(CONCATENATE("data/IMG/",C67,".jpg"),)</f>
+        <v>data/IMG/0066.jpg</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>349</v>
@@ -7267,7 +7267,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>+TEXT(B68,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0067</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -7280,7 +7280,7 @@
         <v>151</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>+CONCATENATE(E68,", ",F68)</f>
+        <f t="shared" si="16"/>
         <v>Cumaral, Meta</v>
       </c>
       <c r="H68" s="1">
@@ -7293,23 +7293,23 @@
         <v>43098</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f>+TEXT(J68,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>29-12-2017</v>
       </c>
       <c r="L68" s="4">
-        <f>+YEAR(J68)</f>
+        <f t="shared" si="18"/>
         <v>2017</v>
       </c>
       <c r="M68" s="4">
-        <f>+MONTH(J68)</f>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="N68" s="4">
-        <f>+DAY(J68)</f>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="O68" s="3" t="str">
-        <f>+TEXT(K68,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>29-Dec-2017</v>
       </c>
       <c r="P68" s="1" t="s">
@@ -7322,8 +7322,8 @@
         <v>19</v>
       </c>
       <c r="S68" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C68,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0067.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0067.jpg</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>354</v>
@@ -7337,7 +7337,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>+TEXT(B69,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0068</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -7350,7 +7350,7 @@
         <v>88</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>+CONCATENATE(E69,", ",F69)</f>
+        <f t="shared" si="16"/>
         <v>Yondó, Antioquia</v>
       </c>
       <c r="H69" s="1">
@@ -7363,23 +7363,23 @@
         <v>43117</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f>+TEXT(J69,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>17-01-2018</v>
       </c>
       <c r="L69" s="4">
-        <f>+YEAR(J69)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M69" s="4">
-        <f>+MONTH(J69)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N69" s="4">
-        <f>+DAY(J69)</f>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="O69" s="3" t="str">
-        <f>+TEXT(K69,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>17-Jan-2018</v>
       </c>
       <c r="P69" s="1" t="s">
@@ -7392,8 +7392,8 @@
         <v>19</v>
       </c>
       <c r="S69" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C69,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0068.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0068.jpg</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>359</v>
@@ -7407,7 +7407,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>+TEXT(B70,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0069</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -7420,7 +7420,7 @@
         <v>42</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>+CONCATENATE(E70,", ",F70)</f>
+        <f t="shared" si="16"/>
         <v>San José de Uré, Córdoba</v>
       </c>
       <c r="H70" s="1">
@@ -7433,23 +7433,23 @@
         <v>43118</v>
       </c>
       <c r="K70" s="1" t="str">
-        <f>+TEXT(J70,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>18-01-2018</v>
       </c>
       <c r="L70" s="4">
-        <f>+YEAR(J70)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M70" s="4">
-        <f>+MONTH(J70)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N70" s="4">
-        <f>+DAY(J70)</f>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="O70" s="3" t="str">
-        <f>+TEXT(K70,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>18-Jan-2018</v>
       </c>
       <c r="P70" s="1" t="s">
@@ -7462,8 +7462,8 @@
         <v>19</v>
       </c>
       <c r="S70" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C70,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0069.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0069.jpg</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>364</v>
@@ -7477,7 +7477,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>+TEXT(B71,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0070</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -7490,7 +7490,7 @@
         <v>36</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>+CONCATENATE(E71,", ",F71)</f>
+        <f t="shared" si="16"/>
         <v>Santander de Quilichao, Cauca</v>
       </c>
       <c r="H71" s="1">
@@ -7503,23 +7503,23 @@
         <v>43123</v>
       </c>
       <c r="K71" s="1" t="str">
-        <f>+TEXT(J71,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>23-01-2018</v>
       </c>
       <c r="L71" s="4">
-        <f>+YEAR(J71)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M71" s="4">
-        <f>+MONTH(J71)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N71" s="4">
-        <f>+DAY(J71)</f>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="O71" s="3" t="str">
-        <f>+TEXT(K71,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>23-Jan-2018</v>
       </c>
       <c r="P71" s="1" t="s">
@@ -7532,8 +7532,8 @@
         <v>19</v>
       </c>
       <c r="S71" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C71,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0070.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0070.jpg</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>369</v>
@@ -7547,7 +7547,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>+TEXT(B72,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0071</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -7560,7 +7560,7 @@
         <v>82</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>+CONCATENATE(E72,", ",F72)</f>
+        <f t="shared" si="16"/>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H72" s="1">
@@ -7573,23 +7573,23 @@
         <v>43127</v>
       </c>
       <c r="K72" s="1" t="str">
-        <f>+TEXT(J72,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>27-01-2018</v>
       </c>
       <c r="L72" s="4">
-        <f>+YEAR(J72)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M72" s="4">
-        <f>+MONTH(J72)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N72" s="4">
-        <f>+DAY(J72)</f>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="O72" s="3" t="str">
-        <f>+TEXT(K72,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>27-Jan-2018</v>
       </c>
       <c r="P72" s="1" t="s">
@@ -7602,8 +7602,8 @@
         <v>19</v>
       </c>
       <c r="S72" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C72,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0071.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0071.jpg</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>373</v>
@@ -7617,7 +7617,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>+TEXT(B73,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0072</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -7630,7 +7630,7 @@
         <v>94</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>+CONCATENATE(E73,", ",F73)</f>
+        <f t="shared" si="16"/>
         <v>Buenaventura, Valle del Cauca</v>
       </c>
       <c r="H73" s="1">
@@ -7643,23 +7643,23 @@
         <v>43127</v>
       </c>
       <c r="K73" s="1" t="str">
-        <f>+TEXT(J73,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>27-01-2018</v>
       </c>
       <c r="L73" s="4">
-        <f>+YEAR(J73)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M73" s="4">
-        <f>+MONTH(J73)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N73" s="4">
-        <f>+DAY(J73)</f>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="O73" s="3" t="str">
-        <f>+TEXT(K73,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>27-Jan-2018</v>
       </c>
       <c r="P73" s="1" t="s">
@@ -7672,8 +7672,8 @@
         <v>19</v>
       </c>
       <c r="S73" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C73,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0072.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0072.jpg</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>377</v>
@@ -7687,7 +7687,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>+TEXT(B74,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0073</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -7700,7 +7700,7 @@
         <v>49</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>+CONCATENATE(E74,", ",F74)</f>
+        <f t="shared" si="16"/>
         <v>Cantagallo, Bolívar</v>
       </c>
       <c r="H74" s="1">
@@ -7713,23 +7713,23 @@
         <v>43127</v>
       </c>
       <c r="K74" s="1" t="str">
-        <f>+TEXT(J74,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>27-01-2018</v>
       </c>
       <c r="L74" s="4">
-        <f>+YEAR(J74)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M74" s="4">
-        <f>+MONTH(J74)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N74" s="4">
-        <f>+DAY(J74)</f>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="O74" s="3" t="str">
-        <f>+TEXT(K74,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>27-Jan-2018</v>
       </c>
       <c r="P74" s="1" t="s">
@@ -7742,8 +7742,8 @@
         <v>19</v>
       </c>
       <c r="S74" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C74,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0073.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0073.jpg</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>382</v>
@@ -7757,7 +7757,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>+TEXT(B75,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0074</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -7770,7 +7770,7 @@
         <v>386</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>+CONCATENATE(E75,", ",F75)</f>
+        <f t="shared" si="16"/>
         <v>Pueblo Rico, Risaralda</v>
       </c>
       <c r="H75" s="1">
@@ -7783,23 +7783,23 @@
         <v>43132</v>
       </c>
       <c r="K75" s="1" t="str">
-        <f>+TEXT(J75,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>01-02-2018</v>
       </c>
       <c r="L75" s="4">
-        <f>+YEAR(J75)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M75" s="4">
-        <f>+MONTH(J75)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="N75" s="4">
-        <f>+DAY(J75)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O75" s="3" t="str">
-        <f>+TEXT(K75,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>01-Feb-2018</v>
       </c>
       <c r="P75" s="1" t="s">
@@ -7812,8 +7812,8 @@
         <v>44</v>
       </c>
       <c r="S75" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C75,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0074.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0074.jpg</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>388</v>
@@ -7827,7 +7827,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>+TEXT(B76,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0075</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -7840,7 +7840,7 @@
         <v>228</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>+CONCATENATE(E76,", ",F76)</f>
+        <f t="shared" si="16"/>
         <v>Tibú, Norte de Santander</v>
       </c>
       <c r="H76" s="1">
@@ -7853,23 +7853,23 @@
         <v>43138</v>
       </c>
       <c r="K76" s="1" t="str">
-        <f>+TEXT(J76,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>07-02-2018</v>
       </c>
       <c r="L76" s="4">
-        <f>+YEAR(J76)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M76" s="4">
-        <f>+MONTH(J76)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="N76" s="4">
-        <f>+DAY(J76)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="O76" s="3" t="str">
-        <f>+TEXT(K76,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>07-Feb-2018</v>
       </c>
       <c r="P76" s="1" t="s">
@@ -7882,8 +7882,8 @@
         <v>44</v>
       </c>
       <c r="S76" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C76,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0075.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0075.jpg</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>393</v>
@@ -7897,7 +7897,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>+TEXT(B77,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0076</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -7910,7 +7910,7 @@
         <v>36</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>+CONCATENATE(E77,", ",F77)</f>
+        <f t="shared" si="16"/>
         <v>Guapi, Cauca</v>
       </c>
       <c r="H77" s="1">
@@ -7923,23 +7923,23 @@
         <v>43141</v>
       </c>
       <c r="K77" s="1" t="str">
-        <f>+TEXT(J77,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>10-02-2018</v>
       </c>
       <c r="L77" s="4">
-        <f>+YEAR(J77)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M77" s="4">
-        <f>+MONTH(J77)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="N77" s="4">
-        <f>+DAY(J77)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="O77" s="3" t="str">
-        <f>+TEXT(K77,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>10-Feb-2018</v>
       </c>
       <c r="P77" s="1" t="s">
@@ -7952,8 +7952,8 @@
         <v>19</v>
       </c>
       <c r="S77" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C77,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0076.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0076.jpg</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>398</v>
@@ -7967,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>+TEXT(B78,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0077</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -7980,7 +7980,7 @@
         <v>228</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>+CONCATENATE(E78,", ",F78)</f>
+        <f t="shared" si="16"/>
         <v>El Tarra, Norte de Santander</v>
       </c>
       <c r="H78" s="1">
@@ -7993,23 +7993,23 @@
         <v>43148</v>
       </c>
       <c r="K78" s="1" t="str">
-        <f>+TEXT(J78,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>17-02-2018</v>
       </c>
       <c r="L78" s="4">
-        <f>+YEAR(J78)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M78" s="4">
-        <f>+MONTH(J78)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="N78" s="4">
-        <f>+DAY(J78)</f>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="O78" s="3" t="str">
-        <f>+TEXT(K78,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>17-Feb-2018</v>
       </c>
       <c r="P78" s="1" t="s">
@@ -8022,8 +8022,8 @@
         <v>19</v>
       </c>
       <c r="S78" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C78,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0077.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0077.jpg</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>402</v>
@@ -8037,7 +8037,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>+TEXT(B79,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0078</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -8050,7 +8050,7 @@
         <v>42</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>+CONCATENATE(E79,", ",F79)</f>
+        <f t="shared" si="16"/>
         <v>San José de Uré, Córdoba</v>
       </c>
       <c r="H79" s="1">
@@ -8063,23 +8063,23 @@
         <v>43170</v>
       </c>
       <c r="K79" s="1" t="str">
-        <f>+TEXT(J79,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>11-03-2018</v>
       </c>
       <c r="L79" s="4">
-        <f>+YEAR(J79)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M79" s="4">
-        <f>+MONTH(J79)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="N79" s="4">
-        <f>+DAY(J79)</f>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="O79" s="3" t="str">
-        <f>+TEXT(K79,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>11-Mar-2018</v>
       </c>
       <c r="P79" s="1" t="s">
@@ -8092,8 +8092,8 @@
         <v>19</v>
       </c>
       <c r="S79" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C79,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0078.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0078.jpg</v>
       </c>
       <c r="T79" s="1" t="s">
         <v>406</v>
@@ -8107,7 +8107,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f>+TEXT(B80,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0079</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -8120,7 +8120,7 @@
         <v>82</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>+CONCATENATE(E80,", ",F80)</f>
+        <f t="shared" si="16"/>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H80" s="1">
@@ -8133,23 +8133,23 @@
         <v>43177</v>
       </c>
       <c r="K80" s="1" t="str">
-        <f>+TEXT(J80,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>18-03-2018</v>
       </c>
       <c r="L80" s="4">
-        <f>+YEAR(J80)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M80" s="4">
-        <f>+MONTH(J80)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="N80" s="4">
-        <f>+DAY(J80)</f>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="O80" s="3" t="str">
-        <f>+TEXT(K80,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>18-Mar-2018</v>
       </c>
       <c r="P80" s="1" t="s">
@@ -8162,8 +8162,8 @@
         <v>19</v>
       </c>
       <c r="S80" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C80,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0079.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0079.jpg</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>410</v>
@@ -8177,7 +8177,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f>+TEXT(B81,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0080</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -8190,7 +8190,7 @@
         <v>88</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>+CONCATENATE(E81,", ",F81)</f>
+        <f t="shared" si="16"/>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H81" s="1">
@@ -8203,23 +8203,23 @@
         <v>43181</v>
       </c>
       <c r="K81" s="1" t="str">
-        <f>+TEXT(J81,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>22-03-2018</v>
       </c>
       <c r="L81" s="4">
-        <f>+YEAR(J81)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M81" s="4">
-        <f>+MONTH(J81)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="N81" s="4">
-        <f>+DAY(J81)</f>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="O81" s="3" t="str">
-        <f>+TEXT(K81,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>22-Mar-2018</v>
       </c>
       <c r="P81" s="1" t="s">
@@ -8232,8 +8232,8 @@
         <v>19</v>
       </c>
       <c r="S81" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C81,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0080.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0080.jpg</v>
       </c>
       <c r="T81" s="1" t="s">
         <v>415</v>
@@ -8247,7 +8247,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f>+TEXT(B82,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0081</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -8260,7 +8260,7 @@
         <v>151</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>+CONCATENATE(E82,", ",F82)</f>
+        <f t="shared" si="16"/>
         <v>Mapiripán, Meta</v>
       </c>
       <c r="H82" s="1">
@@ -8273,23 +8273,23 @@
         <v>43189</v>
       </c>
       <c r="K82" s="1" t="str">
-        <f>+TEXT(J82,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>30-03-2018</v>
       </c>
       <c r="L82" s="4">
-        <f>+YEAR(J82)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M82" s="4">
-        <f>+MONTH(J82)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="N82" s="4">
-        <f>+DAY(J82)</f>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="O82" s="3" t="str">
-        <f>+TEXT(K82,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>30-Mar-2018</v>
       </c>
       <c r="P82" s="1" t="s">
@@ -8302,8 +8302,8 @@
         <v>44</v>
       </c>
       <c r="S82" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C82,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0081.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0081.jpg</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>420</v>
@@ -8317,7 +8317,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f>+TEXT(B83,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0082</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -8330,7 +8330,7 @@
         <v>36</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>+CONCATENATE(E83,", ",F83)</f>
+        <f t="shared" si="16"/>
         <v>Rosas, Cauca</v>
       </c>
       <c r="H83" s="1">
@@ -8343,23 +8343,23 @@
         <v>43181</v>
       </c>
       <c r="K83" s="1" t="str">
-        <f>+TEXT(J83,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>22-03-2018</v>
       </c>
       <c r="L83" s="4">
-        <f>+YEAR(J83)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M83" s="4">
-        <f>+MONTH(J83)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="N83" s="4">
-        <f>+DAY(J83)</f>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="O83" s="3" t="str">
-        <f>+TEXT(K83,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>22-Mar-2018</v>
       </c>
       <c r="P83" s="1" t="s">
@@ -8372,8 +8372,8 @@
         <v>19</v>
       </c>
       <c r="S83" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C83,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0082.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0082.jpg</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>424</v>
@@ -8387,7 +8387,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f>+TEXT(B84,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0083</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -8400,7 +8400,7 @@
         <v>82</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>+CONCATENATE(E84,", ",F84)</f>
+        <f t="shared" si="16"/>
         <v>San José del Palmar, Chocó</v>
       </c>
       <c r="H84" s="1">
@@ -8413,23 +8413,23 @@
         <v>43200</v>
       </c>
       <c r="K84" s="1" t="str">
-        <f>+TEXT(J84,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>10-04-2018</v>
       </c>
       <c r="L84" s="4">
-        <f>+YEAR(J84)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M84" s="4">
-        <f>+MONTH(J84)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="N84" s="4">
-        <f>+DAY(J84)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="O84" s="3" t="str">
-        <f>+TEXT(K84,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>10-Apr-2018</v>
       </c>
       <c r="P84" s="1" t="s">
@@ -8442,8 +8442,8 @@
         <v>19</v>
       </c>
       <c r="S84" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C84,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0083.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0083.jpg</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>429</v>
@@ -8457,7 +8457,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f>+TEXT(B85,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0084</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -8470,7 +8470,7 @@
         <v>88</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>+CONCATENATE(E85,", ",F85)</f>
+        <f t="shared" si="16"/>
         <v>San Pedro de Urabá, Antioquia</v>
       </c>
       <c r="H85" s="1">
@@ -8483,23 +8483,23 @@
         <v>43210</v>
       </c>
       <c r="K85" s="1" t="str">
-        <f>+TEXT(J85,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>20-04-2018</v>
       </c>
       <c r="L85" s="4">
-        <f>+YEAR(J85)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M85" s="4">
-        <f>+MONTH(J85)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="N85" s="4">
-        <f>+DAY(J85)</f>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="O85" s="3" t="str">
-        <f>+TEXT(K85,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>20-Apr-2018</v>
       </c>
       <c r="P85" s="1" t="s">
@@ -8512,8 +8512,8 @@
         <v>19</v>
       </c>
       <c r="S85" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C85,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0084.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0084.jpg</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>434</v>
@@ -8527,7 +8527,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f>+TEXT(B86,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0085</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -8540,7 +8540,7 @@
         <v>438</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>+CONCATENATE(E86,", ",F86)</f>
+        <f t="shared" si="16"/>
         <v>Arauquita, Arauca</v>
       </c>
       <c r="H86" s="1">
@@ -8553,23 +8553,23 @@
         <v>43222</v>
       </c>
       <c r="K86" s="1" t="str">
-        <f>+TEXT(J86,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>02-05-2018</v>
       </c>
       <c r="L86" s="4">
-        <f>+YEAR(J86)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M86" s="4">
-        <f>+MONTH(J86)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="N86" s="4">
-        <f>+DAY(J86)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="O86" s="3" t="str">
-        <f>+TEXT(K86,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>02-May-2018</v>
       </c>
       <c r="P86" s="1" t="s">
@@ -8582,8 +8582,8 @@
         <v>44</v>
       </c>
       <c r="S86" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C86,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0085.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0085.jpg</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>440</v>
@@ -8597,7 +8597,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f>+TEXT(B87,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0086</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -8610,7 +8610,7 @@
         <v>88</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>+CONCATENATE(E87,", ",F87)</f>
+        <f t="shared" si="16"/>
         <v>Valdivia, Antioquia</v>
       </c>
       <c r="H87" s="1">
@@ -8623,23 +8623,23 @@
         <v>43222</v>
       </c>
       <c r="K87" s="1" t="str">
-        <f>+TEXT(J87,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>02-05-2018</v>
       </c>
       <c r="L87" s="4">
-        <f>+YEAR(J87)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M87" s="4">
-        <f>+MONTH(J87)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="N87" s="4">
-        <f>+DAY(J87)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="O87" s="3" t="str">
-        <f>+TEXT(K87,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>02-May-2018</v>
       </c>
       <c r="P87" s="1" t="s">
@@ -8652,8 +8652,8 @@
         <v>19</v>
       </c>
       <c r="S87" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C87,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0086.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0086.jpg</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>445</v>
@@ -8667,7 +8667,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f>+TEXT(B88,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0087</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -8680,7 +8680,7 @@
         <v>36</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>+CONCATENATE(E88,", ",F88)</f>
+        <f t="shared" si="16"/>
         <v>Corinto, Cauca</v>
       </c>
       <c r="H88" s="1">
@@ -8693,23 +8693,23 @@
         <v>43235</v>
       </c>
       <c r="K88" s="1" t="str">
-        <f>+TEXT(J88,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>15-05-2018</v>
       </c>
       <c r="L88" s="4">
-        <f>+YEAR(J88)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M88" s="4">
-        <f>+MONTH(J88)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="N88" s="4">
-        <f>+DAY(J88)</f>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="O88" s="3" t="str">
-        <f>+TEXT(K88,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>15-May-2018</v>
       </c>
       <c r="P88" s="1" t="s">
@@ -8722,8 +8722,8 @@
         <v>19</v>
       </c>
       <c r="S88" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C88,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0087.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0087.jpg</v>
       </c>
       <c r="T88" s="1" t="s">
         <v>449</v>
@@ -8737,7 +8737,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f>+TEXT(B89,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0088</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -8750,7 +8750,7 @@
         <v>453</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>+CONCATENATE(E89,", ",F89)</f>
+        <f t="shared" si="16"/>
         <v>La Argentina, Huila</v>
       </c>
       <c r="H89" s="1">
@@ -8763,23 +8763,23 @@
         <v>43247</v>
       </c>
       <c r="K89" s="1" t="str">
-        <f>+TEXT(J89,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>27-05-2018</v>
       </c>
       <c r="L89" s="4">
-        <f>+YEAR(J89)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M89" s="4">
-        <f>+MONTH(J89)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="N89" s="4">
-        <f>+DAY(J89)</f>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="O89" s="3" t="str">
-        <f>+TEXT(K89,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>27-May-2018</v>
       </c>
       <c r="P89" s="1" t="s">
@@ -8792,8 +8792,8 @@
         <v>19</v>
       </c>
       <c r="S89" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C89,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0088.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0088.jpg</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>455</v>
@@ -8807,7 +8807,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f>+TEXT(B90,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0089</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -8820,7 +8820,7 @@
         <v>196</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>+CONCATENATE(E90,", ",F90)</f>
+        <f t="shared" si="16"/>
         <v>Olaya Herrera, Nariño</v>
       </c>
       <c r="H90" s="1">
@@ -8833,23 +8833,23 @@
         <v>43253</v>
       </c>
       <c r="K90" s="1" t="str">
-        <f>+TEXT(J90,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>02-06-2018</v>
       </c>
       <c r="L90" s="4">
-        <f>+YEAR(J90)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M90" s="4">
-        <f>+MONTH(J90)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N90" s="4">
-        <f>+DAY(J90)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="O90" s="3" t="str">
-        <f>+TEXT(K90,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>02-Jun-2018</v>
       </c>
       <c r="P90" s="1" t="s">
@@ -8862,8 +8862,8 @@
         <v>19</v>
       </c>
       <c r="S90" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C90,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0089.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0089.jpg</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>460</v>
@@ -8877,7 +8877,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>+TEXT(B91,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0090</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -8890,7 +8890,7 @@
         <v>228</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>+CONCATENATE(E91,", ",F91)</f>
+        <f t="shared" si="16"/>
         <v>San Calixto, Norte de Santander</v>
       </c>
       <c r="H91" s="1">
@@ -8903,23 +8903,23 @@
         <v>43130</v>
       </c>
       <c r="K91" s="1" t="str">
-        <f>+TEXT(J91,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>30-01-2018</v>
       </c>
       <c r="L91" s="4">
-        <f>+YEAR(J91)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M91" s="4">
-        <f>+MONTH(J91)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N91" s="4">
-        <f>+DAY(J91)</f>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="O91" s="3" t="str">
-        <f>+TEXT(K91,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>30-Jan-2018</v>
       </c>
       <c r="P91" s="1" t="s">
@@ -8932,8 +8932,8 @@
         <v>44</v>
       </c>
       <c r="S91" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C91,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0090.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0090.jpg</v>
       </c>
       <c r="T91" s="1" t="s">
         <v>465</v>
@@ -8947,7 +8947,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f>+TEXT(B92,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0091</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -8960,7 +8960,7 @@
         <v>55</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>+CONCATENATE(E92,", ",F92)</f>
+        <f t="shared" si="16"/>
         <v>Valle del Guamuez, Putumayo</v>
       </c>
       <c r="H92" s="1">
@@ -8973,23 +8973,23 @@
         <v>43262</v>
       </c>
       <c r="K92" s="1" t="str">
-        <f>+TEXT(J92,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>11-06-2018</v>
       </c>
       <c r="L92" s="4">
-        <f>+YEAR(J92)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M92" s="4">
-        <f>+MONTH(J92)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N92" s="4">
-        <f>+DAY(J92)</f>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="O92" s="3" t="str">
-        <f>+TEXT(K92,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>11-Jun-2018</v>
       </c>
       <c r="P92" s="1" t="s">
@@ -9002,8 +9002,8 @@
         <v>19</v>
       </c>
       <c r="S92" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C92,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0091.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0091.jpg</v>
       </c>
       <c r="T92" s="1" t="s">
         <v>470</v>
@@ -9017,7 +9017,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f>+TEXT(B93,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0092</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -9030,7 +9030,7 @@
         <v>88</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>+CONCATENATE(E93,", ",F93)</f>
+        <f t="shared" si="16"/>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H93" s="1">
@@ -9043,23 +9043,23 @@
         <v>43263</v>
       </c>
       <c r="K93" s="1" t="str">
-        <f>+TEXT(J93,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>12-06-2018</v>
       </c>
       <c r="L93" s="4">
-        <f>+YEAR(J93)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M93" s="4">
-        <f>+MONTH(J93)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N93" s="4">
-        <f>+DAY(J93)</f>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="O93" s="3" t="str">
-        <f>+TEXT(K93,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>12-Jun-2018</v>
       </c>
       <c r="P93" s="1" t="s">
@@ -9072,8 +9072,8 @@
         <v>19</v>
       </c>
       <c r="S93" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C93,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0092.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0092.jpg</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>473</v>
@@ -9087,7 +9087,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f>+TEXT(B94,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0093</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -9100,7 +9100,7 @@
         <v>17</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>+CONCATENATE(E94,", ",F94)</f>
+        <f t="shared" si="16"/>
         <v>Maicao, La Guajira</v>
       </c>
       <c r="H94" s="1">
@@ -9113,23 +9113,23 @@
         <v>43263</v>
       </c>
       <c r="K94" s="1" t="str">
-        <f>+TEXT(J94,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>12-06-2018</v>
       </c>
       <c r="L94" s="4">
-        <f>+YEAR(J94)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M94" s="4">
-        <f>+MONTH(J94)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N94" s="4">
-        <f>+DAY(J94)</f>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="O94" s="3" t="str">
-        <f>+TEXT(K94,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>12-Jun-2018</v>
       </c>
       <c r="P94" s="1" t="s">
@@ -9142,8 +9142,8 @@
         <v>44</v>
       </c>
       <c r="S94" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C94,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0093.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0093.jpg</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>478</v>
@@ -9157,7 +9157,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f>+TEXT(B95,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0094</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -9170,7 +9170,7 @@
         <v>228</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>+CONCATENATE(E95,", ",F95)</f>
+        <f t="shared" si="16"/>
         <v>Teorama, Norte de Santander</v>
       </c>
       <c r="H95" s="1">
@@ -9183,23 +9183,23 @@
         <v>43274</v>
       </c>
       <c r="K95" s="1" t="str">
-        <f>+TEXT(J95,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>23-06-2018</v>
       </c>
       <c r="L95" s="4">
-        <f>+YEAR(J95)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M95" s="4">
-        <f>+MONTH(J95)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N95" s="4">
-        <f>+DAY(J95)</f>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="O95" s="3" t="str">
-        <f>+TEXT(K95,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>23-Jun-2018</v>
       </c>
       <c r="P95" s="1" t="s">
@@ -9212,8 +9212,8 @@
         <v>19</v>
       </c>
       <c r="S95" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C95,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0094.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0094.jpg</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>483</v>
@@ -9227,7 +9227,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f>+TEXT(B96,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0095</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -9240,7 +9240,7 @@
         <v>88</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>+CONCATENATE(E96,", ",F96)</f>
+        <f t="shared" si="16"/>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H96" s="1">
@@ -9253,23 +9253,23 @@
         <v>43276</v>
       </c>
       <c r="K96" s="1" t="str">
-        <f>+TEXT(J96,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>25-06-2018</v>
       </c>
       <c r="L96" s="4">
-        <f>+YEAR(J96)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M96" s="4">
-        <f>+MONTH(J96)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N96" s="4">
-        <f>+DAY(J96)</f>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="O96" s="3" t="str">
-        <f>+TEXT(K96,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>25-Jun-2018</v>
       </c>
       <c r="P96" s="1" t="s">
@@ -9282,8 +9282,8 @@
         <v>19</v>
       </c>
       <c r="S96" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C96,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0095.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0095.jpg</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>486</v>
@@ -9297,7 +9297,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f>+TEXT(B97,"0000")</f>
+        <f t="shared" si="15"/>
         <v>0096</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -9310,7 +9310,7 @@
         <v>36</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>+CONCATENATE(E97,", ",F97)</f>
+        <f t="shared" si="16"/>
         <v>Patía, Cauca</v>
       </c>
       <c r="H97" s="1">
@@ -9323,23 +9323,23 @@
         <v>43278</v>
       </c>
       <c r="K97" s="1" t="str">
-        <f>+TEXT(J97,"DD-MM-YYYY")</f>
+        <f t="shared" si="17"/>
         <v>27-06-2018</v>
       </c>
       <c r="L97" s="4">
-        <f>+YEAR(J97)</f>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="M97" s="4">
-        <f>+MONTH(J97)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N97" s="4">
-        <f>+DAY(J97)</f>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="O97" s="3" t="str">
-        <f>+TEXT(K97,"DD-MMM-YYYY")</f>
+        <f t="shared" si="21"/>
         <v>27-Jun-2018</v>
       </c>
       <c r="P97" s="1" t="s">
@@ -9352,8 +9352,8 @@
         <v>19</v>
       </c>
       <c r="S97" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C97,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0096.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0096.jpg</v>
       </c>
       <c r="T97" s="1" t="s">
         <v>523</v>
@@ -9367,7 +9367,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f>+TEXT(B98,"0000")</f>
+        <f t="shared" ref="C98:C129" si="23">+TEXT(B98,"0000")</f>
         <v>0097</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -9380,7 +9380,7 @@
         <v>36</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>+CONCATENATE(E98,", ",F98)</f>
+        <f t="shared" ref="G98:G129" si="24">+CONCATENATE(E98,", ",F98)</f>
         <v>Buenos Aires, Cauca</v>
       </c>
       <c r="H98" s="1">
@@ -9393,23 +9393,23 @@
         <v>43283</v>
       </c>
       <c r="K98" s="1" t="str">
-        <f>+TEXT(J98,"DD-MM-YYYY")</f>
+        <f t="shared" ref="K98:K129" si="25">+TEXT(J98,"DD-MM-YYYY")</f>
         <v>02-07-2018</v>
       </c>
       <c r="L98" s="4">
-        <f>+YEAR(J98)</f>
+        <f t="shared" ref="L98:L104" si="26">+YEAR(J98)</f>
         <v>2018</v>
       </c>
       <c r="M98" s="4">
-        <f>+MONTH(J98)</f>
+        <f t="shared" ref="M98:M104" si="27">+MONTH(J98)</f>
         <v>7</v>
       </c>
       <c r="N98" s="4">
-        <f>+DAY(J98)</f>
+        <f t="shared" ref="N98:N104" si="28">+DAY(J98)</f>
         <v>2</v>
       </c>
       <c r="O98" s="3" t="str">
-        <f>+TEXT(K98,"DD-MMM-YYYY")</f>
+        <f t="shared" ref="O98:O104" si="29">+TEXT(K98,"DD-MMM-YYYY")</f>
         <v>02-Jul-2018</v>
       </c>
       <c r="P98" s="1" t="s">
@@ -9422,8 +9422,8 @@
         <v>19</v>
       </c>
       <c r="S98" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C98,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0097.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0097.jpg</v>
       </c>
       <c r="T98" s="1" t="s">
         <v>519</v>
@@ -9437,7 +9437,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f>+TEXT(B99,"0000")</f>
+        <f t="shared" si="23"/>
         <v>0098</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -9450,7 +9450,7 @@
         <v>42</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>+CONCATENATE(E99,", ",F99)</f>
+        <f t="shared" si="24"/>
         <v>Puerto Libertador, Córdoba</v>
       </c>
       <c r="H99" s="1">
@@ -9463,23 +9463,23 @@
         <v>43280</v>
       </c>
       <c r="K99" s="1" t="str">
-        <f>+TEXT(J99,"DD-MM-YYYY")</f>
+        <f t="shared" si="25"/>
         <v>29-06-2018</v>
       </c>
       <c r="L99" s="4">
-        <f>+YEAR(J99)</f>
+        <f t="shared" si="26"/>
         <v>2018</v>
       </c>
       <c r="M99" s="4">
-        <f>+MONTH(J99)</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="N99" s="4">
-        <f>+DAY(J99)</f>
+        <f t="shared" si="28"/>
         <v>29</v>
       </c>
       <c r="O99" s="3" t="str">
-        <f>+TEXT(K99,"DD-MMM-YYYY")</f>
+        <f t="shared" si="29"/>
         <v>29-Jun-2018</v>
       </c>
       <c r="P99" s="1" t="s">
@@ -9492,8 +9492,8 @@
         <v>19</v>
       </c>
       <c r="S99" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C99,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0098.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0098.jpg</v>
       </c>
       <c r="T99" s="1" t="s">
         <v>520</v>
@@ -9507,7 +9507,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="str">
-        <f>+TEXT(B100,"0000")</f>
+        <f t="shared" si="23"/>
         <v>0099</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -9520,7 +9520,7 @@
         <v>30</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>+CONCATENATE(E100,", ",F100)</f>
+        <f t="shared" si="24"/>
         <v>Palmar de Varela, Atlántico</v>
       </c>
       <c r="H100" s="1">
@@ -9533,23 +9533,23 @@
         <v>43284</v>
       </c>
       <c r="K100" s="1" t="str">
-        <f>+TEXT(J100,"DD-MM-YYYY")</f>
+        <f t="shared" si="25"/>
         <v>03-07-2018</v>
       </c>
       <c r="L100" s="4">
-        <f>+YEAR(J100)</f>
+        <f t="shared" si="26"/>
         <v>2018</v>
       </c>
       <c r="M100" s="4">
-        <f>+MONTH(J100)</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="N100" s="4">
-        <f>+DAY(J100)</f>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="O100" s="3" t="str">
-        <f>+TEXT(K100,"DD-MMM-YYYY")</f>
+        <f t="shared" si="29"/>
         <v>03-Jul-2018</v>
       </c>
       <c r="P100" s="1" t="s">
@@ -9562,8 +9562,8 @@
         <v>19</v>
       </c>
       <c r="S100" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C100,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0099.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0099.jpg</v>
       </c>
       <c r="T100" s="1" t="s">
         <v>521</v>
@@ -9577,7 +9577,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f>+TEXT(B101,"0000")</f>
+        <f t="shared" si="23"/>
         <v>0100</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -9590,7 +9590,7 @@
         <v>82</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>+CONCATENATE(E101,", ",F101)</f>
+        <f t="shared" si="24"/>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H101" s="1">
@@ -9603,23 +9603,23 @@
         <v>43284</v>
       </c>
       <c r="K101" s="1" t="str">
-        <f>+TEXT(J101,"DD-MM-YYYY")</f>
+        <f t="shared" si="25"/>
         <v>03-07-2018</v>
       </c>
       <c r="L101" s="4">
-        <f>+YEAR(J101)</f>
+        <f t="shared" si="26"/>
         <v>2018</v>
       </c>
       <c r="M101" s="4">
-        <f>+MONTH(J101)</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="N101" s="4">
-        <f>+DAY(J101)</f>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="O101" s="3" t="str">
-        <f>+TEXT(K101,"DD-MMM-YYYY")</f>
+        <f t="shared" si="29"/>
         <v>03-Jul-2018</v>
       </c>
       <c r="P101" s="1" t="s">
@@ -9632,8 +9632,8 @@
         <v>44</v>
       </c>
       <c r="S101" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C101,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0100.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0100.jpg</v>
       </c>
       <c r="T101" s="1" t="s">
         <v>522</v>
@@ -9647,7 +9647,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f>+TEXT(B102,"0000")</f>
+        <f t="shared" si="23"/>
         <v>0101</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -9660,7 +9660,7 @@
         <v>196</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>+CONCATENATE(E102,", ",F102)</f>
+        <f t="shared" si="24"/>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H102" s="1">
@@ -9673,23 +9673,23 @@
         <v>43284</v>
       </c>
       <c r="K102" s="1" t="str">
-        <f>+TEXT(J102,"DD-MM-YYYY")</f>
+        <f t="shared" si="25"/>
         <v>03-07-2018</v>
       </c>
       <c r="L102" s="4">
-        <f>+YEAR(J102)</f>
+        <f t="shared" si="26"/>
         <v>2018</v>
       </c>
       <c r="M102" s="4">
-        <f>+MONTH(J102)</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="N102" s="4">
-        <f>+DAY(J102)</f>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f>+TEXT(K102,"DD-MMM-YYYY")</f>
+        <f t="shared" si="29"/>
         <v>03-Jul-2018</v>
       </c>
       <c r="P102" s="1" t="s">
@@ -9702,8 +9702,8 @@
         <v>44</v>
       </c>
       <c r="S102" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C102,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0101.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0101.jpg</v>
       </c>
       <c r="T102" s="1" t="s">
         <v>535</v>
@@ -9717,7 +9717,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="str">
-        <f>+TEXT(B103,"0000")</f>
+        <f t="shared" si="23"/>
         <v>0102</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -9730,7 +9730,7 @@
         <v>88</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>+CONCATENATE(E103,", ",F103)</f>
+        <f t="shared" si="24"/>
         <v>Cáceres, Antioquia</v>
       </c>
       <c r="H103" s="1">
@@ -9743,23 +9743,23 @@
         <v>43285</v>
       </c>
       <c r="K103" s="1" t="str">
-        <f>+TEXT(J103,"DD-MM-YYYY")</f>
+        <f t="shared" si="25"/>
         <v>04-07-2018</v>
       </c>
       <c r="L103" s="4">
-        <f>+YEAR(J103)</f>
+        <f t="shared" si="26"/>
         <v>2018</v>
       </c>
       <c r="M103" s="4">
-        <f>+MONTH(J103)</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="N103" s="4">
-        <f>+DAY(J103)</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f>+TEXT(K103,"DD-MMM-YYYY")</f>
+        <f t="shared" si="29"/>
         <v>04-Jul-2018</v>
       </c>
       <c r="P103" s="1" t="s">
@@ -9772,8 +9772,8 @@
         <v>44</v>
       </c>
       <c r="S103" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C103,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0102.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0102.jpg</v>
       </c>
       <c r="T103" s="1" t="s">
         <v>536</v>
@@ -9787,7 +9787,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="str">
-        <f>+TEXT(B104,"0000")</f>
+        <f t="shared" si="23"/>
         <v>0103</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -9800,7 +9800,7 @@
         <v>36</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>+CONCATENATE(E104,", ",F104)</f>
+        <f t="shared" si="24"/>
         <v>Caloto, Cauca</v>
       </c>
       <c r="H104" s="1">
@@ -9813,23 +9813,23 @@
         <v>43279</v>
       </c>
       <c r="K104" s="1" t="str">
-        <f>+TEXT(J104,"DD-MM-YYYY")</f>
+        <f t="shared" si="25"/>
         <v>28-06-2018</v>
       </c>
       <c r="L104" s="4">
-        <f>+YEAR(J104)</f>
+        <f t="shared" si="26"/>
         <v>2018</v>
       </c>
       <c r="M104" s="4">
-        <f>+MONTH(J104)</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="N104" s="4">
-        <f>+DAY(J104)</f>
+        <f t="shared" si="28"/>
         <v>28</v>
       </c>
       <c r="O104" s="1" t="str">
-        <f>+TEXT(K104,"DD-MMM-YYYY")</f>
+        <f t="shared" si="29"/>
         <v>28-Jun-2018</v>
       </c>
       <c r="P104" s="1" t="s">
@@ -9842,8 +9842,8 @@
         <v>19</v>
       </c>
       <c r="S104" s="1" t="str">
-        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C104,".jpg"),)</f>
-        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0103.jpg</v>
+        <f t="shared" si="22"/>
+        <v>data/IMG/0103.jpg</v>
       </c>
       <c r="T104" s="1" t="s">
         <v>537</v>

--- a/docs/data/data_XLS.xlsx
+++ b/docs/data/data_XLS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="627">
   <si>
     <t>RAW</t>
   </si>
@@ -1947,11 +1947,35 @@
   <si>
     <t>77. Elkin Fabián Toro</t>
   </si>
+  <si>
+    <t>Alirio Arenas</t>
+  </si>
+  <si>
+    <t>Ocaña</t>
+  </si>
+  <si>
+    <t>Óliver Herrera</t>
+  </si>
+  <si>
+    <t>San Juan de Lozada</t>
+  </si>
+  <si>
+    <t>31/08/2018</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Este expresidente de la Junta de Acción Comunal de&amp;nbsp;la vereda Brisas del Guayabero (zona rural del Meta) y miembro de la Asociación Campesina Ambiental Losada Guayabero &lt;a href="http://pacifista.co/la-zona-de-reserva-campesina-que-se-abre-paso-en-territorios-historicos-de-la-guerra-y-de-la-paz/" target="_blank"&gt;(ASCAL-G)&lt;/a&gt;&amp;nbsp;fue asesinado el pasado 31 de agosto en horas de la noche por dos sicarios que irrumpieron en su casa y le dispararon. Varios compañeros de Herrera manifestaron que no había recibido amenazas, y que por el contrario era un líder querido en su comunidad. Como una forma de rechazo al homicidio y de homenaje a Herrera, los sectores de transporte y comercio de San Juan de Lozada hicieron un paro en sus labores. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Alirio Antonio Arenas Gómez era un reconocido líder social en Ocaña por su trabajo en la zona rural de la vereda San Isidro, donde era presidente de la Junta de Acción Comunal. También hizo parte del Movimiento por la Constituyente Popular (MCP), y fue concejal y presidente del Concejo del municipio de Convención, por el partido MAIS. El pasado 2 de septiembre en la madrugada fue asesinado en el barrio Belén, de Ocaña, por hombres que le dispararon varias veces. Arenas había denunciado amenazas a su vida en los últimos meses, y aunque la Unidad Nacional de Protección (UNP) había autorizado un esquema de protección para él, no se lo asignaron. &lt;/p&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2448,7 +2472,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2460,6 +2484,8 @@
     <xf numFmtId="1" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2815,14 +2841,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N86" sqref="N86"/>
+      <selection pane="bottomRight" activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,7 +2860,8 @@
     <col min="6" max="6" width="9.140625" style="5"/>
     <col min="7" max="7" width="49.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="10.7109375" style="9" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="5" customWidth="1"/>
@@ -2874,7 +2900,7 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="10" t="s">
@@ -2908,7 +2934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -2938,11 +2964,11 @@
       <c r="I2" s="7">
         <v>11.5384151</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="12">
         <v>42705</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K33" si="2">+TEXT(J2,"DD-MM-YYYY")</f>
+        <f t="shared" ref="K2:K65" si="2">+TEXT(J2,"DD-MM-YYYY")</f>
         <v>01-12-2016</v>
       </c>
       <c r="L2" s="9">
@@ -2958,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="5" t="str">
-        <f t="shared" ref="O2:O33" si="6">+TEXT(K2,"DD-MMM-YYYY")</f>
+        <f t="shared" ref="O2:O65" si="6">+TEXT(K2,"DD-MMM-YYYY")</f>
         <v>12-Jan-2016</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -2978,7 +3004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -3008,7 +3034,7 @@
       <c r="I3" s="7">
         <v>2.6547399999999999</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="12">
         <v>42706</v>
       </c>
       <c r="K3" s="2" t="str">
@@ -3048,7 +3074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -3078,7 +3104,7 @@
       <c r="I4" s="7">
         <v>10.898923</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="12">
         <v>42706</v>
       </c>
       <c r="K4" s="2" t="str">
@@ -3118,7 +3144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -3148,7 +3174,7 @@
       <c r="I5" s="7">
         <v>2.2781525</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="12">
         <v>42707</v>
       </c>
       <c r="K5" s="2" t="str">
@@ -3218,7 +3244,7 @@
       <c r="I6" s="7">
         <v>8.7509829999999997</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="12">
         <v>42707</v>
       </c>
       <c r="K6" s="2" t="str">
@@ -3258,7 +3284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3288,7 +3314,7 @@
       <c r="I7" s="7">
         <v>8.5576799999999995</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="12">
         <v>42714</v>
       </c>
       <c r="K7" s="2" t="str">
@@ -3328,7 +3354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -3358,7 +3384,7 @@
       <c r="I8" s="7">
         <v>0.50492899999999996</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="12">
         <v>42716</v>
       </c>
       <c r="K8" s="2" t="str">
@@ -3398,7 +3424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -3428,7 +3454,7 @@
       <c r="I9" s="7">
         <v>2.2557499999999999</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="12">
         <v>42729</v>
       </c>
       <c r="K9" s="2" t="str">
@@ -3468,7 +3494,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -3498,7 +3524,7 @@
       <c r="I10" s="7">
         <v>3.03</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="12">
         <v>42744</v>
       </c>
       <c r="K10" s="2" t="str">
@@ -3538,7 +3564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -3568,7 +3594,7 @@
       <c r="I11" s="7">
         <v>9.6190789999999993</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="12">
         <v>42742</v>
       </c>
       <c r="K11" s="2" t="str">
@@ -3638,7 +3664,7 @@
       <c r="I12" s="7">
         <v>2.0407280000000001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="12">
         <v>42734</v>
       </c>
       <c r="K12" s="2" t="str">
@@ -3678,7 +3704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -3708,7 +3734,7 @@
       <c r="I13" s="7">
         <v>7.4383879999999998</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="12">
         <v>42745</v>
       </c>
       <c r="K13" s="2" t="str">
@@ -3748,7 +3774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -3778,7 +3804,7 @@
       <c r="I14" s="7">
         <v>7.7553539999999996</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="12">
         <v>42746</v>
       </c>
       <c r="K14" s="2" t="str">
@@ -3848,7 +3874,7 @@
       <c r="I15" s="7">
         <v>3.8830471000000002</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="12">
         <v>42752</v>
       </c>
       <c r="K15" s="2" t="str">
@@ -3888,7 +3914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>97</v>
       </c>
@@ -3918,7 +3944,7 @@
       <c r="I16" s="7">
         <v>7.8879520000000003</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="12">
         <v>42754</v>
       </c>
       <c r="K16" s="2" t="str">
@@ -3988,7 +4014,7 @@
       <c r="I17" s="7">
         <v>10.4742449</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="12">
         <v>42761</v>
       </c>
       <c r="K17" s="2" t="str">
@@ -4028,7 +4054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>107</v>
       </c>
@@ -4058,7 +4084,7 @@
       <c r="I18" s="7">
         <v>8.0951588000000001</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="12">
         <v>42764</v>
       </c>
       <c r="K18" s="2" t="str">
@@ -4098,7 +4124,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>112</v>
       </c>
@@ -4128,7 +4154,7 @@
       <c r="I19" s="7">
         <v>10.148975999999999</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="12">
         <v>42770</v>
       </c>
       <c r="K19" s="2" t="str">
@@ -4198,7 +4224,7 @@
       <c r="I20" s="7">
         <v>6.9619689999999999</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="12">
         <v>42773</v>
       </c>
       <c r="K20" s="2" t="str">
@@ -4238,7 +4264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>122</v>
       </c>
@@ -4268,7 +4294,7 @@
       <c r="I21" s="7">
         <v>1.7508600000000001</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="12">
         <v>42784</v>
       </c>
       <c r="K21" s="2" t="str">
@@ -4308,7 +4334,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>127</v>
       </c>
@@ -4338,7 +4364,7 @@
       <c r="I22" s="7">
         <v>4.7109886000000003</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="12">
         <v>42764</v>
       </c>
       <c r="K22" s="2" t="str">
@@ -4378,7 +4404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>133</v>
       </c>
@@ -4408,7 +4434,7 @@
       <c r="I23" s="7">
         <v>3.17</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="12">
         <v>42792</v>
       </c>
       <c r="K23" s="2" t="str">
@@ -4478,7 +4504,7 @@
       <c r="I24" s="7">
         <v>6.24</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="12">
         <v>42796</v>
       </c>
       <c r="K24" s="2" t="str">
@@ -4518,7 +4544,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
@@ -4548,7 +4574,7 @@
       <c r="I25" s="7">
         <v>6.3367288000000004</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="12">
         <v>42796</v>
       </c>
       <c r="K25" s="2" t="str">
@@ -4588,7 +4614,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>148</v>
       </c>
@@ -4618,7 +4644,7 @@
       <c r="I26" s="7">
         <v>3.3819949999999999</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="12">
         <v>42799</v>
       </c>
       <c r="K26" s="2" t="str">
@@ -4688,7 +4714,7 @@
       <c r="I27" s="7">
         <v>3.3791000000000002</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="12">
         <v>42800</v>
       </c>
       <c r="K27" s="2" t="str">
@@ -4728,7 +4754,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>156</v>
       </c>
@@ -4758,7 +4784,7 @@
       <c r="I28" s="7">
         <v>3.19</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="12">
         <v>42816</v>
       </c>
       <c r="K28" s="2" t="str">
@@ -4798,7 +4824,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>160</v>
       </c>
@@ -4828,7 +4854,7 @@
       <c r="I29" s="7">
         <v>0.33001999999999998</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="12">
         <v>42821</v>
       </c>
       <c r="K29" s="2" t="str">
@@ -4868,7 +4894,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>165</v>
       </c>
@@ -4898,7 +4924,7 @@
       <c r="I30" s="7">
         <v>3.3837000000000002</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="12">
         <v>42827</v>
       </c>
       <c r="K30" s="2" t="str">
@@ -4968,7 +4994,7 @@
       <c r="I31" s="7">
         <v>6.2858150000000004</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="12">
         <v>42845</v>
       </c>
       <c r="K31" s="2" t="str">
@@ -5008,7 +5034,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>173</v>
       </c>
@@ -5038,7 +5064,7 @@
       <c r="I32" s="7">
         <v>2.3526859999999998</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="12">
         <v>42844</v>
       </c>
       <c r="K32" s="2" t="str">
@@ -5078,7 +5104,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>178</v>
       </c>
@@ -5108,7 +5134,7 @@
       <c r="I33" s="7">
         <v>1.795801</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="12">
         <v>42852</v>
       </c>
       <c r="K33" s="2" t="str">
@@ -5148,7 +5174,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>183</v>
       </c>
@@ -5178,27 +5204,27 @@
       <c r="I34" s="7">
         <v>3.2464330000000001</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="12">
         <v>42859</v>
       </c>
       <c r="K34" s="2" t="str">
-        <f t="shared" ref="K34:K65" si="10">+TEXT(J34,"DD-MM-YYYY")</f>
+        <f t="shared" si="2"/>
         <v>04-05-2017</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" ref="L34:L65" si="11">+YEAR(J34)</f>
+        <f t="shared" ref="L34:L65" si="10">+YEAR(J34)</f>
         <v>2017</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" ref="M34:M65" si="12">+MONTH(J34)</f>
+        <f t="shared" ref="M34:M65" si="11">+MONTH(J34)</f>
         <v>5</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" ref="N34:N65" si="13">+DAY(J34)</f>
+        <f t="shared" ref="N34:N65" si="12">+DAY(J34)</f>
         <v>4</v>
       </c>
       <c r="O34" s="5" t="str">
-        <f t="shared" ref="O34:O65" si="14">+TEXT(K34,"DD-MMM-YYYY")</f>
+        <f t="shared" si="6"/>
         <v>05-Apr-2017</v>
       </c>
       <c r="P34" s="5" t="s">
@@ -5211,14 +5237,14 @@
         <v>19</v>
       </c>
       <c r="S34" s="5" t="str">
-        <f t="shared" ref="S34:S65" si="15">+TEXT(CONCATENATE("data/IMG/",C34,".jpg"),)</f>
+        <f t="shared" ref="S34:S65" si="13">+TEXT(CONCATENATE("data/IMG/",C34,".jpg"),)</f>
         <v>data/IMG/0033.jpg</v>
       </c>
       <c r="T34" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>188</v>
       </c>
@@ -5248,27 +5274,27 @@
       <c r="I35" s="7">
         <v>3.7629809999999999</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="12">
         <v>42869</v>
       </c>
       <c r="K35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>14-05-2017</v>
+      </c>
+      <c r="L35" s="9">
         <f t="shared" si="10"/>
-        <v>14-05-2017</v>
-      </c>
-      <c r="L35" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M35" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M35" s="9">
+        <v>5</v>
+      </c>
+      <c r="N35" s="9">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="N35" s="9">
-        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="O35" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14-05-2017</v>
       </c>
       <c r="P35" s="5" t="s">
@@ -5281,14 +5307,14 @@
         <v>19</v>
       </c>
       <c r="S35" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0034.jpg</v>
       </c>
       <c r="T35" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>193</v>
       </c>
@@ -5318,27 +5344,27 @@
       <c r="I36" s="7">
         <v>1.7652600000000001</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="12">
         <v>42873</v>
       </c>
       <c r="K36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>18-05-2017</v>
+      </c>
+      <c r="L36" s="9">
         <f t="shared" si="10"/>
-        <v>18-05-2017</v>
-      </c>
-      <c r="L36" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M36" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M36" s="9">
+        <v>5</v>
+      </c>
+      <c r="N36" s="9">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="N36" s="9">
-        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="O36" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>18-05-2017</v>
       </c>
       <c r="P36" s="5" t="s">
@@ -5351,14 +5377,14 @@
         <v>19</v>
       </c>
       <c r="S36" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0035.jpg</v>
       </c>
       <c r="T36" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>199</v>
       </c>
@@ -5388,27 +5414,27 @@
       <c r="I37" s="7">
         <v>10.8575824</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="12">
         <v>42862</v>
       </c>
       <c r="K37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>07-05-2017</v>
+      </c>
+      <c r="L37" s="9">
         <f t="shared" si="10"/>
-        <v>07-05-2017</v>
-      </c>
-      <c r="L37" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M37" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M37" s="9">
+        <v>5</v>
+      </c>
+      <c r="N37" s="9">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="N37" s="9">
-        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O37" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>05-Jul-2017</v>
       </c>
       <c r="P37" s="5" t="s">
@@ -5421,14 +5447,14 @@
         <v>19</v>
       </c>
       <c r="S37" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0036.jpg</v>
       </c>
       <c r="T37" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>204</v>
       </c>
@@ -5458,27 +5484,27 @@
       <c r="I38" s="7">
         <v>3.01</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="12">
         <v>42907</v>
       </c>
       <c r="K38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>21-06-2017</v>
+      </c>
+      <c r="L38" s="9">
         <f t="shared" si="10"/>
-        <v>21-06-2017</v>
-      </c>
-      <c r="L38" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M38" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M38" s="9">
+        <v>6</v>
+      </c>
+      <c r="N38" s="9">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="N38" s="9">
-        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="O38" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>21-06-2017</v>
       </c>
       <c r="P38" s="5" t="s">
@@ -5491,14 +5517,14 @@
         <v>19</v>
       </c>
       <c r="S38" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0037.jpg</v>
       </c>
       <c r="T38" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>209</v>
       </c>
@@ -5528,27 +5554,27 @@
       <c r="I39" s="7">
         <v>3.6840839999999999</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="12">
         <v>42917</v>
       </c>
       <c r="K39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01-07-2017</v>
+      </c>
+      <c r="L39" s="9">
         <f t="shared" si="10"/>
-        <v>01-07-2017</v>
-      </c>
-      <c r="L39" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M39" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M39" s="9">
+        <v>7</v>
+      </c>
+      <c r="N39" s="9">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="N39" s="9">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O39" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>07-Jan-2017</v>
       </c>
       <c r="P39" s="5" t="s">
@@ -5561,14 +5587,14 @@
         <v>19</v>
       </c>
       <c r="S39" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0038.jpg</v>
       </c>
       <c r="T39" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>215</v>
       </c>
@@ -5598,27 +5624,27 @@
       <c r="I40" s="7">
         <v>5.6956329999999999</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="12">
         <v>42919</v>
       </c>
       <c r="K40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03-07-2017</v>
+      </c>
+      <c r="L40" s="9">
         <f t="shared" si="10"/>
-        <v>03-07-2017</v>
-      </c>
-      <c r="L40" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M40" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M40" s="9">
+        <v>7</v>
+      </c>
+      <c r="N40" s="9">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="N40" s="9">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="O40" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>07-Mar-2017</v>
       </c>
       <c r="P40" s="5" t="s">
@@ -5631,14 +5657,14 @@
         <v>19</v>
       </c>
       <c r="S40" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0039.jpg</v>
       </c>
       <c r="T40" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>220</v>
       </c>
@@ -5668,27 +5694,27 @@
       <c r="I41" s="7">
         <v>3.1329159</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="12">
         <v>42930</v>
       </c>
       <c r="K41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>14-07-2017</v>
+      </c>
+      <c r="L41" s="9">
         <f t="shared" si="10"/>
-        <v>14-07-2017</v>
-      </c>
-      <c r="L41" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M41" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M41" s="9">
+        <v>7</v>
+      </c>
+      <c r="N41" s="9">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="N41" s="9">
-        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="O41" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14-07-2017</v>
       </c>
       <c r="P41" s="5" t="s">
@@ -5701,14 +5727,14 @@
         <v>19</v>
       </c>
       <c r="S41" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0040.jpg</v>
       </c>
       <c r="T41" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>225</v>
       </c>
@@ -5738,27 +5764,27 @@
       <c r="I42" s="7">
         <v>8.5087399999999995</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="12">
         <v>42932</v>
       </c>
       <c r="K42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>16-07-2017</v>
+      </c>
+      <c r="L42" s="9">
         <f t="shared" si="10"/>
-        <v>16-07-2017</v>
-      </c>
-      <c r="L42" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M42" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M42" s="9">
+        <v>7</v>
+      </c>
+      <c r="N42" s="9">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="N42" s="9">
-        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="O42" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>16-07-2017</v>
       </c>
       <c r="P42" s="5" t="s">
@@ -5771,14 +5797,14 @@
         <v>19</v>
       </c>
       <c r="S42" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0041.jpg</v>
       </c>
       <c r="T42" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>231</v>
       </c>
@@ -5808,27 +5834,27 @@
       <c r="I43" s="7">
         <v>1.7430699999999999</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="12">
         <v>42953</v>
       </c>
       <c r="K43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>06-08-2017</v>
+      </c>
+      <c r="L43" s="9">
         <f t="shared" si="10"/>
-        <v>06-08-2017</v>
-      </c>
-      <c r="L43" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M43" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M43" s="9">
+        <v>8</v>
+      </c>
+      <c r="N43" s="9">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="N43" s="9">
-        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O43" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>08-Jun-2017</v>
       </c>
       <c r="P43" s="5" t="s">
@@ -5841,7 +5867,7 @@
         <v>19</v>
       </c>
       <c r="S43" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0042.jpg</v>
       </c>
       <c r="T43" s="5" t="s">
@@ -5878,27 +5904,27 @@
       <c r="I44" s="7">
         <v>2.2618580000000001</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="12">
         <v>42956</v>
       </c>
       <c r="K44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>09-08-2017</v>
+      </c>
+      <c r="L44" s="9">
         <f t="shared" si="10"/>
-        <v>09-08-2017</v>
-      </c>
-      <c r="L44" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M44" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M44" s="9">
+        <v>8</v>
+      </c>
+      <c r="N44" s="9">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="N44" s="9">
-        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O44" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>08-Sep-2017</v>
       </c>
       <c r="P44" s="5" t="s">
@@ -5911,14 +5937,14 @@
         <v>44</v>
       </c>
       <c r="S44" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0043.jpg</v>
       </c>
       <c r="T44" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>241</v>
       </c>
@@ -5948,27 +5974,27 @@
       <c r="I45" s="7">
         <v>1.1176109999999999</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="12">
         <v>42956</v>
       </c>
       <c r="K45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>09-08-2017</v>
+      </c>
+      <c r="L45" s="9">
         <f t="shared" si="10"/>
-        <v>09-08-2017</v>
-      </c>
-      <c r="L45" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M45" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M45" s="9">
+        <v>8</v>
+      </c>
+      <c r="N45" s="9">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="N45" s="9">
-        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O45" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>08-Sep-2017</v>
       </c>
       <c r="P45" s="5" t="s">
@@ -5981,14 +6007,14 @@
         <v>19</v>
       </c>
       <c r="S45" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0044.jpg</v>
       </c>
       <c r="T45" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>246</v>
       </c>
@@ -6018,27 +6044,27 @@
       <c r="I46" s="7">
         <v>7.4383879999999998</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="12">
         <v>42964</v>
       </c>
       <c r="K46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>17-08-2017</v>
+      </c>
+      <c r="L46" s="9">
         <f t="shared" si="10"/>
-        <v>17-08-2017</v>
-      </c>
-      <c r="L46" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M46" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M46" s="9">
+        <v>8</v>
+      </c>
+      <c r="N46" s="9">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="N46" s="9">
-        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="O46" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>17-08-2017</v>
       </c>
       <c r="P46" s="5" t="s">
@@ -6051,14 +6077,14 @@
         <v>19</v>
       </c>
       <c r="S46" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0045.jpg</v>
       </c>
       <c r="T46" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>251</v>
       </c>
@@ -6088,27 +6114,27 @@
       <c r="I47" s="7">
         <v>6.2935439999999998</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="12">
         <v>43007</v>
       </c>
       <c r="K47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>29-09-2017</v>
+      </c>
+      <c r="L47" s="9">
         <f t="shared" si="10"/>
-        <v>29-09-2017</v>
-      </c>
-      <c r="L47" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M47" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M47" s="9">
+        <v>9</v>
+      </c>
+      <c r="N47" s="9">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="N47" s="9">
-        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="O47" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>29-09-2017</v>
       </c>
       <c r="P47" s="5" t="s">
@@ -6121,14 +6147,14 @@
         <v>19</v>
       </c>
       <c r="S47" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0046.jpg</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>256</v>
       </c>
@@ -6158,27 +6184,27 @@
       <c r="I48" s="7">
         <v>6.2446000000000002</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="12">
         <v>43007</v>
       </c>
       <c r="K48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>29-09-2017</v>
+      </c>
+      <c r="L48" s="9">
         <f t="shared" si="10"/>
-        <v>29-09-2017</v>
-      </c>
-      <c r="L48" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M48" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M48" s="9">
+        <v>9</v>
+      </c>
+      <c r="N48" s="9">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="N48" s="9">
-        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="O48" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>29-09-2017</v>
       </c>
       <c r="P48" s="5" t="s">
@@ -6191,14 +6217,14 @@
         <v>19</v>
       </c>
       <c r="S48" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0047.jpg</v>
       </c>
       <c r="T48" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>260</v>
       </c>
@@ -6228,27 +6254,27 @@
       <c r="I49" s="7">
         <v>2.568549</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="12">
         <v>43011</v>
       </c>
       <c r="K49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03-10-2017</v>
+      </c>
+      <c r="L49" s="9">
         <f t="shared" si="10"/>
-        <v>03-10-2017</v>
-      </c>
-      <c r="L49" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M49" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M49" s="9">
+        <v>10</v>
+      </c>
+      <c r="N49" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N49" s="9">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="O49" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10-Mar-2017</v>
       </c>
       <c r="P49" s="5" t="s">
@@ -6261,14 +6287,14 @@
         <v>19</v>
       </c>
       <c r="S49" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0048.jpg</v>
       </c>
       <c r="T49" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>266</v>
       </c>
@@ -6298,27 +6324,27 @@
       <c r="I50" s="7">
         <v>5.1334095</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="12">
         <v>43015</v>
       </c>
       <c r="K50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>07-10-2017</v>
+      </c>
+      <c r="L50" s="9">
         <f t="shared" si="10"/>
-        <v>07-10-2017</v>
-      </c>
-      <c r="L50" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M50" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M50" s="9">
+        <v>10</v>
+      </c>
+      <c r="N50" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N50" s="9">
-        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O50" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10-Jul-2017</v>
       </c>
       <c r="P50" s="5" t="s">
@@ -6331,7 +6357,7 @@
         <v>19</v>
       </c>
       <c r="S50" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0049.jpg</v>
       </c>
       <c r="T50" s="5" t="s">
@@ -6368,27 +6394,27 @@
       <c r="I51" s="7">
         <v>2.3417330000000001</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="12">
         <v>43016</v>
       </c>
       <c r="K51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>08-10-2017</v>
+      </c>
+      <c r="L51" s="9">
         <f t="shared" si="10"/>
-        <v>08-10-2017</v>
-      </c>
-      <c r="L51" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M51" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M51" s="9">
+        <v>10</v>
+      </c>
+      <c r="N51" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N51" s="9">
-        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O51" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10-Aug-2017</v>
       </c>
       <c r="P51" s="5" t="s">
@@ -6401,14 +6427,14 @@
         <v>44</v>
       </c>
       <c r="S51" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0050.jpg</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>276</v>
       </c>
@@ -6438,27 +6464,27 @@
       <c r="I52" s="7">
         <v>10.3910485</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="12">
         <v>43013</v>
       </c>
       <c r="K52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>05-10-2017</v>
+      </c>
+      <c r="L52" s="9">
         <f t="shared" si="10"/>
-        <v>05-10-2017</v>
-      </c>
-      <c r="L52" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M52" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M52" s="9">
+        <v>10</v>
+      </c>
+      <c r="N52" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N52" s="9">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O52" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10-May-2017</v>
       </c>
       <c r="P52" s="5" t="s">
@@ -6471,14 +6497,14 @@
         <v>19</v>
       </c>
       <c r="S52" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0051.jpg</v>
       </c>
       <c r="T52" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>281</v>
       </c>
@@ -6508,27 +6534,27 @@
       <c r="I53" s="7">
         <v>1.787434</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="12">
         <v>43025</v>
       </c>
       <c r="K53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>17-10-2017</v>
+      </c>
+      <c r="L53" s="9">
         <f t="shared" si="10"/>
-        <v>17-10-2017</v>
-      </c>
-      <c r="L53" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M53" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M53" s="9">
+        <v>10</v>
+      </c>
+      <c r="N53" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N53" s="9">
-        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="O53" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>17-10-2017</v>
       </c>
       <c r="P53" s="5" t="s">
@@ -6541,14 +6567,14 @@
         <v>19</v>
       </c>
       <c r="S53" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0052.jpg</v>
       </c>
       <c r="T53" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>286</v>
       </c>
@@ -6578,27 +6604,27 @@
       <c r="I54" s="7">
         <v>0.96377000000000002</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="12">
         <v>43027</v>
       </c>
       <c r="K54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>19-10-2017</v>
+      </c>
+      <c r="L54" s="9">
         <f t="shared" si="10"/>
-        <v>19-10-2017</v>
-      </c>
-      <c r="L54" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M54" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M54" s="9">
+        <v>10</v>
+      </c>
+      <c r="N54" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N54" s="9">
-        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="O54" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>19-10-2017</v>
       </c>
       <c r="P54" s="5" t="s">
@@ -6611,7 +6637,7 @@
         <v>19</v>
       </c>
       <c r="S54" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0053.jpg</v>
       </c>
       <c r="T54" s="5" t="s">
@@ -6648,27 +6674,27 @@
       <c r="I55" s="7">
         <v>6.2430000000000003</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="12">
         <v>43026</v>
       </c>
       <c r="K55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>18-10-2017</v>
+      </c>
+      <c r="L55" s="9">
         <f t="shared" si="10"/>
-        <v>18-10-2017</v>
-      </c>
-      <c r="L55" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M55" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M55" s="9">
+        <v>10</v>
+      </c>
+      <c r="N55" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N55" s="9">
-        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="O55" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>18-10-2017</v>
       </c>
       <c r="P55" s="5" t="s">
@@ -6681,14 +6707,14 @@
         <v>44</v>
       </c>
       <c r="S55" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0054.jpg</v>
       </c>
       <c r="T55" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>295</v>
       </c>
@@ -6718,27 +6744,27 @@
       <c r="I56" s="7">
         <v>7.5831910000000002</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="12">
         <v>43030</v>
       </c>
       <c r="K56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>22-10-2017</v>
+      </c>
+      <c r="L56" s="9">
         <f t="shared" si="10"/>
-        <v>22-10-2017</v>
-      </c>
-      <c r="L56" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M56" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M56" s="9">
+        <v>10</v>
+      </c>
+      <c r="N56" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N56" s="9">
-        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="O56" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>22-10-2017</v>
       </c>
       <c r="P56" s="5" t="s">
@@ -6751,14 +6777,14 @@
         <v>19</v>
       </c>
       <c r="S56" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0055.jpg</v>
       </c>
       <c r="T56" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>300</v>
       </c>
@@ -6788,27 +6814,27 @@
       <c r="I57" s="7">
         <v>5.5163469999999997</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="12">
         <v>43032</v>
       </c>
       <c r="K57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>24-10-2017</v>
+      </c>
+      <c r="L57" s="9">
         <f t="shared" si="10"/>
-        <v>24-10-2017</v>
-      </c>
-      <c r="L57" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M57" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M57" s="9">
+        <v>10</v>
+      </c>
+      <c r="N57" s="9">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N57" s="9">
-        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="O57" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>24-10-2017</v>
       </c>
       <c r="P57" s="5" t="s">
@@ -6821,7 +6847,7 @@
         <v>19</v>
       </c>
       <c r="S57" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0056.jpg</v>
       </c>
       <c r="T57" s="5" t="s">
@@ -6858,27 +6884,27 @@
       <c r="I58" s="7">
         <v>1.79</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="12">
         <v>43051</v>
       </c>
       <c r="K58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>12-11-2017</v>
+      </c>
+      <c r="L58" s="9">
         <f t="shared" si="10"/>
-        <v>12-11-2017</v>
-      </c>
-      <c r="L58" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M58" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M58" s="9">
+        <v>11</v>
+      </c>
+      <c r="N58" s="9">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="N58" s="9">
-        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="O58" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>11-Dec-2017</v>
       </c>
       <c r="P58" s="5" t="s">
@@ -6891,14 +6917,14 @@
         <v>44</v>
       </c>
       <c r="S58" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0057.jpg</v>
       </c>
       <c r="T58" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>309</v>
       </c>
@@ -6928,27 +6954,27 @@
       <c r="I59" s="7">
         <v>1.41608</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="12">
         <v>43064</v>
       </c>
       <c r="K59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>25-11-2017</v>
+      </c>
+      <c r="L59" s="9">
         <f t="shared" si="10"/>
-        <v>25-11-2017</v>
-      </c>
-      <c r="L59" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M59" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M59" s="9">
+        <v>11</v>
+      </c>
+      <c r="N59" s="9">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="N59" s="9">
-        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="O59" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>25-11-2017</v>
       </c>
       <c r="P59" s="5" t="s">
@@ -6961,14 +6987,14 @@
         <v>19</v>
       </c>
       <c r="S59" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0058.jpg</v>
       </c>
       <c r="T59" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>315</v>
       </c>
@@ -6998,27 +7024,27 @@
       <c r="I60" s="7">
         <v>7.44</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="12">
         <v>43065</v>
       </c>
       <c r="K60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>26-11-2017</v>
+      </c>
+      <c r="L60" s="9">
         <f t="shared" si="10"/>
-        <v>26-11-2017</v>
-      </c>
-      <c r="L60" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M60" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M60" s="9">
+        <v>11</v>
+      </c>
+      <c r="N60" s="9">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="N60" s="9">
-        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="O60" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>26-11-2017</v>
       </c>
       <c r="P60" s="5" t="s">
@@ -7031,14 +7057,14 @@
         <v>19</v>
       </c>
       <c r="S60" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0059.jpg</v>
       </c>
       <c r="T60" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>318</v>
       </c>
@@ -7068,27 +7094,27 @@
       <c r="I61" s="7">
         <v>1.75</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="12">
         <v>43069</v>
       </c>
       <c r="K61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>30-11-2017</v>
+      </c>
+      <c r="L61" s="9">
         <f t="shared" si="10"/>
-        <v>30-11-2017</v>
-      </c>
-      <c r="L61" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M61" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M61" s="9">
+        <v>11</v>
+      </c>
+      <c r="N61" s="9">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="N61" s="9">
-        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="O61" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>30-11-2017</v>
       </c>
       <c r="P61" s="5" t="s">
@@ -7101,14 +7127,14 @@
         <v>19</v>
       </c>
       <c r="S61" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0060.jpg</v>
       </c>
       <c r="T61" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>322</v>
       </c>
@@ -7138,27 +7164,27 @@
       <c r="I62" s="7">
         <v>0.51</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="12">
         <v>43073</v>
       </c>
       <c r="K62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>04-12-2017</v>
+      </c>
+      <c r="L62" s="9">
         <f t="shared" si="10"/>
-        <v>04-12-2017</v>
-      </c>
-      <c r="L62" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M62" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M62" s="9">
+        <v>12</v>
+      </c>
+      <c r="N62" s="9">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="N62" s="9">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="O62" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>12-Apr-2017</v>
       </c>
       <c r="P62" s="5" t="s">
@@ -7171,14 +7197,14 @@
         <v>19</v>
       </c>
       <c r="S62" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0061.jpg</v>
       </c>
       <c r="T62" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>326</v>
       </c>
@@ -7208,27 +7234,27 @@
       <c r="I63" s="7">
         <v>7.42</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="12">
         <v>43077</v>
       </c>
       <c r="K63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>08-12-2017</v>
+      </c>
+      <c r="L63" s="9">
         <f t="shared" si="10"/>
-        <v>08-12-2017</v>
-      </c>
-      <c r="L63" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M63" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M63" s="9">
+        <v>12</v>
+      </c>
+      <c r="N63" s="9">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="N63" s="9">
-        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O63" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>12-Aug-2017</v>
       </c>
       <c r="P63" s="5" t="s">
@@ -7241,14 +7267,14 @@
         <v>19</v>
       </c>
       <c r="S63" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0062.jpg</v>
       </c>
       <c r="T63" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>329</v>
       </c>
@@ -7278,27 +7304,27 @@
       <c r="I64" s="7">
         <v>10.461181</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="12">
         <v>43085</v>
       </c>
       <c r="K64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>16-12-2017</v>
+      </c>
+      <c r="L64" s="9">
         <f t="shared" si="10"/>
-        <v>16-12-2017</v>
-      </c>
-      <c r="L64" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M64" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M64" s="9">
+        <v>12</v>
+      </c>
+      <c r="N64" s="9">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="N64" s="9">
-        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="O64" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>16-12-2017</v>
       </c>
       <c r="P64" s="5" t="s">
@@ -7311,14 +7337,14 @@
         <v>19</v>
       </c>
       <c r="S64" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0063.jpg</v>
       </c>
       <c r="T64" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>335</v>
       </c>
@@ -7348,27 +7374,27 @@
       <c r="I65" s="7">
         <v>2.0693009999999998</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="12">
         <v>43087</v>
       </c>
       <c r="K65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>18-12-2017</v>
+      </c>
+      <c r="L65" s="9">
         <f t="shared" si="10"/>
-        <v>18-12-2017</v>
-      </c>
-      <c r="L65" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M65" s="9">
         <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="M65" s="9">
+        <v>12</v>
+      </c>
+      <c r="N65" s="9">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="N65" s="9">
-        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="O65" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>18-12-2017</v>
       </c>
       <c r="P65" s="5" t="s">
@@ -7381,14 +7407,14 @@
         <v>19</v>
       </c>
       <c r="S65" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>data/IMG/0064.jpg</v>
       </c>
       <c r="T65" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>340</v>
       </c>
@@ -7396,7 +7422,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C97" si="16">+TEXT(B66,"0000")</f>
+        <f t="shared" ref="C66:C97" si="14">+TEXT(B66,"0000")</f>
         <v>0065</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -7409,7 +7435,7 @@
         <v>55</v>
       </c>
       <c r="G66" s="5" t="str">
-        <f t="shared" ref="G66:G97" si="17">+CONCATENATE(E66,", ",F66)</f>
+        <f t="shared" ref="G66:G97" si="15">+CONCATENATE(E66,", ",F66)</f>
         <v>Puerto Leguízamo, Putumayo</v>
       </c>
       <c r="H66" s="7">
@@ -7418,27 +7444,27 @@
       <c r="I66" s="7">
         <v>-0.18024000000000001</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="12">
         <v>43089</v>
       </c>
       <c r="K66" s="2" t="str">
-        <f t="shared" ref="K66:K97" si="18">+TEXT(J66,"DD-MM-YYYY")</f>
+        <f t="shared" ref="K66:K129" si="16">+TEXT(J66,"DD-MM-YYYY")</f>
         <v>20-12-2017</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" ref="L66:L97" si="19">+YEAR(J66)</f>
+        <f t="shared" ref="L66:L97" si="17">+YEAR(J66)</f>
         <v>2017</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" ref="M66:M97" si="20">+MONTH(J66)</f>
+        <f t="shared" ref="M66:M97" si="18">+MONTH(J66)</f>
         <v>12</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" ref="N66:N97" si="21">+DAY(J66)</f>
+        <f t="shared" ref="N66:N97" si="19">+DAY(J66)</f>
         <v>20</v>
       </c>
       <c r="O66" s="5" t="str">
-        <f t="shared" ref="O66:O97" si="22">+TEXT(K66,"DD-MMM-YYYY")</f>
+        <f t="shared" ref="O66:O130" si="20">+TEXT(K66,"DD-MMM-YYYY")</f>
         <v>20-12-2017</v>
       </c>
       <c r="P66" s="5" t="s">
@@ -7451,14 +7477,14 @@
         <v>19</v>
       </c>
       <c r="S66" s="5" t="str">
-        <f t="shared" ref="S66:S97" si="23">+TEXT(CONCATENATE("data/IMG/",C66,".jpg"),)</f>
+        <f t="shared" ref="S66:S97" si="21">+TEXT(CONCATENATE("data/IMG/",C66,".jpg"),)</f>
         <v>data/IMG/0065.jpg</v>
       </c>
       <c r="T66" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>345</v>
       </c>
@@ -7466,7 +7492,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0066</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -7479,7 +7505,7 @@
         <v>42</v>
       </c>
       <c r="G67" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Tierralta, Córdoba</v>
       </c>
       <c r="H67" s="7">
@@ -7488,27 +7514,27 @@
       <c r="I67" s="7">
         <v>8.1715710000000001</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="12">
         <v>43093</v>
       </c>
       <c r="K67" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>24-12-2017</v>
+      </c>
+      <c r="L67" s="9">
+        <f t="shared" si="17"/>
+        <v>2017</v>
+      </c>
+      <c r="M67" s="9">
         <f t="shared" si="18"/>
-        <v>24-12-2017</v>
-      </c>
-      <c r="L67" s="9">
+        <v>12</v>
+      </c>
+      <c r="N67" s="9">
         <f t="shared" si="19"/>
-        <v>2017</v>
-      </c>
-      <c r="M67" s="9">
+        <v>24</v>
+      </c>
+      <c r="O67" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="N67" s="9">
-        <f t="shared" si="21"/>
-        <v>24</v>
-      </c>
-      <c r="O67" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>24-12-2017</v>
       </c>
       <c r="P67" s="5" t="s">
@@ -7521,14 +7547,14 @@
         <v>19</v>
       </c>
       <c r="S67" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0066.jpg</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>350</v>
       </c>
@@ -7536,7 +7562,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0067</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -7549,7 +7575,7 @@
         <v>151</v>
       </c>
       <c r="G68" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Cumaral, Meta</v>
       </c>
       <c r="H68" s="7">
@@ -7558,27 +7584,27 @@
       <c r="I68" s="7">
         <v>4.2712620000000001</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="12">
         <v>43098</v>
       </c>
       <c r="K68" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>29-12-2017</v>
+      </c>
+      <c r="L68" s="9">
+        <f t="shared" si="17"/>
+        <v>2017</v>
+      </c>
+      <c r="M68" s="9">
         <f t="shared" si="18"/>
-        <v>29-12-2017</v>
-      </c>
-      <c r="L68" s="9">
+        <v>12</v>
+      </c>
+      <c r="N68" s="9">
         <f t="shared" si="19"/>
-        <v>2017</v>
-      </c>
-      <c r="M68" s="9">
+        <v>29</v>
+      </c>
+      <c r="O68" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="N68" s="9">
-        <f t="shared" si="21"/>
-        <v>29</v>
-      </c>
-      <c r="O68" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>29-12-2017</v>
       </c>
       <c r="P68" s="5" t="s">
@@ -7591,14 +7617,14 @@
         <v>19</v>
       </c>
       <c r="S68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0067.jpg</v>
       </c>
       <c r="T68" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>355</v>
       </c>
@@ -7606,7 +7632,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0068</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -7619,7 +7645,7 @@
         <v>88</v>
       </c>
       <c r="G69" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Yondó, Antioquia</v>
       </c>
       <c r="H69" s="7">
@@ -7628,27 +7654,27 @@
       <c r="I69" s="7">
         <v>7.0081405999999999</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="12">
         <v>43117</v>
       </c>
       <c r="K69" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>17-01-2018</v>
+      </c>
+      <c r="L69" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M69" s="9">
         <f t="shared" si="18"/>
-        <v>17-01-2018</v>
-      </c>
-      <c r="L69" s="9">
+        <v>1</v>
+      </c>
+      <c r="N69" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M69" s="9">
+        <v>17</v>
+      </c>
+      <c r="O69" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N69" s="9">
-        <f t="shared" si="21"/>
-        <v>17</v>
-      </c>
-      <c r="O69" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>17-01-2018</v>
       </c>
       <c r="P69" s="5" t="s">
@@ -7661,14 +7687,14 @@
         <v>19</v>
       </c>
       <c r="S69" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0068.jpg</v>
       </c>
       <c r="T69" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>360</v>
       </c>
@@ -7676,7 +7702,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0069</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -7689,7 +7715,7 @@
         <v>42</v>
       </c>
       <c r="G70" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>San José de Uré, Córdoba</v>
       </c>
       <c r="H70" s="7">
@@ -7698,27 +7724,27 @@
       <c r="I70" s="7">
         <v>7.7874439999999998</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="12">
         <v>43118</v>
       </c>
       <c r="K70" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>18-01-2018</v>
+      </c>
+      <c r="L70" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M70" s="9">
         <f t="shared" si="18"/>
-        <v>18-01-2018</v>
-      </c>
-      <c r="L70" s="9">
+        <v>1</v>
+      </c>
+      <c r="N70" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M70" s="9">
+        <v>18</v>
+      </c>
+      <c r="O70" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N70" s="9">
-        <f t="shared" si="21"/>
-        <v>18</v>
-      </c>
-      <c r="O70" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>18-01-2018</v>
       </c>
       <c r="P70" s="5" t="s">
@@ -7731,14 +7757,14 @@
         <v>19</v>
       </c>
       <c r="S70" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0069.jpg</v>
       </c>
       <c r="T70" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>365</v>
       </c>
@@ -7746,7 +7772,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0070</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -7759,7 +7785,7 @@
         <v>36</v>
       </c>
       <c r="G71" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Santander de Quilichao, Cauca</v>
       </c>
       <c r="H71" s="7">
@@ -7768,27 +7794,27 @@
       <c r="I71" s="7">
         <v>3.0122800000000001</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="12">
         <v>43123</v>
       </c>
       <c r="K71" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>23-01-2018</v>
+      </c>
+      <c r="L71" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M71" s="9">
         <f t="shared" si="18"/>
-        <v>23-01-2018</v>
-      </c>
-      <c r="L71" s="9">
+        <v>1</v>
+      </c>
+      <c r="N71" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M71" s="9">
+        <v>23</v>
+      </c>
+      <c r="O71" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N71" s="9">
-        <f t="shared" si="21"/>
-        <v>23</v>
-      </c>
-      <c r="O71" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>23-01-2018</v>
       </c>
       <c r="P71" s="5" t="s">
@@ -7801,14 +7827,14 @@
         <v>19</v>
       </c>
       <c r="S71" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0070.jpg</v>
       </c>
       <c r="T71" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>370</v>
       </c>
@@ -7816,7 +7842,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0071</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -7829,7 +7855,7 @@
         <v>82</v>
       </c>
       <c r="G72" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H72" s="7">
@@ -7838,27 +7864,27 @@
       <c r="I72" s="7">
         <v>5.7</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="12">
         <v>43127</v>
       </c>
       <c r="K72" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>27-01-2018</v>
+      </c>
+      <c r="L72" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M72" s="9">
         <f t="shared" si="18"/>
-        <v>27-01-2018</v>
-      </c>
-      <c r="L72" s="9">
+        <v>1</v>
+      </c>
+      <c r="N72" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M72" s="9">
+        <v>27</v>
+      </c>
+      <c r="O72" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N72" s="9">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="O72" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>27-01-2018</v>
       </c>
       <c r="P72" s="5" t="s">
@@ -7871,14 +7897,14 @@
         <v>19</v>
       </c>
       <c r="S72" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0071.jpg</v>
       </c>
       <c r="T72" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>374</v>
       </c>
@@ -7886,7 +7912,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0072</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -7899,7 +7925,7 @@
         <v>94</v>
       </c>
       <c r="G73" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Buenaventura, Valle del Cauca</v>
       </c>
       <c r="H73" s="7">
@@ -7908,27 +7934,27 @@
       <c r="I73" s="7">
         <v>3.87</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="12">
         <v>43127</v>
       </c>
       <c r="K73" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>27-01-2018</v>
+      </c>
+      <c r="L73" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M73" s="9">
         <f t="shared" si="18"/>
-        <v>27-01-2018</v>
-      </c>
-      <c r="L73" s="9">
+        <v>1</v>
+      </c>
+      <c r="N73" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M73" s="9">
+        <v>27</v>
+      </c>
+      <c r="O73" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N73" s="9">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="O73" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>27-01-2018</v>
       </c>
       <c r="P73" s="5" t="s">
@@ -7941,14 +7967,14 @@
         <v>19</v>
       </c>
       <c r="S73" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0072.jpg</v>
       </c>
       <c r="T73" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>378</v>
       </c>
@@ -7956,7 +7982,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0073</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -7969,7 +7995,7 @@
         <v>49</v>
       </c>
       <c r="G74" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Cantagallo, Bolívar</v>
       </c>
       <c r="H74" s="7">
@@ -7978,27 +8004,27 @@
       <c r="I74" s="7">
         <v>7.3815299999999997</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="12">
         <v>43127</v>
       </c>
       <c r="K74" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>27-01-2018</v>
+      </c>
+      <c r="L74" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M74" s="9">
         <f t="shared" si="18"/>
-        <v>27-01-2018</v>
-      </c>
-      <c r="L74" s="9">
+        <v>1</v>
+      </c>
+      <c r="N74" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M74" s="9">
+        <v>27</v>
+      </c>
+      <c r="O74" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N74" s="9">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="O74" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>27-01-2018</v>
       </c>
       <c r="P74" s="5" t="s">
@@ -8011,7 +8037,7 @@
         <v>19</v>
       </c>
       <c r="S74" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0073.jpg</v>
       </c>
       <c r="T74" s="5" t="s">
@@ -8026,7 +8052,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0074</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -8039,7 +8065,7 @@
         <v>386</v>
       </c>
       <c r="G75" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Pueblo Rico, Risaralda</v>
       </c>
       <c r="H75" s="7">
@@ -8048,27 +8074,27 @@
       <c r="I75" s="7">
         <v>5.2222879999999998</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="12">
         <v>43132</v>
       </c>
       <c r="K75" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>01-02-2018</v>
+      </c>
+      <c r="L75" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M75" s="9">
         <f t="shared" si="18"/>
-        <v>01-02-2018</v>
-      </c>
-      <c r="L75" s="9">
+        <v>2</v>
+      </c>
+      <c r="N75" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M75" s="9">
+        <v>1</v>
+      </c>
+      <c r="O75" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="N75" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O75" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>02-Jan-2018</v>
       </c>
       <c r="P75" s="5" t="s">
@@ -8081,7 +8107,7 @@
         <v>44</v>
       </c>
       <c r="S75" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0074.jpg</v>
       </c>
       <c r="T75" s="5" t="s">
@@ -8096,7 +8122,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0075</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -8109,7 +8135,7 @@
         <v>228</v>
       </c>
       <c r="G76" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Tibú, Norte de Santander</v>
       </c>
       <c r="H76" s="7">
@@ -8118,27 +8144,27 @@
       <c r="I76" s="7">
         <v>8.6423559999999995</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="12">
         <v>43138</v>
       </c>
       <c r="K76" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>07-02-2018</v>
+      </c>
+      <c r="L76" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M76" s="9">
         <f t="shared" si="18"/>
-        <v>07-02-2018</v>
-      </c>
-      <c r="L76" s="9">
+        <v>2</v>
+      </c>
+      <c r="N76" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M76" s="9">
+        <v>7</v>
+      </c>
+      <c r="O76" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="N76" s="9">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="O76" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>02-Jul-2018</v>
       </c>
       <c r="P76" s="5" t="s">
@@ -8151,14 +8177,14 @@
         <v>44</v>
       </c>
       <c r="S76" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0075.jpg</v>
       </c>
       <c r="T76" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>394</v>
       </c>
@@ -8166,7 +8192,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0076</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -8179,7 +8205,7 @@
         <v>36</v>
       </c>
       <c r="G77" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Guapi, Cauca</v>
       </c>
       <c r="H77" s="7">
@@ -8188,27 +8214,27 @@
       <c r="I77" s="7">
         <v>2.5712869999999999</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="12">
         <v>43141</v>
       </c>
       <c r="K77" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>10-02-2018</v>
+      </c>
+      <c r="L77" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M77" s="9">
         <f t="shared" si="18"/>
-        <v>10-02-2018</v>
-      </c>
-      <c r="L77" s="9">
+        <v>2</v>
+      </c>
+      <c r="N77" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M77" s="9">
+        <v>10</v>
+      </c>
+      <c r="O77" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="N77" s="9">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="O77" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>02-Oct-2018</v>
       </c>
       <c r="P77" s="5" t="s">
@@ -8221,14 +8247,14 @@
         <v>19</v>
       </c>
       <c r="S77" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0076.jpg</v>
       </c>
       <c r="T77" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>619</v>
       </c>
@@ -8236,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0077</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -8249,7 +8275,7 @@
         <v>228</v>
       </c>
       <c r="G78" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>El Tarra, Norte de Santander</v>
       </c>
       <c r="H78" s="7">
@@ -8258,27 +8284,27 @@
       <c r="I78" s="7">
         <v>8.5755009999999992</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="12">
         <v>43148</v>
       </c>
       <c r="K78" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>17-02-2018</v>
+      </c>
+      <c r="L78" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M78" s="9">
         <f t="shared" si="18"/>
-        <v>17-02-2018</v>
-      </c>
-      <c r="L78" s="9">
+        <v>2</v>
+      </c>
+      <c r="N78" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M78" s="9">
+        <v>17</v>
+      </c>
+      <c r="O78" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="N78" s="9">
-        <f t="shared" si="21"/>
-        <v>17</v>
-      </c>
-      <c r="O78" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>17-02-2018</v>
       </c>
       <c r="P78" s="5" t="s">
@@ -8291,14 +8317,14 @@
         <v>19</v>
       </c>
       <c r="S78" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0077.jpg</v>
       </c>
       <c r="T78" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>402</v>
       </c>
@@ -8306,7 +8332,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0078</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -8319,7 +8345,7 @@
         <v>42</v>
       </c>
       <c r="G79" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>San José de Uré, Córdoba</v>
       </c>
       <c r="H79" s="7">
@@ -8328,27 +8354,27 @@
       <c r="I79" s="7">
         <v>7.77</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="12">
         <v>43170</v>
       </c>
       <c r="K79" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>11-03-2018</v>
+      </c>
+      <c r="L79" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M79" s="9">
         <f t="shared" si="18"/>
-        <v>11-03-2018</v>
-      </c>
-      <c r="L79" s="9">
+        <v>3</v>
+      </c>
+      <c r="N79" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M79" s="9">
+        <v>11</v>
+      </c>
+      <c r="O79" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="N79" s="9">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="O79" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>03-Nov-2018</v>
       </c>
       <c r="P79" s="5" t="s">
@@ -8361,14 +8387,14 @@
         <v>19</v>
       </c>
       <c r="S79" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0078.jpg</v>
       </c>
       <c r="T79" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>406</v>
       </c>
@@ -8376,7 +8402,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0079</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -8389,7 +8415,7 @@
         <v>82</v>
       </c>
       <c r="G80" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H80" s="7">
@@ -8398,27 +8424,27 @@
       <c r="I80" s="7">
         <v>5.68</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="12">
         <v>43177</v>
       </c>
       <c r="K80" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>18-03-2018</v>
+      </c>
+      <c r="L80" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M80" s="9">
         <f t="shared" si="18"/>
-        <v>18-03-2018</v>
-      </c>
-      <c r="L80" s="9">
+        <v>3</v>
+      </c>
+      <c r="N80" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M80" s="9">
+        <v>18</v>
+      </c>
+      <c r="O80" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="N80" s="9">
-        <f t="shared" si="21"/>
-        <v>18</v>
-      </c>
-      <c r="O80" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>18-03-2018</v>
       </c>
       <c r="P80" s="5" t="s">
@@ -8431,14 +8457,14 @@
         <v>19</v>
       </c>
       <c r="S80" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0079.jpg</v>
       </c>
       <c r="T80" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>410</v>
       </c>
@@ -8446,7 +8472,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0080</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -8459,7 +8485,7 @@
         <v>88</v>
       </c>
       <c r="G81" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H81" s="7">
@@ -8468,27 +8494,27 @@
       <c r="I81" s="7">
         <v>7.18</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="12">
         <v>43181</v>
       </c>
       <c r="K81" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>22-03-2018</v>
+      </c>
+      <c r="L81" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M81" s="9">
         <f t="shared" si="18"/>
-        <v>22-03-2018</v>
-      </c>
-      <c r="L81" s="9">
+        <v>3</v>
+      </c>
+      <c r="N81" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M81" s="9">
+        <v>22</v>
+      </c>
+      <c r="O81" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="N81" s="9">
-        <f t="shared" si="21"/>
-        <v>22</v>
-      </c>
-      <c r="O81" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>22-03-2018</v>
       </c>
       <c r="P81" s="5" t="s">
@@ -8501,7 +8527,7 @@
         <v>19</v>
       </c>
       <c r="S81" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0080.jpg</v>
       </c>
       <c r="T81" s="5" t="s">
@@ -8516,7 +8542,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0081</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -8529,7 +8555,7 @@
         <v>151</v>
       </c>
       <c r="G82" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Mapiripán, Meta</v>
       </c>
       <c r="H82" s="7">
@@ -8538,27 +8564,27 @@
       <c r="I82" s="7">
         <v>2.892506</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="12">
         <v>43189</v>
       </c>
       <c r="K82" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>30-03-2018</v>
+      </c>
+      <c r="L82" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M82" s="9">
         <f t="shared" si="18"/>
-        <v>30-03-2018</v>
-      </c>
-      <c r="L82" s="9">
+        <v>3</v>
+      </c>
+      <c r="N82" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M82" s="9">
+        <v>30</v>
+      </c>
+      <c r="O82" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="N82" s="9">
-        <f t="shared" si="21"/>
-        <v>30</v>
-      </c>
-      <c r="O82" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>30-03-2018</v>
       </c>
       <c r="P82" s="5" t="s">
@@ -8571,14 +8597,14 @@
         <v>44</v>
       </c>
       <c r="S82" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0081.jpg</v>
       </c>
       <c r="T82" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>420</v>
       </c>
@@ -8586,7 +8612,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0082</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -8599,7 +8625,7 @@
         <v>36</v>
       </c>
       <c r="G83" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Rosas, Cauca</v>
       </c>
       <c r="H83" s="7">
@@ -8608,27 +8634,27 @@
       <c r="I83" s="7">
         <v>2.25</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="12">
         <v>43181</v>
       </c>
       <c r="K83" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>22-03-2018</v>
+      </c>
+      <c r="L83" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M83" s="9">
         <f t="shared" si="18"/>
-        <v>22-03-2018</v>
-      </c>
-      <c r="L83" s="9">
+        <v>3</v>
+      </c>
+      <c r="N83" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M83" s="9">
+        <v>22</v>
+      </c>
+      <c r="O83" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="N83" s="9">
-        <f t="shared" si="21"/>
-        <v>22</v>
-      </c>
-      <c r="O83" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>22-03-2018</v>
       </c>
       <c r="P83" s="5" t="s">
@@ -8641,14 +8667,14 @@
         <v>19</v>
       </c>
       <c r="S83" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0082.jpg</v>
       </c>
       <c r="T83" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>424</v>
       </c>
@@ -8656,7 +8682,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0083</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -8669,7 +8695,7 @@
         <v>82</v>
       </c>
       <c r="G84" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>San José del Palmar, Chocó</v>
       </c>
       <c r="H84" s="7">
@@ -8678,27 +8704,27 @@
       <c r="I84" s="7">
         <v>4.97262</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="12">
         <v>43200</v>
       </c>
       <c r="K84" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>10-04-2018</v>
+      </c>
+      <c r="L84" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M84" s="9">
         <f t="shared" si="18"/>
-        <v>10-04-2018</v>
-      </c>
-      <c r="L84" s="9">
+        <v>4</v>
+      </c>
+      <c r="N84" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M84" s="9">
+        <v>10</v>
+      </c>
+      <c r="O84" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="N84" s="9">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="O84" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>04-Oct-2018</v>
       </c>
       <c r="P84" s="5" t="s">
@@ -8711,14 +8737,14 @@
         <v>19</v>
       </c>
       <c r="S84" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0083.jpg</v>
       </c>
       <c r="T84" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>429</v>
       </c>
@@ -8726,7 +8752,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0084</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -8739,7 +8765,7 @@
         <v>88</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>San Pedro de Urabá, Antioquia</v>
       </c>
       <c r="H85" s="7">
@@ -8748,27 +8774,27 @@
       <c r="I85" s="7">
         <v>8.2758430000000001</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="12">
         <v>43210</v>
       </c>
       <c r="K85" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>20-04-2018</v>
+      </c>
+      <c r="L85" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M85" s="9">
         <f t="shared" si="18"/>
-        <v>20-04-2018</v>
-      </c>
-      <c r="L85" s="9">
+        <v>4</v>
+      </c>
+      <c r="N85" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M85" s="9">
+        <v>20</v>
+      </c>
+      <c r="O85" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="N85" s="9">
-        <f t="shared" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="O85" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>20-04-2018</v>
       </c>
       <c r="P85" s="5" t="s">
@@ -8781,7 +8807,7 @@
         <v>19</v>
       </c>
       <c r="S85" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0084.jpg</v>
       </c>
       <c r="T85" s="5" t="s">
@@ -8796,7 +8822,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0085</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -8809,7 +8835,7 @@
         <v>437</v>
       </c>
       <c r="G86" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Arauquita, Arauca</v>
       </c>
       <c r="H86" s="7">
@@ -8818,27 +8844,27 @@
       <c r="I86" s="7">
         <v>7.0293340000000004</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="12">
         <v>43222</v>
       </c>
       <c r="K86" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>02-05-2018</v>
+      </c>
+      <c r="L86" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M86" s="9">
         <f t="shared" si="18"/>
-        <v>02-05-2018</v>
-      </c>
-      <c r="L86" s="9">
+        <v>5</v>
+      </c>
+      <c r="N86" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M86" s="9">
+        <v>2</v>
+      </c>
+      <c r="O86" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="N86" s="9">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="O86" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>05-Feb-2018</v>
       </c>
       <c r="P86" s="5" t="s">
@@ -8851,14 +8877,14 @@
         <v>44</v>
       </c>
       <c r="S86" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0085.jpg</v>
       </c>
       <c r="T86" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>440</v>
       </c>
@@ -8866,7 +8892,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0086</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -8879,7 +8905,7 @@
         <v>88</v>
       </c>
       <c r="G87" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Valdivia, Antioquia</v>
       </c>
       <c r="H87" s="7">
@@ -8888,27 +8914,27 @@
       <c r="I87" s="7">
         <v>7.2911700000000002</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="12">
         <v>43222</v>
       </c>
       <c r="K87" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>02-05-2018</v>
+      </c>
+      <c r="L87" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M87" s="9">
         <f t="shared" si="18"/>
-        <v>02-05-2018</v>
-      </c>
-      <c r="L87" s="9">
+        <v>5</v>
+      </c>
+      <c r="N87" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M87" s="9">
+        <v>2</v>
+      </c>
+      <c r="O87" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="N87" s="9">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="O87" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>05-Feb-2018</v>
       </c>
       <c r="P87" s="5" t="s">
@@ -8921,14 +8947,14 @@
         <v>19</v>
       </c>
       <c r="S87" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0086.jpg</v>
       </c>
       <c r="T87" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>445</v>
       </c>
@@ -8936,7 +8962,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0087</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -8949,7 +8975,7 @@
         <v>36</v>
       </c>
       <c r="G88" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Corinto, Cauca</v>
       </c>
       <c r="H88" s="7">
@@ -8958,27 +8984,27 @@
       <c r="I88" s="7">
         <v>3.16</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="12">
         <v>43235</v>
       </c>
       <c r="K88" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>15-05-2018</v>
+      </c>
+      <c r="L88" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M88" s="9">
         <f t="shared" si="18"/>
-        <v>15-05-2018</v>
-      </c>
-      <c r="L88" s="9">
+        <v>5</v>
+      </c>
+      <c r="N88" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M88" s="9">
+        <v>15</v>
+      </c>
+      <c r="O88" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="N88" s="9">
-        <f t="shared" si="21"/>
-        <v>15</v>
-      </c>
-      <c r="O88" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>15-05-2018</v>
       </c>
       <c r="P88" s="5" t="s">
@@ -8991,14 +9017,14 @@
         <v>19</v>
       </c>
       <c r="S88" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0087.jpg</v>
       </c>
       <c r="T88" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>449</v>
       </c>
@@ -9006,7 +9032,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0088</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -9019,7 +9045,7 @@
         <v>452</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>La Argentina, Huila</v>
       </c>
       <c r="H89" s="7">
@@ -9028,27 +9054,27 @@
       <c r="I89" s="7">
         <v>2.1984439999999998</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="12">
         <v>43247</v>
       </c>
       <c r="K89" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>27-05-2018</v>
+      </c>
+      <c r="L89" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M89" s="9">
         <f t="shared" si="18"/>
-        <v>27-05-2018</v>
-      </c>
-      <c r="L89" s="9">
+        <v>5</v>
+      </c>
+      <c r="N89" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M89" s="9">
+        <v>27</v>
+      </c>
+      <c r="O89" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="N89" s="9">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="O89" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>27-05-2018</v>
       </c>
       <c r="P89" s="5" t="s">
@@ -9061,14 +9087,14 @@
         <v>19</v>
       </c>
       <c r="S89" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0088.jpg</v>
       </c>
       <c r="T89" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>455</v>
       </c>
@@ -9076,7 +9102,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0089</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -9089,7 +9115,7 @@
         <v>196</v>
       </c>
       <c r="G90" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Olaya Herrera, Nariño</v>
       </c>
       <c r="H90" s="7">
@@ -9098,27 +9124,27 @@
       <c r="I90" s="7">
         <v>1.2472700000000001</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="12">
         <v>43253</v>
       </c>
       <c r="K90" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>02-06-2018</v>
+      </c>
+      <c r="L90" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M90" s="9">
         <f t="shared" si="18"/>
-        <v>02-06-2018</v>
-      </c>
-      <c r="L90" s="9">
+        <v>6</v>
+      </c>
+      <c r="N90" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M90" s="9">
+        <v>2</v>
+      </c>
+      <c r="O90" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="N90" s="9">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="O90" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>06-Feb-2018</v>
       </c>
       <c r="P90" s="5" t="s">
@@ -9131,7 +9157,7 @@
         <v>19</v>
       </c>
       <c r="S90" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0089.jpg</v>
       </c>
       <c r="T90" s="5" t="s">
@@ -9146,7 +9172,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0090</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -9159,7 +9185,7 @@
         <v>228</v>
       </c>
       <c r="G91" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>San Calixto, Norte de Santander</v>
       </c>
       <c r="H91" s="7">
@@ -9168,27 +9194,27 @@
       <c r="I91" s="7">
         <v>8.4015988999999998</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="12">
         <v>43130</v>
       </c>
       <c r="K91" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>30-01-2018</v>
+      </c>
+      <c r="L91" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M91" s="9">
         <f t="shared" si="18"/>
-        <v>30-01-2018</v>
-      </c>
-      <c r="L91" s="9">
+        <v>1</v>
+      </c>
+      <c r="N91" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M91" s="9">
+        <v>30</v>
+      </c>
+      <c r="O91" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N91" s="9">
-        <f t="shared" si="21"/>
-        <v>30</v>
-      </c>
-      <c r="O91" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>30-01-2018</v>
       </c>
       <c r="P91" s="5" t="s">
@@ -9201,14 +9227,14 @@
         <v>44</v>
       </c>
       <c r="S91" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0090.jpg</v>
       </c>
       <c r="T91" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>465</v>
       </c>
@@ -9216,7 +9242,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0091</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -9229,7 +9255,7 @@
         <v>55</v>
       </c>
       <c r="G92" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Valle del Guamuez, Putumayo</v>
       </c>
       <c r="H92" s="7">
@@ -9238,27 +9264,27 @@
       <c r="I92" s="7">
         <v>0.4015861</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="12">
         <v>43262</v>
       </c>
       <c r="K92" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>11-06-2018</v>
+      </c>
+      <c r="L92" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M92" s="9">
         <f t="shared" si="18"/>
-        <v>11-06-2018</v>
-      </c>
-      <c r="L92" s="9">
+        <v>6</v>
+      </c>
+      <c r="N92" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M92" s="9">
+        <v>11</v>
+      </c>
+      <c r="O92" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="N92" s="9">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="O92" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>06-Nov-2018</v>
       </c>
       <c r="P92" s="5" t="s">
@@ -9271,14 +9297,14 @@
         <v>19</v>
       </c>
       <c r="S92" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0091.jpg</v>
       </c>
       <c r="T92" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>470</v>
       </c>
@@ -9286,7 +9312,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0092</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -9299,7 +9325,7 @@
         <v>88</v>
       </c>
       <c r="G93" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H93" s="7">
@@ -9308,27 +9334,27 @@
       <c r="I93" s="7">
         <v>7.17</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="12">
         <v>43263</v>
       </c>
       <c r="K93" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>12-06-2018</v>
+      </c>
+      <c r="L93" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M93" s="9">
         <f t="shared" si="18"/>
-        <v>12-06-2018</v>
-      </c>
-      <c r="L93" s="9">
+        <v>6</v>
+      </c>
+      <c r="N93" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M93" s="9">
+        <v>12</v>
+      </c>
+      <c r="O93" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="N93" s="9">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="O93" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>06-Dec-2018</v>
       </c>
       <c r="P93" s="5" t="s">
@@ -9341,7 +9367,7 @@
         <v>19</v>
       </c>
       <c r="S93" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0092.jpg</v>
       </c>
       <c r="T93" s="5" t="s">
@@ -9356,7 +9382,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0093</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -9369,7 +9395,7 @@
         <v>17</v>
       </c>
       <c r="G94" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Maicao, La Guajira</v>
       </c>
       <c r="H94" s="7">
@@ -9378,27 +9404,27 @@
       <c r="I94" s="7">
         <v>11.3789335</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="12">
         <v>43263</v>
       </c>
       <c r="K94" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>12-06-2018</v>
+      </c>
+      <c r="L94" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M94" s="9">
         <f t="shared" si="18"/>
-        <v>12-06-2018</v>
-      </c>
-      <c r="L94" s="9">
+        <v>6</v>
+      </c>
+      <c r="N94" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M94" s="9">
+        <v>12</v>
+      </c>
+      <c r="O94" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="N94" s="9">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="O94" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>06-Dec-2018</v>
       </c>
       <c r="P94" s="5" t="s">
@@ -9411,14 +9437,14 @@
         <v>44</v>
       </c>
       <c r="S94" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0093.jpg</v>
       </c>
       <c r="T94" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>478</v>
       </c>
@@ -9426,7 +9452,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0094</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -9439,7 +9465,7 @@
         <v>228</v>
       </c>
       <c r="G95" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Teorama, Norte de Santander</v>
       </c>
       <c r="H95" s="7">
@@ -9448,27 +9474,27 @@
       <c r="I95" s="7">
         <v>8.4375210000000003</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="12">
         <v>43274</v>
       </c>
       <c r="K95" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>23-06-2018</v>
+      </c>
+      <c r="L95" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M95" s="9">
         <f t="shared" si="18"/>
-        <v>23-06-2018</v>
-      </c>
-      <c r="L95" s="9">
+        <v>6</v>
+      </c>
+      <c r="N95" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M95" s="9">
+        <v>23</v>
+      </c>
+      <c r="O95" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="N95" s="9">
-        <f t="shared" si="21"/>
-        <v>23</v>
-      </c>
-      <c r="O95" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>23-06-2018</v>
       </c>
       <c r="P95" s="5" t="s">
@@ -9481,14 +9507,14 @@
         <v>19</v>
       </c>
       <c r="S95" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0094.jpg</v>
       </c>
       <c r="T95" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>483</v>
       </c>
@@ -9496,7 +9522,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0095</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -9509,7 +9535,7 @@
         <v>88</v>
       </c>
       <c r="G96" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H96" s="7">
@@ -9518,27 +9544,27 @@
       <c r="I96" s="7">
         <v>7.18</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="12">
         <v>43276</v>
       </c>
       <c r="K96" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>25-06-2018</v>
+      </c>
+      <c r="L96" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M96" s="9">
         <f t="shared" si="18"/>
-        <v>25-06-2018</v>
-      </c>
-      <c r="L96" s="9">
+        <v>6</v>
+      </c>
+      <c r="N96" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M96" s="9">
+        <v>25</v>
+      </c>
+      <c r="O96" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="N96" s="9">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="O96" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>25-06-2018</v>
       </c>
       <c r="P96" s="5" t="s">
@@ -9551,14 +9577,14 @@
         <v>19</v>
       </c>
       <c r="S96" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0095.jpg</v>
       </c>
       <c r="T96" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>503</v>
       </c>
@@ -9566,7 +9592,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0096</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -9579,7 +9605,7 @@
         <v>36</v>
       </c>
       <c r="G97" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Patía, Cauca</v>
       </c>
       <c r="H97" s="7">
@@ -9588,27 +9614,27 @@
       <c r="I97" s="7">
         <v>2.08</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="12">
         <v>43278</v>
       </c>
       <c r="K97" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>27-06-2018</v>
+      </c>
+      <c r="L97" s="9">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="M97" s="9">
         <f t="shared" si="18"/>
-        <v>27-06-2018</v>
-      </c>
-      <c r="L97" s="9">
+        <v>6</v>
+      </c>
+      <c r="N97" s="9">
         <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="M97" s="9">
+        <v>27</v>
+      </c>
+      <c r="O97" s="5" t="str">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="N97" s="9">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="O97" s="5" t="str">
-        <f t="shared" si="22"/>
         <v>27-06-2018</v>
       </c>
       <c r="P97" s="5" t="s">
@@ -9621,14 +9647,14 @@
         <v>19</v>
       </c>
       <c r="S97" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>data/IMG/0096.jpg</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>505</v>
       </c>
@@ -9636,7 +9662,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f t="shared" ref="C98:C129" si="24">+TEXT(B98,"0000")</f>
+        <f t="shared" ref="C98:C131" si="22">+TEXT(B98,"0000")</f>
         <v>0097</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -9649,7 +9675,7 @@
         <v>36</v>
       </c>
       <c r="G98" s="5" t="str">
-        <f t="shared" ref="G98:G129" si="25">+CONCATENATE(E98,", ",F98)</f>
+        <f t="shared" ref="G98:G131" si="23">+CONCATENATE(E98,", ",F98)</f>
         <v>Buenos Aires, Cauca</v>
       </c>
       <c r="H98" s="7">
@@ -9658,27 +9684,27 @@
       <c r="I98" s="7">
         <v>3.02</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="12">
         <v>43283</v>
       </c>
       <c r="K98" s="2" t="str">
-        <f t="shared" ref="K98:K129" si="26">+TEXT(J98,"DD-MM-YYYY")</f>
+        <f t="shared" si="16"/>
         <v>02-07-2018</v>
       </c>
       <c r="L98" s="9">
-        <f t="shared" ref="L98:L129" si="27">+YEAR(J98)</f>
+        <f t="shared" ref="L98:L131" si="24">+YEAR(J98)</f>
         <v>2018</v>
       </c>
       <c r="M98" s="9">
-        <f t="shared" ref="M98:M129" si="28">+MONTH(J98)</f>
+        <f t="shared" ref="M98:M129" si="25">+MONTH(J98)</f>
         <v>7</v>
       </c>
       <c r="N98" s="9">
-        <f t="shared" ref="N98:N129" si="29">+DAY(J98)</f>
+        <f t="shared" ref="N98:N129" si="26">+DAY(J98)</f>
         <v>2</v>
       </c>
       <c r="O98" s="5" t="str">
-        <f t="shared" ref="O98:O129" si="30">+TEXT(K98,"DD-MMM-YYYY")</f>
+        <f t="shared" si="20"/>
         <v>07-Feb-2018</v>
       </c>
       <c r="P98" s="5" t="s">
@@ -9691,14 +9717,14 @@
         <v>19</v>
       </c>
       <c r="S98" s="5" t="str">
-        <f t="shared" ref="S98:S129" si="31">+TEXT(CONCATENATE("data/IMG/",C98,".jpg"),)</f>
+        <f t="shared" ref="S98:S130" si="27">+TEXT(CONCATENATE("data/IMG/",C98,".jpg"),)</f>
         <v>data/IMG/0097.jpg</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>507</v>
       </c>
@@ -9706,7 +9732,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0098</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -9719,7 +9745,7 @@
         <v>42</v>
       </c>
       <c r="G99" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Puerto Libertador, Córdoba</v>
       </c>
       <c r="H99" s="7">
@@ -9728,27 +9754,27 @@
       <c r="I99" s="7">
         <v>7.86</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="12">
         <v>43280</v>
       </c>
       <c r="K99" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>29-06-2018</v>
+      </c>
+      <c r="L99" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M99" s="9">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="N99" s="9">
         <f t="shared" si="26"/>
-        <v>29-06-2018</v>
-      </c>
-      <c r="L99" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M99" s="9">
-        <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="N99" s="9">
-        <f t="shared" si="29"/>
         <v>29</v>
       </c>
       <c r="O99" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>29-06-2018</v>
       </c>
       <c r="P99" s="5" t="s">
@@ -9761,14 +9787,14 @@
         <v>19</v>
       </c>
       <c r="S99" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0098.jpg</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>509</v>
       </c>
@@ -9776,7 +9802,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0099</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -9789,7 +9815,7 @@
         <v>30</v>
       </c>
       <c r="G100" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Palmar de Varela, Atlántico</v>
       </c>
       <c r="H100" s="7">
@@ -9798,27 +9824,27 @@
       <c r="I100" s="7">
         <v>10.738</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="12">
         <v>43284</v>
       </c>
       <c r="K100" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>03-07-2018</v>
+      </c>
+      <c r="L100" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M100" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N100" s="9">
         <f t="shared" si="26"/>
-        <v>03-07-2018</v>
-      </c>
-      <c r="L100" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M100" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N100" s="9">
-        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="O100" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>07-Mar-2018</v>
       </c>
       <c r="P100" s="5" t="s">
@@ -9831,7 +9857,7 @@
         <v>19</v>
       </c>
       <c r="S100" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0099.jpg</v>
       </c>
       <c r="T100" s="5" t="s">
@@ -9846,7 +9872,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0100</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -9859,7 +9885,7 @@
         <v>82</v>
       </c>
       <c r="G101" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H101" s="7">
@@ -9868,27 +9894,27 @@
       <c r="I101" s="7">
         <v>5.7</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="12">
         <v>43284</v>
       </c>
       <c r="K101" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>03-07-2018</v>
+      </c>
+      <c r="L101" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M101" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N101" s="9">
         <f t="shared" si="26"/>
-        <v>03-07-2018</v>
-      </c>
-      <c r="L101" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M101" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N101" s="9">
-        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="O101" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>07-Mar-2018</v>
       </c>
       <c r="P101" s="5" t="s">
@@ -9901,7 +9927,7 @@
         <v>44</v>
       </c>
       <c r="S101" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0100.jpg</v>
       </c>
       <c r="T101" s="5" t="s">
@@ -9916,7 +9942,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0101</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -9929,7 +9955,7 @@
         <v>196</v>
       </c>
       <c r="G102" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H102" s="7">
@@ -9938,27 +9964,27 @@
       <c r="I102" s="7">
         <v>1.77</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="12">
         <v>43284</v>
       </c>
       <c r="K102" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>03-07-2018</v>
+      </c>
+      <c r="L102" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M102" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N102" s="9">
         <f t="shared" si="26"/>
-        <v>03-07-2018</v>
-      </c>
-      <c r="L102" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M102" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N102" s="9">
-        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="O102" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>07-Mar-2018</v>
       </c>
       <c r="P102" s="5" t="s">
@@ -9971,7 +9997,7 @@
         <v>44</v>
       </c>
       <c r="S102" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0101.jpg</v>
       </c>
       <c r="T102" s="5" t="s">
@@ -9986,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0102</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -9999,7 +10025,7 @@
         <v>88</v>
       </c>
       <c r="G103" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Cáceres, Antioquia</v>
       </c>
       <c r="H103" s="7">
@@ -10008,27 +10034,27 @@
       <c r="I103" s="7">
         <v>7.58</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="12">
         <v>43285</v>
       </c>
       <c r="K103" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>04-07-2018</v>
+      </c>
+      <c r="L103" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M103" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N103" s="9">
         <f t="shared" si="26"/>
-        <v>04-07-2018</v>
-      </c>
-      <c r="L103" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M103" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N103" s="9">
-        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="O103" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>07-Apr-2018</v>
       </c>
       <c r="P103" s="5" t="s">
@@ -10041,14 +10067,14 @@
         <v>44</v>
       </c>
       <c r="S103" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0102.jpg</v>
       </c>
       <c r="T103" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>530</v>
       </c>
@@ -10056,7 +10082,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0103</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -10069,7 +10095,7 @@
         <v>36</v>
       </c>
       <c r="G104" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Caloto, Cauca</v>
       </c>
       <c r="H104" s="7">
@@ -10078,27 +10104,27 @@
       <c r="I104" s="7">
         <v>3.02</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104" s="12">
         <v>43279</v>
       </c>
       <c r="K104" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>28-06-2018</v>
+      </c>
+      <c r="L104" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M104" s="9">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="N104" s="9">
         <f t="shared" si="26"/>
-        <v>28-06-2018</v>
-      </c>
-      <c r="L104" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M104" s="9">
-        <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="N104" s="9">
-        <f t="shared" si="29"/>
         <v>28</v>
       </c>
       <c r="O104" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>28-06-2018</v>
       </c>
       <c r="P104" s="5" t="s">
@@ -10111,23 +10137,23 @@
         <v>19</v>
       </c>
       <c r="S104" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0103.jpg</v>
       </c>
       <c r="T104" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="str">
-        <f t="shared" ref="A105:A129" si="32">+CONCATENATE(B105,". ",D105)</f>
+        <f t="shared" ref="A105:A131" si="28">+CONCATENATE(B105,". ",D105)</f>
         <v>104. Fernando Gómez</v>
       </c>
       <c r="B105" s="9">
         <v>104</v>
       </c>
       <c r="C105" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0104</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -10140,7 +10166,7 @@
         <v>94</v>
       </c>
       <c r="G105" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Santa Rosa de Tapias, Valle del Cauca</v>
       </c>
       <c r="H105" s="7">
@@ -10149,27 +10175,27 @@
       <c r="I105" s="7">
         <v>3.82</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105" s="12">
         <v>43288</v>
       </c>
       <c r="K105" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>07-07-2018</v>
+      </c>
+      <c r="L105" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M105" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N105" s="9">
         <f t="shared" si="26"/>
-        <v>07-07-2018</v>
-      </c>
-      <c r="L105" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M105" s="9">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="N105" s="9">
-        <f t="shared" si="29"/>
-        <v>7</v>
-      </c>
       <c r="O105" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>07-Jul-2018</v>
       </c>
       <c r="P105" s="5" t="s">
@@ -10182,23 +10208,23 @@
         <v>19</v>
       </c>
       <c r="S105" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0104.jpg</v>
       </c>
       <c r="T105" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>105. José Fernando Jaramillo Oquendo</v>
       </c>
       <c r="B106" s="9">
         <v>105</v>
       </c>
       <c r="C106" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0105</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -10211,7 +10237,7 @@
         <v>88</v>
       </c>
       <c r="G106" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H106" s="7">
@@ -10220,27 +10246,27 @@
       <c r="I106" s="7">
         <v>7.15</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106" s="12">
         <v>43287</v>
       </c>
       <c r="K106" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>06-07-2018</v>
+      </c>
+      <c r="L106" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M106" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N106" s="9">
         <f t="shared" si="26"/>
-        <v>06-07-2018</v>
-      </c>
-      <c r="L106" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M106" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N106" s="9">
-        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="O106" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>07-Jun-2018</v>
       </c>
       <c r="P106" s="5" t="s">
@@ -10253,23 +10279,23 @@
         <v>19</v>
       </c>
       <c r="S106" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0105.jpg</v>
       </c>
       <c r="T106" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>106. Juan de Jesús Moreno</v>
       </c>
       <c r="B107" s="9">
         <v>106</v>
       </c>
       <c r="C107" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0106</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -10282,7 +10308,7 @@
         <v>312</v>
       </c>
       <c r="G107" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Curillo, Caquetá</v>
       </c>
       <c r="H107" s="7">
@@ -10291,27 +10317,27 @@
       <c r="I107" s="7">
         <v>1.03</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="12">
         <v>43297</v>
       </c>
       <c r="K107" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>16-07-2018</v>
+      </c>
+      <c r="L107" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M107" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N107" s="9">
         <f t="shared" si="26"/>
-        <v>16-07-2018</v>
-      </c>
-      <c r="L107" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M107" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N107" s="9">
-        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="O107" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>16-07-2018</v>
       </c>
       <c r="P107" s="5" t="s">
@@ -10324,23 +10350,23 @@
         <v>19</v>
       </c>
       <c r="S107" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0106.jpg</v>
       </c>
       <c r="T107" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>107. Ibes Trujillo</v>
       </c>
       <c r="B108" s="9">
         <v>107</v>
       </c>
       <c r="C108" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0107</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -10353,7 +10379,7 @@
         <v>36</v>
       </c>
       <c r="G108" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Buenos Aires, Cauca</v>
       </c>
       <c r="H108" s="7">
@@ -10362,27 +10388,27 @@
       <c r="I108" s="7">
         <v>3.01</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108" s="12">
         <v>43298</v>
       </c>
       <c r="K108" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>17-07-2018</v>
+      </c>
+      <c r="L108" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M108" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N108" s="9">
         <f t="shared" si="26"/>
-        <v>17-07-2018</v>
-      </c>
-      <c r="L108" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M108" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N108" s="9">
-        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="O108" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>17-07-2018</v>
       </c>
       <c r="P108" s="5" t="s">
@@ -10395,23 +10421,23 @@
         <v>19</v>
       </c>
       <c r="S108" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0107.jpg</v>
       </c>
       <c r="T108" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>108. Robert Jaraba</v>
       </c>
       <c r="B109" s="9">
         <v>108</v>
       </c>
       <c r="C109" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0108</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -10424,7 +10450,7 @@
         <v>88</v>
       </c>
       <c r="G109" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Caucasia, Antioquia</v>
       </c>
       <c r="H109" s="7">
@@ -10433,27 +10459,27 @@
       <c r="I109" s="7">
         <v>7.98</v>
       </c>
-      <c r="J109" s="2">
+      <c r="J109" s="12">
         <v>43298</v>
       </c>
       <c r="K109" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>17-07-2018</v>
+      </c>
+      <c r="L109" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M109" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N109" s="9">
         <f t="shared" si="26"/>
-        <v>17-07-2018</v>
-      </c>
-      <c r="L109" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M109" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N109" s="9">
-        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="O109" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>17-07-2018</v>
       </c>
       <c r="P109" s="5" t="s">
@@ -10466,23 +10492,23 @@
         <v>19</v>
       </c>
       <c r="S109" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0108.jpg</v>
       </c>
       <c r="T109" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>109. Homero Ortega</v>
       </c>
       <c r="B110" s="9">
         <v>109</v>
       </c>
       <c r="C110" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0109</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -10495,7 +10521,7 @@
         <v>437</v>
       </c>
       <c r="G110" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Arauquita, Arauca</v>
       </c>
       <c r="H110" s="7">
@@ -10504,27 +10530,27 @@
       <c r="I110" s="7">
         <v>7.01</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110" s="12">
         <v>43299</v>
       </c>
       <c r="K110" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>18-07-2018</v>
+      </c>
+      <c r="L110" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M110" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N110" s="9">
         <f t="shared" si="26"/>
-        <v>18-07-2018</v>
-      </c>
-      <c r="L110" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M110" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N110" s="9">
-        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="O110" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>18-07-2018</v>
       </c>
       <c r="P110" s="5" t="s">
@@ -10537,23 +10563,23 @@
         <v>19</v>
       </c>
       <c r="S110" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0109.jpg</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>110. Horacio Triana Parra</v>
       </c>
       <c r="B111" s="9">
         <v>110</v>
       </c>
       <c r="C111" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0110</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -10566,7 +10592,7 @@
         <v>559</v>
       </c>
       <c r="G111" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Otanche, Boyacá</v>
       </c>
       <c r="H111" s="7">
@@ -10575,27 +10601,27 @@
       <c r="I111" s="7">
         <v>5.66</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J111" s="12">
         <v>43301</v>
       </c>
       <c r="K111" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>20-07-2018</v>
+      </c>
+      <c r="L111" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M111" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N111" s="9">
         <f t="shared" si="26"/>
-        <v>20-07-2018</v>
-      </c>
-      <c r="L111" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M111" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N111" s="9">
-        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="O111" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>20-07-2018</v>
       </c>
       <c r="P111" s="5" t="s">
@@ -10608,23 +10634,23 @@
         <v>19</v>
       </c>
       <c r="S111" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0110.jpg</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>111. Ancizar Cifuentes Vargas</v>
       </c>
       <c r="B112" s="9">
         <v>111</v>
       </c>
       <c r="C112" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0111</v>
       </c>
       <c r="D112" s="5" t="s">
@@ -10637,7 +10663,7 @@
         <v>564</v>
       </c>
       <c r="G112" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Chaparral, Tolima</v>
       </c>
       <c r="H112" s="7">
@@ -10646,27 +10672,27 @@
       <c r="I112" s="7">
         <v>3.72</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J112" s="12">
         <v>43287</v>
       </c>
       <c r="K112" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>06-07-2018</v>
+      </c>
+      <c r="L112" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M112" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N112" s="9">
         <f t="shared" si="26"/>
-        <v>06-07-2018</v>
-      </c>
-      <c r="L112" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M112" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N112" s="9">
-        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="O112" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>07-Jun-2018</v>
       </c>
       <c r="P112" s="5" t="s">
@@ -10679,23 +10705,23 @@
         <v>19</v>
       </c>
       <c r="S112" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0111.jpg</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>112. José Oswaldo Taquez</v>
       </c>
       <c r="B113" s="9">
         <v>112</v>
       </c>
       <c r="C113" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0112</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -10708,7 +10734,7 @@
         <v>55</v>
       </c>
       <c r="G113" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Orito, Putumayo</v>
       </c>
       <c r="H113" s="7">
@@ -10717,27 +10743,27 @@
       <c r="I113" s="7">
         <v>0.65</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113" s="12">
         <v>43287</v>
       </c>
       <c r="K113" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>06-07-2018</v>
+      </c>
+      <c r="L113" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M113" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N113" s="9">
         <f t="shared" si="26"/>
-        <v>06-07-2018</v>
-      </c>
-      <c r="L113" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M113" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N113" s="9">
-        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="O113" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>07-Jun-2018</v>
       </c>
       <c r="P113" s="5" t="s">
@@ -10750,23 +10776,23 @@
         <v>19</v>
       </c>
       <c r="S113" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0112.jpg</v>
       </c>
       <c r="T113" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>113. Kevin León</v>
       </c>
       <c r="B114" s="9">
         <v>113</v>
       </c>
       <c r="C114" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0113</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -10779,7 +10805,7 @@
         <v>88</v>
       </c>
       <c r="G114" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Medellín, Antioquia</v>
       </c>
       <c r="H114" s="7">
@@ -10788,27 +10814,27 @@
       <c r="I114" s="7">
         <v>6.23</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J114" s="12">
         <v>43303</v>
       </c>
       <c r="K114" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>22-07-2018</v>
+      </c>
+      <c r="L114" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M114" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N114" s="9">
         <f t="shared" si="26"/>
-        <v>22-07-2018</v>
-      </c>
-      <c r="L114" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M114" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N114" s="9">
-        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="O114" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>22-07-2018</v>
       </c>
       <c r="P114" s="5" t="s">
@@ -10821,23 +10847,23 @@
         <v>19</v>
       </c>
       <c r="S114" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0113.jpg</v>
       </c>
       <c r="T114" s="5" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>114. Libardo Moreno</v>
       </c>
       <c r="B115" s="9">
         <v>114</v>
       </c>
       <c r="C115" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0114</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -10850,7 +10876,7 @@
         <v>94</v>
       </c>
       <c r="G115" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Jamundí, Valle del Cauca</v>
       </c>
       <c r="H115" s="7">
@@ -10859,27 +10885,27 @@
       <c r="I115" s="7">
         <v>3.23</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J115" s="12">
         <v>43304</v>
       </c>
       <c r="K115" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>23-07-2018</v>
+      </c>
+      <c r="L115" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M115" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N115" s="9">
         <f t="shared" si="26"/>
-        <v>23-07-2018</v>
-      </c>
-      <c r="L115" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M115" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N115" s="9">
-        <f t="shared" si="29"/>
         <v>23</v>
       </c>
       <c r="O115" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>23-07-2018</v>
       </c>
       <c r="P115" s="5" t="s">
@@ -10892,23 +10918,23 @@
         <v>19</v>
       </c>
       <c r="S115" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0114.jpg</v>
       </c>
       <c r="T115" s="5" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>115. Fabián Rosales Niño</v>
       </c>
       <c r="B116" s="9">
         <v>115</v>
       </c>
       <c r="C116" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0115</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -10921,7 +10947,7 @@
         <v>228</v>
       </c>
       <c r="G116" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Cúcuta, Norte de Santander</v>
       </c>
       <c r="H116" s="7">
@@ -10930,27 +10956,27 @@
       <c r="I116" s="7">
         <v>7.88</v>
       </c>
-      <c r="J116" s="2">
+      <c r="J116" s="12">
         <v>43306</v>
       </c>
       <c r="K116" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>25-07-2018</v>
+      </c>
+      <c r="L116" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M116" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N116" s="9">
         <f t="shared" si="26"/>
-        <v>25-07-2018</v>
-      </c>
-      <c r="L116" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M116" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N116" s="9">
-        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="O116" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>25-07-2018</v>
       </c>
       <c r="P116" s="5" t="s">
@@ -10963,23 +10989,23 @@
         <v>19</v>
       </c>
       <c r="S116" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0115.jpg</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>116. Fredy Quintero Guillin</v>
       </c>
       <c r="B117" s="9">
         <v>116</v>
       </c>
       <c r="C117" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0116</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -10992,7 +11018,7 @@
         <v>228</v>
       </c>
       <c r="G117" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>El Tarra, Norte de Santander</v>
       </c>
       <c r="H117" s="7">
@@ -11001,27 +11027,27 @@
       <c r="I117" s="7">
         <v>8.58</v>
       </c>
-      <c r="J117" s="2">
+      <c r="J117" s="12">
         <v>43311</v>
       </c>
       <c r="K117" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>30-07-2018</v>
+      </c>
+      <c r="L117" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M117" s="9">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N117" s="9">
         <f t="shared" si="26"/>
-        <v>30-07-2018</v>
-      </c>
-      <c r="L117" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M117" s="9">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="N117" s="9">
-        <f t="shared" si="29"/>
         <v>30</v>
       </c>
       <c r="O117" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>30-07-2018</v>
       </c>
       <c r="P117" s="5" t="s">
@@ -11034,23 +11060,23 @@
         <v>19</v>
       </c>
       <c r="S117" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0116.jpg</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>117. Uriel Rodríguez</v>
       </c>
       <c r="B118" s="9">
         <v>117</v>
       </c>
       <c r="C118" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0117</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -11063,7 +11089,7 @@
         <v>36</v>
       </c>
       <c r="G118" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Cajibio, Cauca</v>
       </c>
       <c r="H118" s="7">
@@ -11072,27 +11098,27 @@
       <c r="I118" s="7">
         <v>2.62</v>
       </c>
-      <c r="J118" s="2">
+      <c r="J118" s="12">
         <v>43319</v>
       </c>
       <c r="K118" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>07-08-2018</v>
+      </c>
+      <c r="L118" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M118" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N118" s="9">
         <f t="shared" si="26"/>
-        <v>07-08-2018</v>
-      </c>
-      <c r="L118" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M118" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N118" s="9">
-        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="O118" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>08-Jul-2018</v>
       </c>
       <c r="P118" s="5" t="s">
@@ -11105,23 +11131,23 @@
         <v>19</v>
       </c>
       <c r="S118" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0117.jpg</v>
       </c>
       <c r="T118" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>118. Emiliano Tróchez Yonda</v>
       </c>
       <c r="B119" s="9">
         <v>118</v>
       </c>
       <c r="C119" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0118</v>
       </c>
       <c r="D119" s="5" t="s">
@@ -11134,7 +11160,7 @@
         <v>36</v>
       </c>
       <c r="G119" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Santander de Quilichao, Cauca</v>
       </c>
       <c r="H119" s="7">
@@ -11143,27 +11169,27 @@
       <c r="I119" s="7">
         <v>3.02</v>
       </c>
-      <c r="J119" s="2">
+      <c r="J119" s="12">
         <v>43322</v>
       </c>
       <c r="K119" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>10-08-2018</v>
+      </c>
+      <c r="L119" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M119" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N119" s="9">
         <f t="shared" si="26"/>
-        <v>10-08-2018</v>
-      </c>
-      <c r="L119" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M119" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N119" s="9">
-        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="O119" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>08-Oct-2018</v>
       </c>
       <c r="P119" s="5" t="s">
@@ -11176,23 +11202,23 @@
         <v>19</v>
       </c>
       <c r="S119" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0118.jpg</v>
       </c>
       <c r="T119" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>119. Alejandro Jacanamejoy</v>
       </c>
       <c r="B120" s="9">
         <v>119</v>
       </c>
       <c r="C120" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0119</v>
       </c>
       <c r="D120" s="5" t="s">
@@ -11205,7 +11231,7 @@
         <v>55</v>
       </c>
       <c r="G120" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Puerto Leguízamo, Putumayo</v>
       </c>
       <c r="H120" s="7">
@@ -11214,27 +11240,27 @@
       <c r="I120" s="7">
         <v>-0.17</v>
       </c>
-      <c r="J120" s="2">
+      <c r="J120" s="12">
         <v>43321</v>
       </c>
       <c r="K120" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>09-08-2018</v>
+      </c>
+      <c r="L120" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M120" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N120" s="9">
         <f t="shared" si="26"/>
-        <v>09-08-2018</v>
-      </c>
-      <c r="L120" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M120" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N120" s="9">
-        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="O120" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>08-Sep-2018</v>
       </c>
       <c r="P120" s="5" t="s">
@@ -11247,23 +11273,23 @@
         <v>19</v>
       </c>
       <c r="S120" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0119.jpg</v>
       </c>
       <c r="T120" s="5" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>120. Alfredo Palacio Jiménez</v>
       </c>
       <c r="B121" s="9">
         <v>120</v>
       </c>
       <c r="C121" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0120</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -11276,7 +11302,7 @@
         <v>332</v>
       </c>
       <c r="G121" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Aracataca, Magdalena</v>
       </c>
       <c r="H121" s="7">
@@ -11285,27 +11311,27 @@
       <c r="I121" s="7">
         <v>10.6</v>
       </c>
-      <c r="J121" s="2">
+      <c r="J121" s="12">
         <v>43324</v>
       </c>
       <c r="K121" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>12-08-2018</v>
+      </c>
+      <c r="L121" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M121" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N121" s="9">
         <f t="shared" si="26"/>
-        <v>12-08-2018</v>
-      </c>
-      <c r="L121" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M121" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N121" s="9">
-        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="O121" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>08-Dec-2018</v>
       </c>
       <c r="P121" s="5" t="s">
@@ -11318,23 +11344,23 @@
         <v>19</v>
       </c>
       <c r="S121" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0120.jpg</v>
       </c>
       <c r="T121" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>121. Jorge Eliécer Roa Patiño</v>
       </c>
       <c r="B122" s="9">
         <v>121</v>
       </c>
       <c r="C122" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0121</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -11347,7 +11373,7 @@
         <v>263</v>
       </c>
       <c r="G122" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Calamar, Guaviare</v>
       </c>
       <c r="H122" s="7">
@@ -11356,27 +11382,27 @@
       <c r="I122" s="7">
         <v>1.95</v>
       </c>
-      <c r="J122" s="2">
+      <c r="J122" s="12">
         <v>43325</v>
       </c>
       <c r="K122" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>13-08-2018</v>
+      </c>
+      <c r="L122" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M122" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N122" s="9">
         <f t="shared" si="26"/>
-        <v>13-08-2018</v>
-      </c>
-      <c r="L122" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M122" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N122" s="9">
-        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="O122" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>13-08-2018</v>
       </c>
       <c r="P122" s="5" t="s">
@@ -11389,23 +11415,23 @@
         <v>19</v>
       </c>
       <c r="S122" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0121.jpg</v>
       </c>
       <c r="T122" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>122. Holmes Alberto Niscue</v>
       </c>
       <c r="B123" s="9">
         <v>122</v>
       </c>
       <c r="C123" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0122</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -11418,7 +11444,7 @@
         <v>196</v>
       </c>
       <c r="G123" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H123" s="7">
@@ -11427,27 +11453,27 @@
       <c r="I123" s="7">
         <v>1.76</v>
       </c>
-      <c r="J123" s="2">
+      <c r="J123" s="12">
         <v>43331</v>
       </c>
       <c r="K123" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>19-08-2018</v>
+      </c>
+      <c r="L123" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M123" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N123" s="9">
         <f t="shared" si="26"/>
-        <v>19-08-2018</v>
-      </c>
-      <c r="L123" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M123" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N123" s="9">
-        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O123" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>19-08-2018</v>
       </c>
       <c r="P123" s="5" t="s">
@@ -11460,23 +11486,23 @@
         <v>19</v>
       </c>
       <c r="S123" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0122.jpg</v>
       </c>
       <c r="T123" s="5" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>123. José García Amariles</v>
       </c>
       <c r="B124" s="9">
         <v>123</v>
       </c>
       <c r="C124" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0123</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -11489,7 +11515,7 @@
         <v>88</v>
       </c>
       <c r="G124" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Valdivia, Antioquia</v>
       </c>
       <c r="H124" s="7">
@@ -11498,27 +11524,27 @@
       <c r="I124" s="7">
         <v>7.28</v>
       </c>
-      <c r="J124" s="2">
+      <c r="J124" s="12">
         <v>43329</v>
       </c>
       <c r="K124" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>17-08-2018</v>
+      </c>
+      <c r="L124" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M124" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N124" s="9">
         <f t="shared" si="26"/>
-        <v>17-08-2018</v>
-      </c>
-      <c r="L124" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M124" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N124" s="9">
-        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="O124" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>17-08-2018</v>
       </c>
       <c r="P124" s="5" t="s">
@@ -11531,23 +11557,23 @@
         <v>19</v>
       </c>
       <c r="S124" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0123.jpg</v>
       </c>
       <c r="T124" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>124. Marco Tulio Grajales</v>
       </c>
       <c r="B125" s="9">
         <v>124</v>
       </c>
       <c r="C125" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0124</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -11560,7 +11586,7 @@
         <v>606</v>
       </c>
       <c r="G125" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Armenia, Quindio</v>
       </c>
       <c r="H125" s="7">
@@ -11569,27 +11595,27 @@
       <c r="I125" s="7">
         <v>4.5199999999999996</v>
       </c>
-      <c r="J125" s="2">
+      <c r="J125" s="12">
         <v>43331</v>
       </c>
       <c r="K125" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>19-08-2018</v>
+      </c>
+      <c r="L125" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M125" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N125" s="9">
         <f t="shared" si="26"/>
-        <v>19-08-2018</v>
-      </c>
-      <c r="L125" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M125" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N125" s="9">
-        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O125" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>19-08-2018</v>
       </c>
       <c r="P125" s="5" t="s">
@@ -11602,23 +11628,23 @@
         <v>19</v>
       </c>
       <c r="S125" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0124.jpg</v>
       </c>
       <c r="T125" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>125. Luis Alberto Rivas</v>
       </c>
       <c r="B126" s="9">
         <v>125</v>
       </c>
       <c r="C126" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0125</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -11631,7 +11657,7 @@
         <v>88</v>
       </c>
       <c r="G126" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Turbo, Antioquia</v>
       </c>
       <c r="H126" s="7">
@@ -11640,27 +11666,27 @@
       <c r="I126" s="7">
         <v>8.08</v>
       </c>
-      <c r="J126" s="2">
+      <c r="J126" s="12">
         <v>43330</v>
       </c>
       <c r="K126" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>18-08-2018</v>
+      </c>
+      <c r="L126" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M126" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N126" s="9">
         <f t="shared" si="26"/>
-        <v>18-08-2018</v>
-      </c>
-      <c r="L126" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M126" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N126" s="9">
-        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="O126" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>18-08-2018</v>
       </c>
       <c r="P126" s="5" t="s">
@@ -11673,23 +11699,23 @@
         <v>19</v>
       </c>
       <c r="S126" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0125.jpg</v>
       </c>
       <c r="T126" s="5" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>126. Jefferson Arévalo</v>
       </c>
       <c r="B127" s="9">
         <v>126</v>
       </c>
       <c r="C127" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0126</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -11702,7 +11728,7 @@
         <v>151</v>
       </c>
       <c r="G127" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Puerto Rico, Meta</v>
       </c>
       <c r="H127" s="7">
@@ -11711,27 +11737,27 @@
       <c r="I127" s="7">
         <v>2.93</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J127" s="12">
         <v>43335</v>
       </c>
       <c r="K127" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>23-08-2018</v>
+      </c>
+      <c r="L127" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M127" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N127" s="9">
         <f t="shared" si="26"/>
-        <v>23-08-2018</v>
-      </c>
-      <c r="L127" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M127" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N127" s="9">
-        <f t="shared" si="29"/>
         <v>23</v>
       </c>
       <c r="O127" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>23-08-2018</v>
       </c>
       <c r="P127" s="5" t="s">
@@ -11744,23 +11770,23 @@
         <v>19</v>
       </c>
       <c r="S127" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0126.jpg</v>
       </c>
       <c r="T127" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>127. Jorge Enrique Monsalve Giraldo</v>
       </c>
       <c r="B128" s="9">
         <v>127</v>
       </c>
       <c r="C128" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0127</v>
       </c>
       <c r="D128" s="5" t="s">
@@ -11773,7 +11799,7 @@
         <v>88</v>
       </c>
       <c r="G128" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Tarazá, Antioquia</v>
       </c>
       <c r="H128" s="7">
@@ -11782,27 +11808,27 @@
       <c r="I128" s="7">
         <v>7.56</v>
       </c>
-      <c r="J128" s="2">
+      <c r="J128" s="12">
         <v>43337</v>
       </c>
       <c r="K128" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>25-08-2018</v>
+      </c>
+      <c r="L128" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M128" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N128" s="9">
         <f t="shared" si="26"/>
-        <v>25-08-2018</v>
-      </c>
-      <c r="L128" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M128" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N128" s="9">
-        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="O128" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>25-08-2018</v>
       </c>
       <c r="P128" s="5" t="s">
@@ -11815,23 +11841,23 @@
         <v>19</v>
       </c>
       <c r="S128" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0127.jpg</v>
       </c>
       <c r="T128" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>128. James Escobar</v>
       </c>
       <c r="B129" s="9">
         <v>128</v>
       </c>
       <c r="C129" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0128</v>
       </c>
       <c r="D129" s="5" t="s">
@@ -11844,7 +11870,7 @@
         <v>196</v>
       </c>
       <c r="G129" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H129" s="7">
@@ -11853,27 +11879,27 @@
       <c r="I129" s="7">
         <v>1.75</v>
       </c>
-      <c r="J129" s="2">
+      <c r="J129" s="12">
         <v>43341</v>
       </c>
       <c r="K129" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>29-08-2018</v>
+      </c>
+      <c r="L129" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M129" s="9">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N129" s="9">
         <f t="shared" si="26"/>
-        <v>29-08-2018</v>
-      </c>
-      <c r="L129" s="9">
-        <f t="shared" si="27"/>
-        <v>2018</v>
-      </c>
-      <c r="M129" s="9">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="N129" s="9">
-        <f t="shared" si="29"/>
         <v>29</v>
       </c>
       <c r="O129" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>29-08-2018</v>
       </c>
       <c r="P129" s="5" t="s">
@@ -11886,20 +11912,157 @@
         <v>19</v>
       </c>
       <c r="S129" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>data/IMG/0128.jpg</v>
       </c>
       <c r="T129" s="5" t="s">
         <v>618</v>
       </c>
     </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>129. Alirio Arenas</v>
+      </c>
+      <c r="B130" s="9">
+        <v>129</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0129</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G130" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>Ocaña, Norte de Santander</v>
+      </c>
+      <c r="H130" s="7">
+        <v>-73.349999999999994</v>
+      </c>
+      <c r="I130" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="J130" s="12">
+        <v>43140</v>
+      </c>
+      <c r="K130" s="2" t="str">
+        <f t="shared" ref="K130:K131" si="29">+TEXT(J130,"DD-MM-YYYY")</f>
+        <v>09-02-2018</v>
+      </c>
+      <c r="L130" s="9">
+        <f t="shared" si="24"/>
+        <v>2018</v>
+      </c>
+      <c r="M130" s="9">
+        <f t="shared" ref="M130" si="30">+MONTH(J130)</f>
+        <v>2</v>
+      </c>
+      <c r="N130" s="9">
+        <f t="shared" ref="N130" si="31">+DAY(J130)</f>
+        <v>9</v>
+      </c>
+      <c r="O130" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v>02-Sep-2018</v>
+      </c>
+      <c r="P130" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q130" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="R130" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S130" s="5" t="str">
+        <f t="shared" ref="S130:S131" si="32">+TEXT(CONCATENATE("data/IMG/",C130,".jpg"),)</f>
+        <v>data/IMG/0129.jpg</v>
+      </c>
+      <c r="T130" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>130. Óliver Herrera</v>
+      </c>
+      <c r="B131" s="9">
+        <v>130</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0130</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G131" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>San Juan de Lozada, Meta</v>
+      </c>
+      <c r="H131" s="7">
+        <v>-74.58</v>
+      </c>
+      <c r="I131" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="K131" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>31/08/2018</v>
+      </c>
+      <c r="L131" s="9" t="e">
+        <f t="shared" ref="L131" si="33">+YEAR(J131)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M131" s="9" t="e">
+        <f t="shared" ref="M131" si="34">+MONTH(J131)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N131" s="9" t="e">
+        <f t="shared" ref="N131" si="35">+DAY(J131)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O131" s="5" t="str">
+        <f t="shared" ref="O131" si="36">+TEXT(K131,"DD-MMM-YYYY")</f>
+        <v>31/08/2018</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q131" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="R131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S131" s="5" t="str">
+        <f t="shared" ref="S131" si="37">+TEXT(CONCATENATE("data/IMG/",C131,".jpg"),)</f>
+        <v>data/IMG/0130.jpg</v>
+      </c>
+      <c r="T131" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:T129">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="Femenino"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:T129">
       <sortCondition ref="B1:B101"/>
     </sortState>

--- a/docs/data/data_XLS.xlsx
+++ b/docs/data/data_XLS.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccruz\Google Drive\06_GITHUB\LideresSociales\docs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6330C-21BC-40D8-AB90-D5EA6E10500E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA137193-6EE1-4894-A521-1BCE1EC9C796}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lideres_DB_Geo_corr" sheetId="1" r:id="rId1"/>
+    <sheet name="data_lideres" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lideres_DB_Geo_corr!$A$1:$T$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_lideres!$A$1:$T$129</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="629">
   <si>
     <t>RAW</t>
   </si>
@@ -1966,14 +1967,23 @@
   <si>
     <t>&lt;p&gt; Alirio Antonio Arenas Gómez era un reconocido líder social en Ocaña por su trabajo en la zona rural de la vereda San Isidro, donde era presidente de la Junta de Acción Comunal. También hizo parte del Movimiento por la Constituyente Popular (MCP), y fue concejal y presidente del Concejo del municipio de Convención, por el partido MAIS. El pasado 2 de septiembre en la madrugada fue asesinado en el barrio Belén, de Ocaña, por hombres que le dispararon varias veces. Arenas había denunciado amenazas a su vida en los últimos meses, y aunque la Unidad Nacional de Protección (UNP) había autorizado un esquema de protección para él, no se lo asignaron. &lt;/p&gt;</t>
   </si>
+  <si>
+    <t>131. Norberto Jaramillo</t>
+  </si>
+  <si>
+    <t>Norberto Jaramillo</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tal como muchos de los casos que hemos denunciado en los últimos meses, hombres armados llegaron hasta la casa de este líder social y lo asesinaron con disparos de arma de fuego. Jaramillo era presidente de la Junta de Acción Comunal de la vereda La Envidia, zona rural del municipio antioqueño de Tarazá, y trabajaba en programas de sustitución de cultivos de uso ilícito en la zona. En esta área del norte de Antioquia hacen presencia grupos como Los Caparrapos y las AGC, que cobran extorsiones a quienes participan en sustitución de cultivos y realizan atentados.&lt;/p&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -2487,14 +2497,14 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -2852,13 +2862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T131"/>
+  <dimension ref="A1:T132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G135" sqref="G135"/>
+      <selection pane="bottomRight" activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9673,7 +9683,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="str">
-        <f t="shared" ref="C98:C131" si="22">+TEXT(B98,"0000")</f>
+        <f t="shared" ref="C98:C132" si="22">+TEXT(B98,"0000")</f>
         <v>0097</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -9686,7 +9696,7 @@
         <v>36</v>
       </c>
       <c r="G98" s="14" t="str">
-        <f t="shared" ref="G98:G131" si="23">+CONCATENATE(E98,", ",F98)</f>
+        <f t="shared" ref="G98:G132" si="23">+CONCATENATE(E98,", ",F98)</f>
         <v>Buenos Aires, Cauca</v>
       </c>
       <c r="H98" s="6">
@@ -9703,15 +9713,15 @@
         <v>02-07-2018</v>
       </c>
       <c r="L98" s="18">
-        <f t="shared" ref="L98:L130" si="24">+YEAR(J98)</f>
+        <f t="shared" ref="L98:L127" si="24">+YEAR(J98)</f>
         <v>2018</v>
       </c>
       <c r="M98" s="18">
-        <f t="shared" ref="M98:M129" si="25">+MONTH(J98)</f>
+        <f t="shared" ref="M98:M127" si="25">+MONTH(J98)</f>
         <v>7</v>
       </c>
       <c r="N98" s="18">
-        <f t="shared" ref="N98:N129" si="26">+DAY(J98)</f>
+        <f t="shared" ref="N98:N127" si="26">+DAY(J98)</f>
         <v>2</v>
       </c>
       <c r="O98" s="14" t="str">
@@ -11827,15 +11837,15 @@
         <v>25-08-2018</v>
       </c>
       <c r="L128" s="18">
-        <f t="shared" ref="L128:L131" si="29">+YEAR(J128)</f>
+        <f t="shared" ref="L128:L132" si="29">+YEAR(J128)</f>
         <v>2018</v>
       </c>
       <c r="M128" s="18">
-        <f t="shared" ref="M128:M131" si="30">+MONTH(J128)</f>
+        <f t="shared" ref="M128:M132" si="30">+MONTH(J128)</f>
         <v>8</v>
       </c>
       <c r="N128" s="18">
-        <f t="shared" ref="N128:N131" si="31">+DAY(J128)</f>
+        <f t="shared" ref="N128:N132" si="31">+DAY(J128)</f>
         <v>25</v>
       </c>
       <c r="O128" s="14" t="str">
@@ -11965,7 +11975,7 @@
         <v>43140</v>
       </c>
       <c r="K130" s="16" t="str">
-        <f t="shared" ref="K130:K131" si="32">+TEXT(J130,"DD-MM-YYYY")</f>
+        <f t="shared" ref="K130:K132" si="32">+TEXT(J130,"DD-MM-YYYY")</f>
         <v>09-02-2018</v>
       </c>
       <c r="L130" s="18">
@@ -12052,7 +12062,7 @@
         <v>31</v>
       </c>
       <c r="O131" s="14" t="str">
-        <f t="shared" ref="O131" si="34">+TEXT(K131,"DD-MMM-YYYY")</f>
+        <f t="shared" ref="O131:O132" si="34">+TEXT(K131,"DD-MMM-YYYY")</f>
         <v>31-08-2018</v>
       </c>
       <c r="P131" s="4" t="s">
@@ -12065,11 +12075,81 @@
         <v>19</v>
       </c>
       <c r="S131" s="14" t="str">
-        <f t="shared" ref="S131" si="35">+TEXT(CONCATENATE("data/IMG/",C131,".jpg"),)</f>
+        <f t="shared" ref="S131:S132" si="35">+TEXT(CONCATENATE("data/IMG/",C131,".jpg"),)</f>
         <v>data/IMG/0130.jpg</v>
       </c>
       <c r="T131" s="4" t="s">
         <v>624</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B132" s="8">
+        <v>131</v>
+      </c>
+      <c r="C132" s="12" t="str">
+        <f t="shared" si="22"/>
+        <v>0131</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>Tarazá, Antioquia</v>
+      </c>
+      <c r="H132" s="6">
+        <v>-75.38</v>
+      </c>
+      <c r="I132" s="6">
+        <v>7.57</v>
+      </c>
+      <c r="J132" s="10">
+        <v>43348</v>
+      </c>
+      <c r="K132" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>05-09-2018</v>
+      </c>
+      <c r="L132" s="18">
+        <f t="shared" si="29"/>
+        <v>2018</v>
+      </c>
+      <c r="M132" s="18">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="N132" s="18">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="O132" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>05-09-2018</v>
+      </c>
+      <c r="P132" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q132" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="R132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S132" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>data/IMG/0131.jpg</v>
+      </c>
+      <c r="T132" s="4" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
